--- a/specifications_full.xlsx
+++ b/specifications_full.xlsx
@@ -1338,7 +1338,9 @@
           <t>Объем бетона В15 на заделку торцов аннулируемых труб</t>
         </is>
       </c>
-      <c r="C65" s="6" t="inlineStr"/>
+      <c r="C65" s="6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
       <c r="D65" s="6" t="inlineStr"/>
       <c r="E65" s="6" t="inlineStr"/>
     </row>
@@ -1349,7 +1351,9 @@
           <t>Труба чугунная напорная ГОСТ 9573-2012 ∅200</t>
         </is>
       </c>
-      <c r="C66" s="6" t="inlineStr"/>
+      <c r="C66" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="D66" s="6" t="inlineStr"/>
       <c r="E66" s="6" t="inlineStr"/>
     </row>
@@ -1382,7 +1386,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х 13,40</t>
         </is>
       </c>
-      <c r="C69" s="6" t="inlineStr"/>
+      <c r="C69" s="6" t="n">
+        <v>45.2</v>
+      </c>
       <c r="D69" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -1399,7 +1405,9 @@
           <t>а) Разборка и восстановление проезда</t>
         </is>
       </c>
-      <c r="C70" s="6" t="inlineStr"/>
+      <c r="C70" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D70" s="6" t="inlineStr"/>
       <c r="E70" s="6" t="inlineStr"/>
     </row>
@@ -1421,7 +1429,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х 13,40</t>
         </is>
       </c>
-      <c r="C72" s="6" t="inlineStr"/>
+      <c r="C72" s="6" t="n">
+        <v>610.4</v>
+      </c>
       <c r="D72" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -1438,7 +1448,9 @@
           <t>Устройство котлованов 1,80х6,0м</t>
         </is>
       </c>
-      <c r="C73" s="6" t="inlineStr"/>
+      <c r="C73" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="D73" s="6" t="inlineStr"/>
       <c r="E73" s="6" t="inlineStr"/>
     </row>
@@ -1449,7 +1461,9 @@
           <t>3,00х6,0м</t>
         </is>
       </c>
-      <c r="C74" s="6" t="inlineStr"/>
+      <c r="C74" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D74" s="6" t="inlineStr"/>
       <c r="E74" s="6" t="inlineStr"/>
     </row>
@@ -1460,7 +1474,9 @@
           <t>а) Разборка и восстановление проезда</t>
         </is>
       </c>
-      <c r="C75" s="6" t="inlineStr"/>
+      <c r="C75" s="6" t="n">
+        <v>10.8</v>
+      </c>
       <c r="D75" s="6" t="inlineStr"/>
       <c r="E75" s="6" t="inlineStr"/>
     </row>
@@ -1471,7 +1487,9 @@
           <t>КГ из сборных ж/б элементов ∅1500</t>
         </is>
       </c>
-      <c r="C76" s="6" t="inlineStr"/>
+      <c r="C76" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D76" s="6" t="inlineStr"/>
       <c r="E76" s="6" t="inlineStr"/>
     </row>
@@ -1482,7 +1500,9 @@
           <t>Колодец из сборных ж/б элементов ∅1500</t>
         </is>
       </c>
-      <c r="C77" s="6" t="inlineStr"/>
+      <c r="C77" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D77" s="6" t="inlineStr"/>
       <c r="E77" s="6" t="inlineStr"/>
     </row>
@@ -1493,7 +1513,9 @@
           <t>∅2000</t>
         </is>
       </c>
-      <c r="C78" s="6" t="inlineStr"/>
+      <c r="C78" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D78" s="6" t="inlineStr"/>
       <c r="E78" s="6" t="inlineStr"/>
     </row>
@@ -1504,7 +1526,9 @@
           <t>Люк чугунный Л(А15)-к.1-60 / утепляющая крышка</t>
         </is>
       </c>
-      <c r="C79" s="6" t="inlineStr"/>
+      <c r="C79" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D79" s="6" t="inlineStr"/>
       <c r="E79" s="6" t="inlineStr"/>
     </row>
@@ -1515,7 +1539,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C80" s="6" t="inlineStr"/>
+      <c r="C80" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="D80" s="6" t="inlineStr"/>
       <c r="E80" s="6" t="inlineStr"/>
     </row>
@@ -1526,7 +1552,9 @@
           <t>Праймер битумный</t>
         </is>
       </c>
-      <c r="C81" s="6" t="inlineStr"/>
+      <c r="C81" s="6" t="n">
+        <v>47.56</v>
+      </c>
       <c r="D81" s="6" t="inlineStr"/>
       <c r="E81" s="6" t="inlineStr">
         <is>
@@ -1541,7 +1569,9 @@
           <t>Мастика битумная гидроизоляционная</t>
         </is>
       </c>
-      <c r="C82" s="6" t="inlineStr"/>
+      <c r="C82" s="6" t="n">
+        <v>95.11</v>
+      </c>
       <c r="D82" s="6" t="inlineStr"/>
       <c r="E82" s="6" t="inlineStr">
         <is>
@@ -1556,7 +1586,9 @@
           <t>Засыпка ямы</t>
         </is>
       </c>
-      <c r="C83" s="6" t="inlineStr"/>
+      <c r="C83" s="6" t="n">
+        <v>19</v>
+      </c>
       <c r="D83" s="6" t="inlineStr"/>
       <c r="E83" s="6" t="inlineStr"/>
     </row>
@@ -1567,7 +1599,9 @@
           <t>Отвод сварной 90° ПЭ100 SDR 17 225х13,40</t>
         </is>
       </c>
-      <c r="C84" s="6" t="inlineStr"/>
+      <c r="C84" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D84" s="6" t="inlineStr"/>
       <c r="E84" s="6" t="inlineStr">
         <is>
@@ -1582,7 +1616,9 @@
           <t>Отвод сварной 45° ПЭ100 SDR 17 225х13,40</t>
         </is>
       </c>
-      <c r="C85" s="6" t="inlineStr"/>
+      <c r="C85" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D85" s="6" t="inlineStr"/>
       <c r="E85" s="6" t="inlineStr">
         <is>
@@ -1597,7 +1633,9 @@
           <t>Отвод сварной 40° ПЭ100 SDR 17 225х13,40</t>
         </is>
       </c>
-      <c r="C86" s="6" t="inlineStr"/>
+      <c r="C86" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D86" s="6" t="inlineStr"/>
       <c r="E86" s="6" t="inlineStr">
         <is>
@@ -1612,7 +1650,9 @@
           <t>Отвод сварной 30° ПЭ100 SDR 17 225х13,40</t>
         </is>
       </c>
-      <c r="C87" s="6" t="inlineStr"/>
+      <c r="C87" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D87" s="6" t="inlineStr"/>
       <c r="E87" s="6" t="inlineStr"/>
     </row>
@@ -1623,7 +1663,9 @@
           <t>Муфта с закладными нагревателями ПЭ 100 SDR 17 225</t>
         </is>
       </c>
-      <c r="C88" s="6" t="inlineStr"/>
+      <c r="C88" s="6" t="n">
+        <v>24</v>
+      </c>
       <c r="D88" s="6" t="inlineStr"/>
       <c r="E88" s="6" t="inlineStr">
         <is>
@@ -1638,7 +1680,9 @@
           <t>Втулка под фланец SDR17 ∅225 L=80</t>
         </is>
       </c>
-      <c r="C89" s="6" t="inlineStr"/>
+      <c r="C89" s="6" t="n">
+        <v>14</v>
+      </c>
       <c r="D89" s="6" t="inlineStr"/>
       <c r="E89" s="6" t="inlineStr">
         <is>
@@ -1653,7 +1697,9 @@
           <t>Фланец стальной накидной 1,0МПа Dу200</t>
         </is>
       </c>
-      <c r="C90" s="6" t="inlineStr"/>
+      <c r="C90" s="6" t="n">
+        <v>14</v>
+      </c>
       <c r="D90" s="6" t="inlineStr"/>
       <c r="E90" s="6" t="inlineStr">
         <is>
@@ -1668,7 +1714,9 @@
           <t>Тройник сварной равнопроходной ПЭ100 SDR17 L 600х430 ∅225</t>
         </is>
       </c>
-      <c r="C91" s="6" t="inlineStr"/>
+      <c r="C91" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D91" s="6" t="inlineStr"/>
       <c r="E91" s="6" t="inlineStr">
         <is>
@@ -1683,7 +1731,9 @@
           <t>Задвижка "Гранар" с обрезиненным клином серии КR 20 DN200</t>
         </is>
       </c>
-      <c r="C92" s="6" t="inlineStr"/>
+      <c r="C92" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D92" s="6" t="inlineStr"/>
       <c r="E92" s="6" t="inlineStr">
         <is>
@@ -1709,7 +1759,9 @@
           <t>Воздушный вантуз для канализации ∅50 PN16 ар</t>
         </is>
       </c>
-      <c r="C94" s="6" t="inlineStr"/>
+      <c r="C94" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D94" s="6" t="inlineStr"/>
       <c r="E94" s="6" t="inlineStr">
         <is>
@@ -1725,7 +1777,9 @@
 ар</t>
         </is>
       </c>
-      <c r="C95" s="6" t="inlineStr"/>
+      <c r="C95" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D95" s="6" t="inlineStr"/>
       <c r="E95" s="6" t="inlineStr">
         <is>
@@ -1740,7 +1794,9 @@
           <t>Штурвал ар</t>
         </is>
       </c>
-      <c r="C96" s="6" t="inlineStr"/>
+      <c r="C96" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D96" s="6" t="inlineStr"/>
       <c r="E96" s="6" t="inlineStr">
         <is>
@@ -1755,7 +1811,9 @@
           <t>Переход фланцевый DN 200х50 ар</t>
         </is>
       </c>
-      <c r="C97" s="6" t="inlineStr"/>
+      <c r="C97" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D97" s="6" t="inlineStr"/>
       <c r="E97" s="6" t="inlineStr">
         <is>
@@ -1770,7 +1828,9 @@
           <t>Тройник фланцевый равнопроходной DN 200х200 ар</t>
         </is>
       </c>
-      <c r="C98" s="6" t="inlineStr"/>
+      <c r="C98" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D98" s="6" t="inlineStr"/>
       <c r="E98" s="6" t="inlineStr">
         <is>
@@ -1785,7 +1845,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN200</t>
         </is>
       </c>
-      <c r="C99" s="6" t="inlineStr"/>
+      <c r="C99" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D99" s="6" t="inlineStr"/>
       <c r="E99" s="6" t="inlineStr"/>
     </row>
@@ -1796,7 +1858,9 @@
           <t>Вывешивание сетей при пересечении, площадь сечения короба S=0,4м2</t>
         </is>
       </c>
-      <c r="C100" s="6" t="inlineStr"/>
+      <c r="C100" s="6" t="n">
+        <v>28</v>
+      </c>
       <c r="D100" s="6" t="inlineStr"/>
       <c r="E100" s="6" t="inlineStr"/>
     </row>
@@ -1807,7 +1871,9 @@
           <t>Упор бетонный УГ-5 (800х1000х600, Vбет.=0,48м3)</t>
         </is>
       </c>
-      <c r="C101" s="6" t="inlineStr"/>
+      <c r="C101" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D101" s="6" t="inlineStr"/>
       <c r="E101" s="6" t="inlineStr"/>
     </row>
@@ -1818,7 +1884,9 @@
           <t>Упор бетонный УГ-1 (400х700х400, Vбет.=0,112м3)</t>
         </is>
       </c>
-      <c r="C102" s="6" t="inlineStr"/>
+      <c r="C102" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D102" s="6" t="inlineStr"/>
       <c r="E102" s="6" t="inlineStr"/>
     </row>
@@ -1851,7 +1919,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 315 х 18,70</t>
         </is>
       </c>
-      <c r="C105" s="6" t="inlineStr"/>
+      <c r="C105" s="6" t="n">
+        <v>5.8</v>
+      </c>
       <c r="D105" s="6" t="n">
         <v>16.71</v>
       </c>
@@ -1868,7 +1938,9 @@
           <t>Муфта защитная для ПЭ трубы ∅315</t>
         </is>
       </c>
-      <c r="C106" s="6" t="inlineStr"/>
+      <c r="C106" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D106" s="6" t="inlineStr"/>
       <c r="E106" s="6" t="inlineStr"/>
     </row>
@@ -1879,7 +1951,9 @@
           <t>Колодец из сборных ж/б элементов ∅1500</t>
         </is>
       </c>
-      <c r="C107" s="6" t="inlineStr"/>
+      <c r="C107" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D107" s="6" t="inlineStr"/>
       <c r="E107" s="6" t="inlineStr"/>
     </row>
@@ -1890,7 +1964,9 @@
           <t>Люк чугунный Л(А15)-к.1-60 / утепляющая крышка</t>
         </is>
       </c>
-      <c r="C108" s="6" t="inlineStr"/>
+      <c r="C108" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D108" s="6" t="inlineStr"/>
       <c r="E108" s="6" t="inlineStr"/>
     </row>
@@ -1901,7 +1977,9 @@
           <t>Праймер битумный</t>
         </is>
       </c>
-      <c r="C109" s="6" t="inlineStr"/>
+      <c r="C109" s="6" t="n">
+        <v>10.9</v>
+      </c>
       <c r="D109" s="6" t="inlineStr"/>
       <c r="E109" s="6" t="inlineStr">
         <is>
@@ -1916,7 +1994,9 @@
           <t>Мастика битумная гидроизоляционная</t>
         </is>
       </c>
-      <c r="C110" s="6" t="inlineStr"/>
+      <c r="C110" s="6" t="n">
+        <v>21.8</v>
+      </c>
       <c r="D110" s="6" t="inlineStr"/>
       <c r="E110" s="6" t="inlineStr">
         <is>
@@ -1931,7 +2011,9 @@
           <t>Гильза ст. ∅820х7,0 L=150мм(проход через стенку ж/б кол.)</t>
         </is>
       </c>
-      <c r="C111" s="6" t="inlineStr"/>
+      <c r="C111" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D111" s="6" t="inlineStr"/>
       <c r="E111" s="6" t="inlineStr"/>
     </row>
@@ -1942,7 +2024,9 @@
           <t>Врезка в существующую сеть ∅600</t>
         </is>
       </c>
-      <c r="C112" s="6" t="inlineStr"/>
+      <c r="C112" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D112" s="6" t="inlineStr"/>
       <c r="E112" s="6" t="inlineStr"/>
     </row>
@@ -1964,7 +2048,9 @@
           <t>Объем бетона В15 на заделку торцов недемонтируемых труб</t>
         </is>
       </c>
-      <c r="C114" s="6" t="inlineStr"/>
+      <c r="C114" s="6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
       <c r="D114" s="6" t="inlineStr"/>
       <c r="E114" s="6" t="inlineStr"/>
     </row>
@@ -1997,7 +2083,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х 13,40</t>
         </is>
       </c>
-      <c r="C117" s="6" t="inlineStr"/>
+      <c r="C117" s="6" t="n">
+        <v>34.1</v>
+      </c>
       <c r="D117" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -2014,7 +2102,9 @@
           <t>а) Разборка и восстановление проезда</t>
         </is>
       </c>
-      <c r="C118" s="6" t="inlineStr"/>
+      <c r="C118" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D118" s="6" t="inlineStr"/>
       <c r="E118" s="6" t="inlineStr"/>
     </row>
@@ -2036,7 +2126,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х 13,40</t>
         </is>
       </c>
-      <c r="C120" s="6" t="inlineStr"/>
+      <c r="C120" s="6" t="n">
+        <v>627.8</v>
+      </c>
       <c r="D120" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -2053,7 +2145,9 @@
           <t>Устройство котлованов 1,80х6,0м</t>
         </is>
       </c>
-      <c r="C121" s="6" t="inlineStr"/>
+      <c r="C121" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="D121" s="6" t="inlineStr"/>
       <c r="E121" s="6" t="inlineStr"/>
     </row>
@@ -2064,7 +2158,9 @@
           <t>3,00х6,0м</t>
         </is>
       </c>
-      <c r="C122" s="6" t="inlineStr"/>
+      <c r="C122" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D122" s="6" t="inlineStr"/>
       <c r="E122" s="6" t="inlineStr"/>
     </row>
@@ -2075,7 +2171,9 @@
           <t>а) Разборка и восстановление проезда</t>
         </is>
       </c>
-      <c r="C123" s="6" t="inlineStr"/>
+      <c r="C123" s="6" t="n">
+        <v>18.4</v>
+      </c>
       <c r="D123" s="6" t="inlineStr"/>
       <c r="E123" s="6" t="inlineStr"/>
     </row>
@@ -2086,7 +2184,9 @@
           <t>Колодец из сборных ж/б элементов ∅1500</t>
         </is>
       </c>
-      <c r="C124" s="6" t="inlineStr"/>
+      <c r="C124" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D124" s="6" t="inlineStr"/>
       <c r="E124" s="6" t="inlineStr"/>
     </row>
@@ -2097,7 +2197,9 @@
           <t>∅2000</t>
         </is>
       </c>
-      <c r="C125" s="6" t="inlineStr"/>
+      <c r="C125" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D125" s="6" t="inlineStr"/>
       <c r="E125" s="6" t="inlineStr"/>
     </row>
@@ -2108,7 +2210,9 @@
           <t>Люк чугунный Л(А15)-к.1-60 / утепляющая крышка</t>
         </is>
       </c>
-      <c r="C126" s="6" t="inlineStr"/>
+      <c r="C126" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D126" s="6" t="inlineStr"/>
       <c r="E126" s="6" t="inlineStr"/>
     </row>
@@ -2119,7 +2223,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C127" s="6" t="inlineStr"/>
+      <c r="C127" s="6" t="n">
+        <v>9</v>
+      </c>
       <c r="D127" s="6" t="inlineStr"/>
       <c r="E127" s="6" t="inlineStr"/>
     </row>
@@ -2130,7 +2236,9 @@
           <t>Праймер битумный</t>
         </is>
       </c>
-      <c r="C128" s="6" t="inlineStr"/>
+      <c r="C128" s="6" t="n">
+        <v>36</v>
+      </c>
       <c r="D128" s="6" t="inlineStr"/>
       <c r="E128" s="6" t="inlineStr">
         <is>
@@ -2145,7 +2253,9 @@
           <t>Мастика битумная гидроизоляционная</t>
         </is>
       </c>
-      <c r="C129" s="6" t="inlineStr"/>
+      <c r="C129" s="6" t="n">
+        <v>72</v>
+      </c>
       <c r="D129" s="6" t="inlineStr"/>
       <c r="E129" s="6" t="inlineStr">
         <is>
@@ -2160,7 +2270,9 @@
           <t>Отвод сварной 90° ПЭ100 SDR 17 225х13,40</t>
         </is>
       </c>
-      <c r="C130" s="6" t="inlineStr"/>
+      <c r="C130" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D130" s="6" t="inlineStr"/>
       <c r="E130" s="6" t="inlineStr">
         <is>
@@ -2175,7 +2287,9 @@
           <t>Отвод сварной 45° ПЭ100 SDR 17 225х13,40</t>
         </is>
       </c>
-      <c r="C131" s="6" t="inlineStr"/>
+      <c r="C131" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D131" s="6" t="inlineStr"/>
       <c r="E131" s="6" t="inlineStr">
         <is>
@@ -2190,7 +2304,9 @@
           <t>Отвод сварной 42° ПЭ100 SDR 17 225х13,40</t>
         </is>
       </c>
-      <c r="C132" s="6" t="inlineStr"/>
+      <c r="C132" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D132" s="6" t="inlineStr"/>
       <c r="E132" s="6" t="inlineStr">
         <is>
@@ -2205,7 +2321,9 @@
           <t>Отвод сварной 40° ПЭ100 SDR 17 225х13,40</t>
         </is>
       </c>
-      <c r="C133" s="6" t="inlineStr"/>
+      <c r="C133" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D133" s="6" t="inlineStr"/>
       <c r="E133" s="6" t="inlineStr">
         <is>
@@ -2220,7 +2338,9 @@
           <t>Отвод сварной 30° ПЭ100 SDR 17 225х13,40</t>
         </is>
       </c>
-      <c r="C134" s="6" t="inlineStr"/>
+      <c r="C134" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D134" s="6" t="inlineStr"/>
       <c r="E134" s="6" t="inlineStr"/>
     </row>
@@ -2231,7 +2351,9 @@
           <t>Отвод сварной 63° ПЭ100 SDR 17 225х13,40</t>
         </is>
       </c>
-      <c r="C135" s="6" t="inlineStr"/>
+      <c r="C135" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D135" s="6" t="inlineStr"/>
       <c r="E135" s="6" t="inlineStr"/>
     </row>
@@ -2242,7 +2364,9 @@
           <t>Отвод сварной 26° ПЭ100 SDR 17 225х13,40</t>
         </is>
       </c>
-      <c r="C136" s="6" t="inlineStr"/>
+      <c r="C136" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D136" s="6" t="inlineStr"/>
       <c r="E136" s="6" t="inlineStr"/>
     </row>
@@ -2253,7 +2377,9 @@
           <t>Отвод сварной 6° ПЭ100 SDR 17 225х13,40</t>
         </is>
       </c>
-      <c r="C137" s="6" t="inlineStr"/>
+      <c r="C137" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D137" s="6" t="inlineStr"/>
       <c r="E137" s="6" t="inlineStr"/>
     </row>
@@ -2264,7 +2390,9 @@
           <t>Отвод сварной 5° ПЭ100 SDR 17 225х13,40</t>
         </is>
       </c>
-      <c r="C138" s="6" t="inlineStr"/>
+      <c r="C138" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D138" s="6" t="inlineStr"/>
       <c r="E138" s="6" t="inlineStr"/>
     </row>
@@ -2275,7 +2403,9 @@
           <t>Муфта с закладными нагревателями ПЭ 100 SDR 17 225</t>
         </is>
       </c>
-      <c r="C139" s="6" t="inlineStr"/>
+      <c r="C139" s="6" t="n">
+        <v>22</v>
+      </c>
       <c r="D139" s="6" t="inlineStr"/>
       <c r="E139" s="6" t="inlineStr">
         <is>
@@ -2290,7 +2420,9 @@
           <t>Втулка под фланец SDR17 ∅225 L=80</t>
         </is>
       </c>
-      <c r="C140" s="6" t="inlineStr"/>
+      <c r="C140" s="6" t="n">
+        <v>14</v>
+      </c>
       <c r="D140" s="6" t="inlineStr"/>
       <c r="E140" s="6" t="inlineStr">
         <is>
@@ -2305,7 +2437,9 @@
           <t>Фланец стальной накидной 1,0МПа Dу200</t>
         </is>
       </c>
-      <c r="C141" s="6" t="inlineStr"/>
+      <c r="C141" s="6" t="n">
+        <v>14</v>
+      </c>
       <c r="D141" s="6" t="inlineStr"/>
       <c r="E141" s="6" t="inlineStr">
         <is>
@@ -2320,7 +2454,9 @@
           <t>Тройник сварной равнопроходной ПЭ100 SDR17 L 600х430 ∅225</t>
         </is>
       </c>
-      <c r="C142" s="6" t="inlineStr"/>
+      <c r="C142" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D142" s="6" t="inlineStr"/>
       <c r="E142" s="6" t="inlineStr">
         <is>
@@ -2335,7 +2471,9 @@
           <t>Задвижка "Гранар" с обрезиненным клином серии КR 20 DN200</t>
         </is>
       </c>
-      <c r="C143" s="6" t="inlineStr"/>
+      <c r="C143" s="6" t="n">
+        <v>45</v>
+      </c>
       <c r="D143" s="6" t="inlineStr"/>
       <c r="E143" s="6" t="inlineStr">
         <is>
@@ -2361,7 +2499,9 @@
           <t>Воздушный вантуз для канализации ∅50 PN16</t>
         </is>
       </c>
-      <c r="C145" s="6" t="inlineStr"/>
+      <c r="C145" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D145" s="6" t="inlineStr"/>
       <c r="E145" s="6" t="inlineStr">
         <is>
@@ -2376,7 +2516,9 @@
           <t>Задвижка с обрезиненным клином фланцевая DN50</t>
         </is>
       </c>
-      <c r="C146" s="6" t="inlineStr"/>
+      <c r="C146" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D146" s="6" t="inlineStr"/>
       <c r="E146" s="6" t="inlineStr">
         <is>
@@ -2391,7 +2533,9 @@
           <t>Штурвал</t>
         </is>
       </c>
-      <c r="C147" s="6" t="inlineStr"/>
+      <c r="C147" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D147" s="6" t="inlineStr"/>
       <c r="E147" s="6" t="inlineStr">
         <is>
@@ -2406,7 +2550,9 @@
           <t>Переход фланцевый DN 200х50</t>
         </is>
       </c>
-      <c r="C148" s="6" t="inlineStr"/>
+      <c r="C148" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="D148" s="6" t="inlineStr"/>
       <c r="E148" s="6" t="inlineStr">
         <is>
@@ -2421,7 +2567,9 @@
           <t>Тройник фланцевый равнопроходной DN 200х200</t>
         </is>
       </c>
-      <c r="C149" s="6" t="inlineStr"/>
+      <c r="C149" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D149" s="6" t="inlineStr"/>
       <c r="E149" s="6" t="inlineStr">
         <is>
@@ -2436,7 +2584,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN200</t>
         </is>
       </c>
-      <c r="C150" s="6" t="inlineStr"/>
+      <c r="C150" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D150" s="6" t="inlineStr"/>
       <c r="E150" s="6" t="inlineStr"/>
     </row>
@@ -2447,7 +2597,9 @@
           <t>Вывешивание сетей при пересечении, площадь сечения короба S=0,4м</t>
         </is>
       </c>
-      <c r="C151" s="6" t="inlineStr"/>
+      <c r="C151" s="6" t="n">
+        <v>34</v>
+      </c>
       <c r="D151" s="6" t="inlineStr"/>
       <c r="E151" s="6" t="inlineStr"/>
     </row>
@@ -2458,7 +2610,9 @@
           <t>Упор бетонный УГ-5 (800х1000х600, Vбет.=0,48м3)</t>
         </is>
       </c>
-      <c r="C152" s="6" t="inlineStr"/>
+      <c r="C152" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D152" s="6" t="inlineStr"/>
       <c r="E152" s="6" t="inlineStr"/>
     </row>
@@ -2469,7 +2623,9 @@
           <t>Упор бетонный УГ-1 (400х700х400, Vбет.=0,112м3)</t>
         </is>
       </c>
-      <c r="C153" s="6" t="inlineStr"/>
+      <c r="C153" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D153" s="6" t="inlineStr"/>
       <c r="E153" s="6" t="inlineStr"/>
     </row>
@@ -6374,7 +6530,9 @@
           <t>Колодец из сборных ж/б элементов ∅1000 Hср=1,90м</t>
         </is>
       </c>
-      <c r="C488" s="6" t="inlineStr"/>
+      <c r="C488" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D488" s="6" t="inlineStr"/>
       <c r="E488" s="6" t="inlineStr"/>
     </row>
@@ -6385,7 +6543,9 @@
           <t>Люк чугунный Л(А15)-к.1-60 / утепляющая крышка</t>
         </is>
       </c>
-      <c r="C489" s="6" t="inlineStr"/>
+      <c r="C489" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D489" s="6" t="inlineStr"/>
       <c r="E489" s="6" t="inlineStr"/>
     </row>
@@ -6396,7 +6556,9 @@
           <t>Люк чугунный Т(С250)-к.1-60 / утепляющая крышка</t>
         </is>
       </c>
-      <c r="C490" s="6" t="inlineStr"/>
+      <c r="C490" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D490" s="6" t="inlineStr"/>
       <c r="E490" s="6" t="inlineStr"/>
     </row>
@@ -6430,7 +6592,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225х13,4</t>
         </is>
       </c>
-      <c r="C493" s="6" t="inlineStr"/>
+      <c r="C493" s="6" t="n">
+        <v>20</v>
+      </c>
       <c r="D493" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -6447,7 +6611,9 @@
           <t>Методом ГНБ Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225х13,4</t>
         </is>
       </c>
-      <c r="C494" s="6" t="inlineStr"/>
+      <c r="C494" s="6" t="n">
+        <v>150.6</v>
+      </c>
       <c r="D494" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -6464,7 +6630,9 @@
           <t>а) Разборка и восстановление проезда</t>
         </is>
       </c>
-      <c r="C495" s="6" t="inlineStr"/>
+      <c r="C495" s="6" t="n">
+        <v>17</v>
+      </c>
       <c r="D495" s="6" t="inlineStr"/>
       <c r="E495" s="6" t="inlineStr"/>
     </row>
@@ -6475,7 +6643,9 @@
           <t>б) Разборка и восстановление газона (Н=0,15 растит.грунт)</t>
         </is>
       </c>
-      <c r="C496" s="6" t="inlineStr"/>
+      <c r="C496" s="6" t="n">
+        <v>48</v>
+      </c>
       <c r="D496" s="6" t="inlineStr"/>
       <c r="E496" s="6" t="inlineStr"/>
     </row>
@@ -6486,7 +6656,9 @@
           <t>Колодец из сборных ж/б элементов ∅1000</t>
         </is>
       </c>
-      <c r="C497" s="6" t="inlineStr"/>
+      <c r="C497" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D497" s="6" t="inlineStr"/>
       <c r="E497" s="6" t="inlineStr"/>
     </row>
@@ -6497,7 +6669,9 @@
           <t>Люк чугунный Л(А15)-к.1-60/утепляющая крышка</t>
         </is>
       </c>
-      <c r="C498" s="6" t="inlineStr"/>
+      <c r="C498" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D498" s="6" t="inlineStr"/>
       <c r="E498" s="6" t="inlineStr"/>
     </row>
@@ -6508,7 +6682,9 @@
           <t>Люк чугунный Т(С250)-к.1-60 / утепляющая крышка</t>
         </is>
       </c>
-      <c r="C499" s="6" t="inlineStr"/>
+      <c r="C499" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D499" s="6" t="inlineStr"/>
       <c r="E499" s="6" t="inlineStr"/>
     </row>
@@ -6519,7 +6695,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C500" s="6" t="inlineStr"/>
+      <c r="C500" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="D500" s="6" t="inlineStr"/>
       <c r="E500" s="6" t="inlineStr"/>
     </row>
@@ -6530,7 +6708,9 @@
           <t>Гильза ст. ∅356х4,0 L=150мм (проход через стенку ж/б кол.)</t>
         </is>
       </c>
-      <c r="C501" s="6" t="inlineStr"/>
+      <c r="C501" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D501" s="6" t="inlineStr"/>
       <c r="E501" s="6" t="inlineStr"/>
     </row>
@@ -6541,7 +6721,9 @@
           <t>Гильза ст. ∅219х3,5 L=150мм (проход через стенку ж/б кол.)</t>
         </is>
       </c>
-      <c r="C502" s="6" t="inlineStr"/>
+      <c r="C502" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D502" s="6" t="inlineStr"/>
       <c r="E502" s="6" t="inlineStr"/>
     </row>
@@ -6552,7 +6734,9 @@
           <t>Устройство котлованов 1,80х6,0м</t>
         </is>
       </c>
-      <c r="C503" s="6" t="inlineStr"/>
+      <c r="C503" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D503" s="6" t="inlineStr"/>
       <c r="E503" s="6" t="inlineStr"/>
     </row>
@@ -6563,7 +6747,9 @@
           <t>Восстановление бортового камня</t>
         </is>
       </c>
-      <c r="C504" s="6" t="inlineStr"/>
+      <c r="C504" s="6" t="n">
+        <v>11</v>
+      </c>
       <c r="D504" s="6" t="inlineStr"/>
       <c r="E504" s="6" t="inlineStr"/>
     </row>
@@ -6574,7 +6760,9 @@
           <t>Праймер битумный</t>
         </is>
       </c>
-      <c r="C505" s="6" t="inlineStr"/>
+      <c r="C505" s="6" t="n">
+        <v>12.6</v>
+      </c>
       <c r="D505" s="6" t="inlineStr"/>
       <c r="E505" s="6" t="inlineStr">
         <is>
@@ -6589,7 +6777,9 @@
           <t>Мастика битумная гидроизоляционная</t>
         </is>
       </c>
-      <c r="C506" s="6" t="inlineStr"/>
+      <c r="C506" s="6" t="n">
+        <v>25.02</v>
+      </c>
       <c r="D506" s="6" t="inlineStr"/>
       <c r="E506" s="6" t="inlineStr">
         <is>
@@ -6604,7 +6794,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110 х 6,6</t>
         </is>
       </c>
-      <c r="C507" s="6" t="inlineStr"/>
+      <c r="C507" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D507" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -6621,7 +6813,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C508" s="6" t="inlineStr"/>
+      <c r="C508" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D508" s="6" t="inlineStr"/>
       <c r="E508" s="6" t="inlineStr"/>
     </row>
@@ -6632,7 +6826,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1,00м</t>
         </is>
       </c>
-      <c r="C509" s="6" t="inlineStr"/>
+      <c r="C509" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D509" s="6" t="inlineStr"/>
       <c r="E509" s="6" t="inlineStr"/>
     </row>
@@ -6643,7 +6839,9 @@
           <t>Вывешивание сетей при пересечении, площадь сечения короба S=0,4м2</t>
         </is>
       </c>
-      <c r="C510" s="6" t="inlineStr"/>
+      <c r="C510" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D510" s="6" t="inlineStr"/>
       <c r="E510" s="6" t="inlineStr"/>
     </row>
@@ -11586,7 +11784,9 @@
           <t>Колодец из сборных ж/б элементов ∅1000 Hср=1,25м / люки</t>
         </is>
       </c>
-      <c r="C935" s="6" t="inlineStr"/>
+      <c r="C935" s="6" t="n">
+        <v>4.705</v>
+      </c>
       <c r="D935" s="6" t="inlineStr"/>
       <c r="E935" s="6" t="inlineStr"/>
     </row>
@@ -11620,7 +11820,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C938" s="6" t="inlineStr"/>
+      <c r="C938" s="6" t="n">
+        <v>116</v>
+      </c>
       <c r="D938" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -11637,7 +11839,9 @@
           <t>а) Разборка и восстановление проезда</t>
         </is>
       </c>
-      <c r="C939" s="6" t="inlineStr"/>
+      <c r="C939" s="6" t="n">
+        <v>9.199999999999999</v>
+      </c>
       <c r="D939" s="6" t="inlineStr"/>
       <c r="E939" s="6" t="inlineStr"/>
     </row>
@@ -11648,7 +11852,9 @@
           <t>б) Срезка и восстановление газона ( Н=0,15 растит.грунт)</t>
         </is>
       </c>
-      <c r="C940" s="6" t="inlineStr"/>
+      <c r="C940" s="6" t="n">
+        <v>55.6</v>
+      </c>
       <c r="D940" s="6" t="inlineStr"/>
       <c r="E940" s="6" t="inlineStr"/>
     </row>
@@ -11659,7 +11865,9 @@
           <t>Колодец из сборных ж/б элементов ∅1000</t>
         </is>
       </c>
-      <c r="C941" s="6" t="inlineStr"/>
+      <c r="C941" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="D941" s="6" t="inlineStr"/>
       <c r="E941" s="6" t="inlineStr"/>
     </row>
@@ -11670,7 +11878,9 @@
           <t>Люк чугунный Л(А15)-к.1-60 / утепляющая крышка</t>
         </is>
       </c>
-      <c r="C942" s="6" t="inlineStr"/>
+      <c r="C942" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="D942" s="6" t="inlineStr"/>
       <c r="E942" s="6" t="inlineStr"/>
     </row>
@@ -11681,7 +11891,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C943" s="6" t="inlineStr"/>
+      <c r="C943" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="D943" s="6" t="inlineStr"/>
       <c r="E943" s="6" t="inlineStr"/>
     </row>
@@ -11692,7 +11904,9 @@
           <t>Гильза ст. ∅219х3,5 L=150мм(проход через стенку ж/б кол.)</t>
         </is>
       </c>
-      <c r="C944" s="6" t="inlineStr"/>
+      <c r="C944" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D944" s="6" t="inlineStr"/>
       <c r="E944" s="6" t="inlineStr"/>
     </row>
@@ -11703,7 +11917,9 @@
           <t>Гильза ст. ∅530х7,0 L=150мм(проход через стенку ж/б кол.)</t>
         </is>
       </c>
-      <c r="C945" s="6" t="inlineStr"/>
+      <c r="C945" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D945" s="6" t="inlineStr"/>
       <c r="E945" s="6" t="inlineStr"/>
     </row>
@@ -11714,7 +11930,9 @@
           <t>Устройство котлованов 1,80х6,0м</t>
         </is>
       </c>
-      <c r="C946" s="6" t="inlineStr"/>
+      <c r="C946" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D946" s="6" t="inlineStr"/>
       <c r="E946" s="6" t="inlineStr"/>
     </row>
@@ -11725,7 +11943,9 @@
           <t>Восстановление бортового камня БР 100.30.15</t>
         </is>
       </c>
-      <c r="C947" s="6" t="inlineStr"/>
+      <c r="C947" s="6" t="n">
+        <v>21</v>
+      </c>
       <c r="D947" s="6" t="inlineStr"/>
       <c r="E947" s="6" t="inlineStr"/>
     </row>
@@ -11736,7 +11956,9 @@
           <t>Праймер битумный</t>
         </is>
       </c>
-      <c r="C948" s="6" t="inlineStr"/>
+      <c r="C948" s="6" t="n">
+        <v>7.6</v>
+      </c>
       <c r="D948" s="6" t="inlineStr"/>
       <c r="E948" s="6" t="inlineStr">
         <is>
@@ -11751,7 +11973,9 @@
           <t>Мастика битумная гидроизоляционная</t>
         </is>
       </c>
-      <c r="C949" s="6" t="inlineStr"/>
+      <c r="C949" s="6" t="n">
+        <v>15.2</v>
+      </c>
       <c r="D949" s="6" t="inlineStr"/>
       <c r="E949" s="6" t="inlineStr">
         <is>
@@ -11766,7 +11990,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C950" s="6" t="inlineStr"/>
+      <c r="C950" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D950" s="6" t="inlineStr"/>
       <c r="E950" s="6" t="inlineStr"/>
     </row>
@@ -11777,7 +12003,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110 х6,6</t>
         </is>
       </c>
-      <c r="C951" s="6" t="inlineStr"/>
+      <c r="C951" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D951" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -12112,7 +12340,9 @@
           <t>Колодец из сборных ж/б элементов ∅1000 Hср=1,57м / люки</t>
         </is>
       </c>
-      <c r="C981" s="6" t="inlineStr"/>
+      <c r="C981" s="6" t="n">
+        <v>10.401</v>
+      </c>
       <c r="D981" s="6" t="inlineStr"/>
       <c r="E981" s="6" t="inlineStr"/>
     </row>
@@ -12145,7 +12375,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C984" s="6" t="inlineStr"/>
+      <c r="C984" s="6" t="n">
+        <v>26.6</v>
+      </c>
       <c r="D984" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -12162,7 +12394,9 @@
           <t>Срезка и восстановление газона ( Н=0,15 растит.грунт)</t>
         </is>
       </c>
-      <c r="C985" s="6" t="inlineStr"/>
+      <c r="C985" s="6" t="n">
+        <v>53.2</v>
+      </c>
       <c r="D985" s="6" t="inlineStr"/>
       <c r="E985" s="6" t="inlineStr"/>
     </row>
@@ -12185,7 +12419,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C987" s="6" t="inlineStr"/>
+      <c r="C987" s="6" t="n">
+        <v>120</v>
+      </c>
       <c r="D987" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -12202,7 +12438,9 @@
           <t>а) Разборка и восстановление проезда</t>
         </is>
       </c>
-      <c r="C988" s="6" t="inlineStr"/>
+      <c r="C988" s="6" t="n">
+        <v>6.3</v>
+      </c>
       <c r="D988" s="6" t="inlineStr"/>
       <c r="E988" s="6" t="inlineStr"/>
     </row>
@@ -12213,7 +12451,9 @@
           <t>б) Срезка и восстановление газона ( Н=0,15 растит.грунт)</t>
         </is>
       </c>
-      <c r="C989" s="6" t="inlineStr"/>
+      <c r="C989" s="6" t="n">
+        <v>47.7</v>
+      </c>
       <c r="D989" s="6" t="inlineStr"/>
       <c r="E989" s="6" t="inlineStr"/>
     </row>
@@ -12224,7 +12464,9 @@
           <t>Колодец из сборных ж/б элементов ∅1000</t>
         </is>
       </c>
-      <c r="C990" s="6" t="inlineStr"/>
+      <c r="C990" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="D990" s="6" t="inlineStr"/>
       <c r="E990" s="6" t="inlineStr"/>
     </row>
@@ -12235,7 +12477,9 @@
           <t>Люк чугунный Л(А15)-к.1-60 / утепляющая крышка</t>
         </is>
       </c>
-      <c r="C991" s="6" t="inlineStr"/>
+      <c r="C991" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="D991" s="6" t="inlineStr"/>
       <c r="E991" s="6" t="inlineStr"/>
     </row>
@@ -12246,7 +12490,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C992" s="6" t="inlineStr"/>
+      <c r="C992" s="6" t="n">
+        <v>18</v>
+      </c>
       <c r="D992" s="6" t="inlineStr"/>
       <c r="E992" s="6" t="inlineStr"/>
     </row>
@@ -12257,7 +12503,9 @@
           <t>Гильза ст. ∅219х3,5 L=150мм(проход через стенку ж/б кол.)</t>
         </is>
       </c>
-      <c r="C993" s="6" t="inlineStr"/>
+      <c r="C993" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D993" s="6" t="inlineStr"/>
       <c r="E993" s="6" t="inlineStr"/>
     </row>
@@ -12268,7 +12516,9 @@
           <t>Гильза ст. ∅279х3,5 L=150мм(проход через стенку ж/б кол.)</t>
         </is>
       </c>
-      <c r="C994" s="6" t="inlineStr"/>
+      <c r="C994" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D994" s="6" t="inlineStr"/>
       <c r="E994" s="6" t="inlineStr"/>
     </row>
@@ -12279,7 +12529,9 @@
           <t>Гильза ст. ∅325х4,0 L=150мм(проход через стенку ж/б кол.)</t>
         </is>
       </c>
-      <c r="C995" s="6" t="inlineStr"/>
+      <c r="C995" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D995" s="6" t="inlineStr"/>
       <c r="E995" s="6" t="inlineStr"/>
     </row>
@@ -12290,7 +12542,9 @@
           <t>Гильза ст. ∅430х7,0 L=150мм(проход через стенку ж/б кол.)</t>
         </is>
       </c>
-      <c r="C996" s="6" t="inlineStr"/>
+      <c r="C996" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D996" s="6" t="inlineStr"/>
       <c r="E996" s="6" t="inlineStr"/>
     </row>
@@ -12301,7 +12555,9 @@
           <t>Устройство котлованов 1,80х6,0м</t>
         </is>
       </c>
-      <c r="C997" s="6" t="inlineStr"/>
+      <c r="C997" s="6" t="n">
+        <v>9</v>
+      </c>
       <c r="D997" s="6" t="inlineStr"/>
       <c r="E997" s="6" t="inlineStr"/>
     </row>
@@ -12312,7 +12568,9 @@
           <t>Восстановление бортового камня БР 100.30.15</t>
         </is>
       </c>
-      <c r="C998" s="6" t="inlineStr"/>
+      <c r="C998" s="6" t="n">
+        <v>34</v>
+      </c>
       <c r="D998" s="6" t="inlineStr"/>
       <c r="E998" s="6" t="inlineStr"/>
     </row>
@@ -12323,7 +12581,9 @@
           <t>Праймер битумный</t>
         </is>
       </c>
-      <c r="C999" s="6" t="inlineStr"/>
+      <c r="C999" s="6" t="n">
+        <v>32</v>
+      </c>
       <c r="D999" s="6" t="inlineStr"/>
       <c r="E999" s="6" t="inlineStr">
         <is>
@@ -12338,7 +12598,9 @@
           <t>Мастика битумная гидроизоляционная</t>
         </is>
       </c>
-      <c r="C1000" s="6" t="inlineStr"/>
+      <c r="C1000" s="6" t="n">
+        <v>64</v>
+      </c>
       <c r="D1000" s="6" t="inlineStr"/>
       <c r="E1000" s="6" t="inlineStr">
         <is>
@@ -12353,7 +12615,9 @@
           <t>Объем бетона В15 на заделку торцов недемонтируемых труб</t>
         </is>
       </c>
-      <c r="C1001" s="6" t="inlineStr"/>
+      <c r="C1001" s="6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
       <c r="D1001" s="6" t="inlineStr"/>
       <c r="E1001" s="6" t="inlineStr"/>
     </row>
@@ -12458,7 +12722,9 @@
           <t>Колодец из сборных ж/б элементов ∅1000 Hср=1,55м / люки</t>
         </is>
       </c>
-      <c r="C1011" s="6" t="inlineStr"/>
+      <c r="C1011" s="6" t="n">
+        <v>7.147</v>
+      </c>
       <c r="D1011" s="6" t="inlineStr"/>
       <c r="E1011" s="6" t="inlineStr"/>
     </row>
@@ -12469,7 +12735,9 @@
           <t>Колодец из сборных ж/б элементов ∅1500 Hср=3,30м / люки</t>
         </is>
       </c>
-      <c r="C1012" s="6" t="inlineStr"/>
+      <c r="C1012" s="6" t="n">
+        <v>5.141</v>
+      </c>
       <c r="D1012" s="6" t="inlineStr"/>
       <c r="E1012" s="6" t="inlineStr"/>
     </row>
@@ -12502,7 +12770,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C1015" s="6" t="inlineStr"/>
+      <c r="C1015" s="6" t="n">
+        <v>19.2</v>
+      </c>
       <c r="D1015" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -12531,7 +12801,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7</t>
         </is>
       </c>
-      <c r="C1017" s="6" t="inlineStr"/>
+      <c r="C1017" s="6" t="n">
+        <v>80</v>
+      </c>
       <c r="D1017" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -12548,7 +12820,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C1018" s="6" t="inlineStr"/>
+      <c r="C1018" s="6" t="n">
+        <v>43.8</v>
+      </c>
       <c r="D1018" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -12565,7 +12839,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 280 х16,0</t>
         </is>
       </c>
-      <c r="C1019" s="6" t="inlineStr"/>
+      <c r="C1019" s="6" t="n">
+        <v>29</v>
+      </c>
       <c r="D1019" s="6" t="n">
         <v>12.74</v>
       </c>
@@ -12582,7 +12858,9 @@
           <t>а) Разборка и восстановление проезда</t>
         </is>
       </c>
-      <c r="C1020" s="6" t="inlineStr"/>
+      <c r="C1020" s="6" t="n">
+        <v>42.7</v>
+      </c>
       <c r="D1020" s="6" t="inlineStr"/>
       <c r="E1020" s="6" t="inlineStr"/>
     </row>
@@ -12593,7 +12871,9 @@
           <t>б) Срезка и восстановление газона ( Н=0,15 растит.грунт)</t>
         </is>
       </c>
-      <c r="C1021" s="6" t="inlineStr"/>
+      <c r="C1021" s="6" t="n">
+        <v>70.7</v>
+      </c>
       <c r="D1021" s="6" t="inlineStr"/>
       <c r="E1021" s="6" t="inlineStr"/>
     </row>
@@ -12604,7 +12884,9 @@
           <t>Колодец из сборных ж/б элементов ∅1000</t>
         </is>
       </c>
-      <c r="C1022" s="6" t="inlineStr"/>
+      <c r="C1022" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="D1022" s="6" t="inlineStr"/>
       <c r="E1022" s="6" t="inlineStr"/>
     </row>
@@ -12615,7 +12897,9 @@
           <t>Колодец из сборных ж/б элементов ∅1500</t>
         </is>
       </c>
-      <c r="C1023" s="6" t="inlineStr"/>
+      <c r="C1023" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1023" s="6" t="inlineStr"/>
       <c r="E1023" s="6" t="inlineStr"/>
     </row>
@@ -12626,7 +12910,9 @@
           <t>Люк чугунный Л(А15)-к.1-60 / утепляющая крышка</t>
         </is>
       </c>
-      <c r="C1024" s="6" t="inlineStr"/>
+      <c r="C1024" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="D1024" s="6" t="inlineStr"/>
       <c r="E1024" s="6" t="inlineStr"/>
     </row>
@@ -12637,7 +12923,9 @@
           <t>Люк чугунный Т(С250)-к.1-60 / утепляющая крышка</t>
         </is>
       </c>
-      <c r="C1025" s="6" t="inlineStr"/>
+      <c r="C1025" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D1025" s="6" t="inlineStr"/>
       <c r="E1025" s="6" t="inlineStr"/>
     </row>
@@ -12648,7 +12936,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C1026" s="6" t="inlineStr"/>
+      <c r="C1026" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="D1026" s="6" t="inlineStr"/>
       <c r="E1026" s="6" t="inlineStr"/>
     </row>
@@ -12659,7 +12949,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C1027" s="6" t="inlineStr"/>
+      <c r="C1027" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D1027" s="6" t="inlineStr"/>
       <c r="E1027" s="6" t="inlineStr"/>
     </row>
@@ -12670,7 +12962,9 @@
           <t>Муфта защитная для ПЭ трубы ∅280</t>
         </is>
       </c>
-      <c r="C1028" s="6" t="inlineStr"/>
+      <c r="C1028" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D1028" s="6" t="inlineStr"/>
       <c r="E1028" s="6" t="inlineStr"/>
     </row>
@@ -12681,7 +12975,9 @@
           <t>Гильза ст. ∅219х3,5 L=150мм(проход через стенку ж/б кол.)</t>
         </is>
       </c>
-      <c r="C1029" s="6" t="inlineStr"/>
+      <c r="C1029" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D1029" s="6" t="inlineStr"/>
       <c r="E1029" s="6" t="inlineStr"/>
     </row>
@@ -12692,7 +12988,9 @@
           <t>Гильза ст. ∅430х7,0 L=150мм(проход через стенку ж/б кол.)</t>
         </is>
       </c>
-      <c r="C1030" s="6" t="inlineStr"/>
+      <c r="C1030" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D1030" s="6" t="inlineStr"/>
       <c r="E1030" s="6" t="inlineStr"/>
     </row>
@@ -12703,7 +13001,9 @@
           <t>Устройство котлованов 1,80х6,0м</t>
         </is>
       </c>
-      <c r="C1031" s="6" t="inlineStr"/>
+      <c r="C1031" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="D1031" s="6" t="inlineStr"/>
       <c r="E1031" s="6" t="inlineStr"/>
     </row>
@@ -12714,7 +13014,9 @@
           <t>Устройство котлованов 3,0х6,0м</t>
         </is>
       </c>
-      <c r="C1032" s="6" t="inlineStr"/>
+      <c r="C1032" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D1032" s="6" t="inlineStr"/>
       <c r="E1032" s="6" t="inlineStr"/>
     </row>
@@ -12725,7 +13027,9 @@
           <t>Восстановление бортового камня БР 100.30.15</t>
         </is>
       </c>
-      <c r="C1033" s="6" t="inlineStr"/>
+      <c r="C1033" s="6" t="n">
+        <v>20</v>
+      </c>
       <c r="D1033" s="6" t="inlineStr"/>
       <c r="E1033" s="6" t="inlineStr"/>
     </row>
@@ -12736,7 +13040,9 @@
           <t>Праймер битумный</t>
         </is>
       </c>
-      <c r="C1034" s="6" t="inlineStr"/>
+      <c r="C1034" s="6" t="n">
+        <v>43</v>
+      </c>
       <c r="D1034" s="6" t="inlineStr"/>
       <c r="E1034" s="6" t="inlineStr">
         <is>
@@ -12751,7 +13057,9 @@
           <t>Мастика битумная гидроизоляционная</t>
         </is>
       </c>
-      <c r="C1035" s="6" t="inlineStr"/>
+      <c r="C1035" s="6" t="n">
+        <v>86</v>
+      </c>
       <c r="D1035" s="6" t="inlineStr"/>
       <c r="E1035" s="6" t="inlineStr">
         <is>
@@ -12766,7 +13074,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110х6.6</t>
         </is>
       </c>
-      <c r="C1036" s="6" t="inlineStr"/>
+      <c r="C1036" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D1036" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -12783,7 +13093,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C1037" s="6" t="inlineStr"/>
+      <c r="C1037" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D1037" s="6" t="inlineStr"/>
       <c r="E1037" s="6" t="inlineStr"/>
     </row>
@@ -12794,7 +13106,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1000м</t>
         </is>
       </c>
-      <c r="C1038" s="6" t="inlineStr"/>
+      <c r="C1038" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D1038" s="6" t="inlineStr"/>
       <c r="E1038" s="6" t="inlineStr"/>
     </row>
@@ -12805,7 +13119,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 300 L=1000м</t>
         </is>
       </c>
-      <c r="C1039" s="6" t="inlineStr"/>
+      <c r="C1039" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D1039" s="6" t="inlineStr"/>
       <c r="E1039" s="6" t="inlineStr"/>
     </row>
@@ -12816,7 +13132,9 @@
           <t>Вывешивание сетей при пересечении, площадь сеч. короба S=0,4м2</t>
         </is>
       </c>
-      <c r="C1040" s="6" t="inlineStr"/>
+      <c r="C1040" s="6" t="n">
+        <v>15</v>
+      </c>
       <c r="D1040" s="6" t="inlineStr"/>
       <c r="E1040" s="6" t="inlineStr"/>
     </row>
@@ -13455,7 +13773,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,70</t>
         </is>
       </c>
-      <c r="C1091" s="6" t="inlineStr"/>
+      <c r="C1091" s="6" t="n">
+        <v>17.2</v>
+      </c>
       <c r="D1091" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -13472,7 +13792,9 @@
           <t>б) Срезка и восстановление газона ( Н=0,15 растит.грунт)</t>
         </is>
       </c>
-      <c r="C1092" s="6" t="inlineStr"/>
+      <c r="C1092" s="6" t="n">
+        <v>46.4</v>
+      </c>
       <c r="D1092" s="6" t="inlineStr"/>
       <c r="E1092" s="6" t="inlineStr"/>
     </row>
@@ -13494,7 +13816,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,70</t>
         </is>
       </c>
-      <c r="C1094" s="6" t="inlineStr"/>
+      <c r="C1094" s="6" t="n">
+        <v>474.3</v>
+      </c>
       <c r="D1094" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -13511,7 +13835,9 @@
           <t>Труба ПЭ труба МУЛЬТИПАЙП 1075 ПЭ100-RC SDR17 180х10,7</t>
         </is>
       </c>
-      <c r="C1095" s="6" t="inlineStr"/>
+      <c r="C1095" s="6" t="n">
+        <v>1729</v>
+      </c>
       <c r="D1095" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -13528,7 +13854,9 @@
           <t>а) Разборка и восстановление проезда</t>
         </is>
       </c>
-      <c r="C1096" s="6" t="inlineStr"/>
+      <c r="C1096" s="6" t="n">
+        <v>93.3</v>
+      </c>
       <c r="D1096" s="6" t="inlineStr"/>
       <c r="E1096" s="6" t="inlineStr"/>
     </row>
@@ -13539,7 +13867,9 @@
           <t>б) Срезка и восстановление газона ( Н=0,15 растит.грунт)</t>
         </is>
       </c>
-      <c r="C1097" s="6" t="inlineStr"/>
+      <c r="C1097" s="6" t="n">
+        <v>378.3</v>
+      </c>
       <c r="D1097" s="6" t="inlineStr"/>
       <c r="E1097" s="6" t="inlineStr"/>
     </row>
@@ -13550,7 +13880,9 @@
           <t>Устройство котлованов 3,0х6,0м</t>
         </is>
       </c>
-      <c r="C1098" s="6" t="inlineStr"/>
+      <c r="C1098" s="6" t="n">
+        <v>24</v>
+      </c>
       <c r="D1098" s="6" t="inlineStr"/>
       <c r="E1098" s="6" t="inlineStr"/>
     </row>
@@ -13561,7 +13893,9 @@
           <t>1,8х6,0м</t>
         </is>
       </c>
-      <c r="C1099" s="6" t="inlineStr"/>
+      <c r="C1099" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D1099" s="6" t="inlineStr"/>
       <c r="E1099" s="6" t="inlineStr"/>
     </row>
@@ -13572,7 +13906,9 @@
           <t>Колодец из сборных ж/б элементов ∅2000</t>
         </is>
       </c>
-      <c r="C1100" s="6" t="inlineStr"/>
+      <c r="C1100" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1100" s="6" t="inlineStr"/>
       <c r="E1100" s="6" t="inlineStr"/>
     </row>
@@ -13583,7 +13919,9 @@
           <t>Колодец из сборных ж/б элементов ∅1500</t>
         </is>
       </c>
-      <c r="C1101" s="6" t="inlineStr"/>
+      <c r="C1101" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D1101" s="6" t="inlineStr"/>
       <c r="E1101" s="6" t="inlineStr"/>
     </row>
@@ -13595,7 +13933,9 @@
 с отмосткой</t>
         </is>
       </c>
-      <c r="C1102" s="6" t="inlineStr"/>
+      <c r="C1102" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D1102" s="6" t="inlineStr"/>
       <c r="E1102" s="6" t="inlineStr"/>
     </row>
@@ -13606,7 +13946,9 @@
           <t>Разборка бортового камня БР 100.300.15 и установка нового</t>
         </is>
       </c>
-      <c r="C1103" s="6" t="inlineStr"/>
+      <c r="C1103" s="6" t="n">
+        <v>40</v>
+      </c>
       <c r="D1103" s="6" t="inlineStr"/>
       <c r="E1103" s="6" t="inlineStr"/>
     </row>
@@ -13617,7 +13959,9 @@
           <t>Праймер битумный</t>
         </is>
       </c>
-      <c r="C1104" s="6" t="inlineStr"/>
+      <c r="C1104" s="6" t="n">
+        <v>32.5</v>
+      </c>
       <c r="D1104" s="6" t="inlineStr"/>
       <c r="E1104" s="6" t="inlineStr">
         <is>
@@ -13632,7 +13976,9 @@
           <t>Мастика битумная гидроизоляционная</t>
         </is>
       </c>
-      <c r="C1105" s="6" t="inlineStr"/>
+      <c r="C1105" s="6" t="n">
+        <v>65</v>
+      </c>
       <c r="D1105" s="6" t="inlineStr"/>
       <c r="E1105" s="6" t="inlineStr">
         <is>
@@ -13647,7 +13993,9 @@
           <t>Отвод сварной двухсекционный 90° ∅180</t>
         </is>
       </c>
-      <c r="C1106" s="6" t="inlineStr"/>
+      <c r="C1106" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D1106" s="6" t="inlineStr"/>
       <c r="E1106" s="6" t="inlineStr">
         <is>
@@ -13662,7 +14010,9 @@
           <t>Отвод сварной двухсекционный 45° ∅180</t>
         </is>
       </c>
-      <c r="C1107" s="6" t="inlineStr"/>
+      <c r="C1107" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D1107" s="6" t="inlineStr"/>
       <c r="E1107" s="6" t="inlineStr">
         <is>
@@ -13677,7 +14027,9 @@
           <t>Отвод сварной двухсекционный 53° ∅180</t>
         </is>
       </c>
-      <c r="C1108" s="6" t="inlineStr"/>
+      <c r="C1108" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1108" s="6" t="inlineStr"/>
       <c r="E1108" s="6" t="inlineStr">
         <is>
@@ -13692,7 +14044,9 @@
           <t>Отвод сварной двухсекционный 20° ∅180</t>
         </is>
       </c>
-      <c r="C1109" s="6" t="inlineStr"/>
+      <c r="C1109" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1109" s="6" t="inlineStr"/>
       <c r="E1109" s="6" t="inlineStr">
         <is>
@@ -16007,7 +16361,9 @@
           <t>Колодец из сборных ж/б элементов ∅1000 Hср=2,30м / люки</t>
         </is>
       </c>
-      <c r="C1308" s="6" t="inlineStr"/>
+      <c r="C1308" s="6" t="n">
+        <v>3.603</v>
+      </c>
       <c r="D1308" s="6" t="inlineStr"/>
       <c r="E1308" s="6" t="inlineStr"/>
     </row>
@@ -16018,7 +16374,9 @@
           <t>Колодец из сборных ж/б элементов ∅1500 Hср=3,22м / люки</t>
         </is>
       </c>
-      <c r="C1309" s="6" t="inlineStr"/>
+      <c r="C1309" s="6" t="n">
+        <v>9.843999999999999</v>
+      </c>
       <c r="D1309" s="6" t="inlineStr"/>
       <c r="E1309" s="6" t="inlineStr"/>
     </row>
@@ -16052,7 +16410,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C1312" s="6" t="inlineStr"/>
+      <c r="C1312" s="6" t="n">
+        <v>83.09999999999999</v>
+      </c>
       <c r="D1312" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -16069,7 +16429,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 355 х21,1</t>
         </is>
       </c>
-      <c r="C1313" s="6" t="inlineStr"/>
+      <c r="C1313" s="6" t="n">
+        <v>41</v>
+      </c>
       <c r="D1313" s="6" t="n">
         <v>21.25</v>
       </c>
@@ -16086,7 +16448,9 @@
           <t>а) Разборка и восстановление проезда</t>
         </is>
       </c>
-      <c r="C1314" s="6" t="inlineStr"/>
+      <c r="C1314" s="6" t="n">
+        <v>104.4</v>
+      </c>
       <c r="D1314" s="6" t="inlineStr"/>
       <c r="E1314" s="6" t="inlineStr"/>
     </row>
@@ -16097,7 +16461,9 @@
           <t>Колодец из сборных ж/б элементов ∅1500</t>
         </is>
       </c>
-      <c r="C1315" s="6" t="inlineStr"/>
+      <c r="C1315" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D1315" s="6" t="inlineStr"/>
       <c r="E1315" s="6" t="inlineStr"/>
     </row>
@@ -16108,7 +16474,9 @@
           <t>Колодец из сборных ж/б элементов ∅1000</t>
         </is>
       </c>
-      <c r="C1316" s="6" t="inlineStr"/>
+      <c r="C1316" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D1316" s="6" t="inlineStr"/>
       <c r="E1316" s="6" t="inlineStr"/>
     </row>
@@ -16119,7 +16487,9 @@
           <t>Люк чугунный Т(С250)-к.1-60 / утепляющая крышка</t>
         </is>
       </c>
-      <c r="C1317" s="6" t="inlineStr"/>
+      <c r="C1317" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D1317" s="6" t="inlineStr"/>
       <c r="E1317" s="6" t="inlineStr"/>
     </row>
@@ -16130,7 +16500,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C1318" s="6" t="inlineStr"/>
+      <c r="C1318" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D1318" s="6" t="inlineStr"/>
       <c r="E1318" s="6" t="inlineStr"/>
     </row>
@@ -16141,7 +16513,9 @@
           <t>Муфта защитная для ПЭ трубы ∅355</t>
         </is>
       </c>
-      <c r="C1319" s="6" t="inlineStr"/>
+      <c r="C1319" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D1319" s="6" t="inlineStr"/>
       <c r="E1319" s="6" t="inlineStr"/>
     </row>
@@ -16152,7 +16526,9 @@
           <t>Гильза ст. ∅219х3,0 L=150мм(проход через стенку ж/б кол.)</t>
         </is>
       </c>
-      <c r="C1320" s="6" t="inlineStr"/>
+      <c r="C1320" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D1320" s="6" t="inlineStr"/>
       <c r="E1320" s="6" t="inlineStr"/>
     </row>
@@ -16163,7 +16539,9 @@
           <t>Устройство котлованов 3,0х6,0м</t>
         </is>
       </c>
-      <c r="C1321" s="6" t="inlineStr"/>
+      <c r="C1321" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D1321" s="6" t="inlineStr"/>
       <c r="E1321" s="6" t="inlineStr"/>
     </row>
@@ -16174,7 +16552,9 @@
           <t>Устройство котлованов 1,80х6,0м</t>
         </is>
       </c>
-      <c r="C1322" s="6" t="inlineStr"/>
+      <c r="C1322" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D1322" s="6" t="inlineStr"/>
       <c r="E1322" s="6" t="inlineStr"/>
     </row>
@@ -16185,7 +16565,9 @@
           <t>Восстановление бортового камня</t>
         </is>
       </c>
-      <c r="C1323" s="6" t="inlineStr"/>
+      <c r="C1323" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D1323" s="6" t="inlineStr"/>
       <c r="E1323" s="6" t="inlineStr"/>
     </row>
@@ -16196,7 +16578,9 @@
           <t>Праймер битумный</t>
         </is>
       </c>
-      <c r="C1324" s="6" t="inlineStr"/>
+      <c r="C1324" s="6" t="n">
+        <v>31.3</v>
+      </c>
       <c r="D1324" s="6" t="inlineStr"/>
       <c r="E1324" s="6" t="inlineStr">
         <is>
@@ -16211,7 +16595,9 @@
           <t>Мастика битумная гидроизоляционная</t>
         </is>
       </c>
-      <c r="C1325" s="6" t="inlineStr"/>
+      <c r="C1325" s="6" t="n">
+        <v>62.7</v>
+      </c>
       <c r="D1325" s="6" t="inlineStr"/>
       <c r="E1325" s="6" t="inlineStr">
         <is>
@@ -16226,7 +16612,9 @@
           <t>Гильза ст. ∅356х4,0 L=150мм(проход через стенку ж/б кол.)</t>
         </is>
       </c>
-      <c r="C1326" s="6" t="inlineStr"/>
+      <c r="C1326" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1326" s="6" t="inlineStr"/>
       <c r="E1326" s="6" t="inlineStr"/>
     </row>
@@ -16237,7 +16625,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C1327" s="6" t="inlineStr"/>
+      <c r="C1327" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D1327" s="6" t="inlineStr"/>
       <c r="E1327" s="6" t="inlineStr"/>
     </row>
@@ -16248,7 +16638,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110 х6,6</t>
         </is>
       </c>
-      <c r="C1328" s="6" t="inlineStr"/>
+      <c r="C1328" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D1328" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -16265,7 +16657,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 150 L=1000мм</t>
         </is>
       </c>
-      <c r="C1329" s="6" t="inlineStr"/>
+      <c r="C1329" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1329" s="6" t="inlineStr"/>
       <c r="E1329" s="6" t="inlineStr"/>
     </row>
@@ -16276,7 +16670,9 @@
           <t>Вывешивание сетей при пересечении, площадь сеч. короба S=0,4м2</t>
         </is>
       </c>
-      <c r="C1330" s="6" t="inlineStr"/>
+      <c r="C1330" s="6" t="n">
+        <v>21</v>
+      </c>
       <c r="D1330" s="6" t="inlineStr"/>
       <c r="E1330" s="6" t="inlineStr"/>
     </row>
@@ -17214,7 +17610,9 @@
           <t>Колодец из сборных ж/б элементов ∅1000 Hср=2,2м / люки</t>
         </is>
       </c>
-      <c r="C1409" s="6" t="inlineStr"/>
+      <c r="C1409" s="6" t="n">
+        <v>16.215</v>
+      </c>
       <c r="D1409" s="6" t="inlineStr"/>
       <c r="E1409" s="6" t="inlineStr"/>
     </row>
@@ -17225,7 +17623,9 @@
           <t>Демонтаж трубопровода кер.150</t>
         </is>
       </c>
-      <c r="C1410" s="6" t="inlineStr"/>
+      <c r="C1410" s="6" t="n">
+        <v>21.5</v>
+      </c>
       <c r="D1410" s="6" t="inlineStr"/>
       <c r="E1410" s="6" t="inlineStr"/>
     </row>
@@ -17236,7 +17636,9 @@
           <t>Демонтаж трубопровода кер.200</t>
         </is>
       </c>
-      <c r="C1411" s="6" t="inlineStr"/>
+      <c r="C1411" s="6" t="n">
+        <v>12.8</v>
+      </c>
       <c r="D1411" s="6" t="inlineStr"/>
       <c r="E1411" s="6" t="inlineStr"/>
     </row>
@@ -17247,7 +17649,9 @@
           <t>Объем бетона В15 на заделку торцов недемонтируемых труб</t>
         </is>
       </c>
-      <c r="C1412" s="6" t="inlineStr"/>
+      <c r="C1412" s="6" t="n">
+        <v>0.46</v>
+      </c>
       <c r="D1412" s="6" t="inlineStr"/>
       <c r="E1412" s="6" t="inlineStr"/>
     </row>
@@ -17280,7 +17684,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C1415" s="6" t="inlineStr"/>
+      <c r="C1415" s="6" t="n">
+        <v>56.8</v>
+      </c>
       <c r="D1415" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -17297,7 +17703,9 @@
           <t>а) Разборка и восстановление проезда</t>
         </is>
       </c>
-      <c r="C1416" s="6" t="inlineStr"/>
+      <c r="C1416" s="6" t="n">
+        <v>77.5</v>
+      </c>
       <c r="D1416" s="6" t="inlineStr"/>
       <c r="E1416" s="6" t="inlineStr"/>
     </row>
@@ -17308,7 +17716,9 @@
           <t>б) Срезка и восстановление газона ( Н=0,15 растит.грунт)</t>
         </is>
       </c>
-      <c r="C1417" s="6" t="inlineStr"/>
+      <c r="C1417" s="6" t="n">
+        <v>34.5</v>
+      </c>
       <c r="D1417" s="6" t="inlineStr"/>
       <c r="E1417" s="6" t="inlineStr"/>
     </row>
@@ -17319,7 +17729,9 @@
           <t>в) Разборка бортового камня БР 100.300.15 и установка нового</t>
         </is>
       </c>
-      <c r="C1418" s="6" t="inlineStr"/>
+      <c r="C1418" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="D1418" s="6" t="inlineStr"/>
       <c r="E1418" s="6" t="inlineStr"/>
     </row>
@@ -17342,7 +17754,9 @@
           <t>2.1 Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7</t>
         </is>
       </c>
-      <c r="C1420" s="6" t="inlineStr"/>
+      <c r="C1420" s="6" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="D1420" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -17359,7 +17773,9 @@
           <t>2.2 Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C1421" s="6" t="inlineStr"/>
+      <c r="C1421" s="6" t="n">
+        <v>79.2</v>
+      </c>
       <c r="D1421" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -17387,7 +17803,9 @@
           <t>3.1 Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,70</t>
         </is>
       </c>
-      <c r="C1423" s="6" t="inlineStr"/>
+      <c r="C1423" s="6" t="n">
+        <v>54.2</v>
+      </c>
       <c r="D1423" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -17404,7 +17822,9 @@
           <t>3.2 Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C1424" s="6" t="inlineStr"/>
+      <c r="C1424" s="6" t="n">
+        <v>15.1</v>
+      </c>
       <c r="D1424" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -17421,7 +17841,9 @@
           <t>а) Разборка и восстановление проезда</t>
         </is>
       </c>
-      <c r="C1425" s="6" t="inlineStr"/>
+      <c r="C1425" s="6" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="D1425" s="6" t="inlineStr"/>
       <c r="E1425" s="6" t="inlineStr"/>
     </row>
@@ -17432,7 +17854,9 @@
           <t>б) Срезка и восстановление газона ( Н=0,15 растит.грунт)</t>
         </is>
       </c>
-      <c r="C1426" s="6" t="inlineStr"/>
+      <c r="C1426" s="6" t="n">
+        <v>52.1</v>
+      </c>
       <c r="D1426" s="6" t="inlineStr"/>
       <c r="E1426" s="6" t="inlineStr"/>
     </row>
@@ -17443,7 +17867,9 @@
           <t>в) Разборка бортового камня БР 100.300.15 и установка нового</t>
         </is>
       </c>
-      <c r="C1427" s="6" t="inlineStr"/>
+      <c r="C1427" s="6" t="n">
+        <v>25</v>
+      </c>
       <c r="D1427" s="6" t="inlineStr"/>
       <c r="E1427" s="6" t="inlineStr"/>
     </row>
@@ -17454,7 +17880,9 @@
           <t>Колодец из сборных ж/б элементов ∅1000</t>
         </is>
       </c>
-      <c r="C1428" s="6" t="inlineStr"/>
+      <c r="C1428" s="6" t="n">
+        <v>17</v>
+      </c>
       <c r="D1428" s="6" t="inlineStr"/>
       <c r="E1428" s="6" t="inlineStr"/>
     </row>
@@ -17465,7 +17893,9 @@
           <t>Люк чугунный Л(А15)-к.1-60 / утепляющая крышка</t>
         </is>
       </c>
-      <c r="C1429" s="6" t="inlineStr"/>
+      <c r="C1429" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D1429" s="6" t="inlineStr"/>
       <c r="E1429" s="6" t="inlineStr"/>
     </row>
@@ -17476,7 +17906,9 @@
           <t>Люк чугунный В(С250)-к.1-60 / утепляющая крышка</t>
         </is>
       </c>
-      <c r="C1430" s="6" t="inlineStr"/>
+      <c r="C1430" s="6" t="n">
+        <v>9</v>
+      </c>
       <c r="D1430" s="6" t="inlineStr"/>
       <c r="E1430" s="6" t="inlineStr"/>
     </row>
@@ -17487,7 +17919,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C1431" s="6" t="inlineStr"/>
+      <c r="C1431" s="6" t="n">
+        <v>16</v>
+      </c>
       <c r="D1431" s="6" t="inlineStr"/>
       <c r="E1431" s="6" t="inlineStr"/>
     </row>
@@ -17498,7 +17932,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C1432" s="6" t="inlineStr"/>
+      <c r="C1432" s="6" t="n">
+        <v>18</v>
+      </c>
       <c r="D1432" s="6" t="inlineStr"/>
       <c r="E1432" s="6" t="inlineStr"/>
     </row>
@@ -17509,7 +17945,9 @@
           <t>Гильза ст. ∅219х3,0 L=150мм(проход через стенку ж/б кол.)</t>
         </is>
       </c>
-      <c r="C1433" s="6" t="inlineStr"/>
+      <c r="C1433" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="D1433" s="6" t="inlineStr"/>
       <c r="E1433" s="6" t="inlineStr"/>
     </row>
@@ -17520,7 +17958,9 @@
           <t>Гильза ст. ∅273х4,0 L=150мм(проход через стенку ж/б кол.)</t>
         </is>
       </c>
-      <c r="C1434" s="6" t="inlineStr"/>
+      <c r="C1434" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D1434" s="6" t="inlineStr"/>
       <c r="E1434" s="6" t="inlineStr"/>
     </row>
@@ -17531,7 +17971,9 @@
           <t>Устройство котлованов 1,80х6,0м</t>
         </is>
       </c>
-      <c r="C1435" s="6" t="inlineStr"/>
+      <c r="C1435" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="D1435" s="6" t="inlineStr"/>
       <c r="E1435" s="6" t="inlineStr"/>
     </row>
@@ -17542,7 +17984,9 @@
           <t>Устройство котлованов 3,0х6,0м</t>
         </is>
       </c>
-      <c r="C1436" s="6" t="inlineStr"/>
+      <c r="C1436" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1436" s="6" t="inlineStr"/>
       <c r="E1436" s="6" t="inlineStr"/>
     </row>
@@ -17553,7 +17997,9 @@
           <t>Праймер битумный</t>
         </is>
       </c>
-      <c r="C1437" s="6" t="inlineStr"/>
+      <c r="C1437" s="6" t="n">
+        <v>78.2</v>
+      </c>
       <c r="D1437" s="6" t="inlineStr"/>
       <c r="E1437" s="6" t="inlineStr">
         <is>
@@ -17568,7 +18014,9 @@
           <t>Мастика битумная гидроизоляционная</t>
         </is>
       </c>
-      <c r="C1438" s="6" t="inlineStr"/>
+      <c r="C1438" s="6" t="n">
+        <v>156.4</v>
+      </c>
       <c r="D1438" s="6" t="inlineStr"/>
       <c r="E1438" s="6" t="inlineStr">
         <is>
@@ -17583,7 +18031,9 @@
           <t>Тройник сварной равнопроходной ПЭ100 SDR17 ∅225х225</t>
         </is>
       </c>
-      <c r="C1439" s="6" t="inlineStr"/>
+      <c r="C1439" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1439" s="6" t="inlineStr"/>
       <c r="E1439" s="6" t="inlineStr">
         <is>
@@ -17598,7 +18048,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C1440" s="6" t="inlineStr"/>
+      <c r="C1440" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D1440" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -17611,7 +18063,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110х6.6</t>
         </is>
       </c>
-      <c r="C1441" s="6" t="inlineStr"/>
+      <c r="C1441" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="D1441" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -17628,7 +18082,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C1442" s="6" t="inlineStr"/>
+      <c r="C1442" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="D1442" s="6" t="inlineStr"/>
       <c r="E1442" s="6" t="inlineStr"/>
     </row>
@@ -17639,7 +18095,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1000мм</t>
         </is>
       </c>
-      <c r="C1443" s="6" t="inlineStr"/>
+      <c r="C1443" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D1443" s="6" t="inlineStr"/>
       <c r="E1443" s="6" t="inlineStr"/>
     </row>
@@ -17650,7 +18108,9 @@
           <t>Вывешивание сетей при пересечении, площадь сеч. короба S=0,4м2</t>
         </is>
       </c>
-      <c r="C1444" s="6" t="inlineStr"/>
+      <c r="C1444" s="6" t="n">
+        <v>22</v>
+      </c>
       <c r="D1444" s="6" t="inlineStr"/>
       <c r="E1444" s="6" t="inlineStr"/>
     </row>
@@ -17683,7 +18143,9 @@
           <t>Колодец из сборных ж/б элементов ∅1500 Hср=2,60м</t>
         </is>
       </c>
-      <c r="C1448" s="6" t="inlineStr"/>
+      <c r="C1448" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1448" s="6" t="inlineStr"/>
       <c r="E1448" s="6" t="inlineStr"/>
     </row>
@@ -17694,7 +18156,9 @@
           <t>Люк чугунный Л(А15)-к.1-60 / утепляющая крышка</t>
         </is>
       </c>
-      <c r="C1449" s="6" t="inlineStr"/>
+      <c r="C1449" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1449" s="6" t="inlineStr"/>
       <c r="E1449" s="6" t="inlineStr"/>
     </row>
@@ -17705,7 +18169,9 @@
           <t>Объем бетона В15 на заделку торцов недемонтируемых труб</t>
         </is>
       </c>
-      <c r="C1450" s="6" t="inlineStr"/>
+      <c r="C1450" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="D1450" s="6" t="inlineStr"/>
       <c r="E1450" s="6" t="inlineStr"/>
     </row>
@@ -17716,7 +18182,9 @@
           <t>Труба стальная ГОСТ Р 70019-2022 ∅200</t>
         </is>
       </c>
-      <c r="C1451" s="6" t="inlineStr"/>
+      <c r="C1451" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D1451" s="6" t="inlineStr"/>
       <c r="E1451" s="6" t="inlineStr"/>
     </row>
@@ -17749,7 +18217,9 @@
           <t>Труба МУЛЬТИПАЙП 1075 ПЭ 100- RC SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C1454" s="6" t="inlineStr"/>
+      <c r="C1454" s="6" t="n">
+        <v>215</v>
+      </c>
       <c r="D1454" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -17766,7 +18236,9 @@
           <t>а) Разборка и восстановление проезда АБ</t>
         </is>
       </c>
-      <c r="C1455" s="6" t="inlineStr"/>
+      <c r="C1455" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="D1455" s="6" t="inlineStr"/>
       <c r="E1455" s="6" t="inlineStr"/>
     </row>
@@ -17777,7 +18249,9 @@
           <t>б) Разборка бортового камня БР 100.300.15 и установка нового</t>
         </is>
       </c>
-      <c r="C1456" s="6" t="inlineStr"/>
+      <c r="C1456" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D1456" s="6" t="inlineStr"/>
       <c r="E1456" s="6" t="inlineStr"/>
     </row>
@@ -17788,7 +18262,9 @@
           <t>в) Разборка и восстановление газона ( Н=0,15 растит.грунт)</t>
         </is>
       </c>
-      <c r="C1457" s="6" t="inlineStr"/>
+      <c r="C1457" s="6" t="n">
+        <v>14</v>
+      </c>
       <c r="D1457" s="6" t="inlineStr"/>
       <c r="E1457" s="6" t="inlineStr"/>
     </row>
@@ -17810,7 +18286,9 @@
           <t>Труба МУЛЬТИПАЙП 1075 ПЭ 100- RC SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C1459" s="6" t="inlineStr"/>
+      <c r="C1459" s="6" t="n">
+        <v>523</v>
+      </c>
       <c r="D1459" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -17827,7 +18305,9 @@
           <t>Устройство котлованов 1,80х6,0м</t>
         </is>
       </c>
-      <c r="C1460" s="6" t="inlineStr"/>
+      <c r="C1460" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D1460" s="6" t="inlineStr"/>
       <c r="E1460" s="6" t="inlineStr"/>
     </row>
@@ -17838,7 +18318,9 @@
           <t>3,0х6,0</t>
         </is>
       </c>
-      <c r="C1461" s="6" t="inlineStr"/>
+      <c r="C1461" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="D1461" s="6" t="inlineStr"/>
       <c r="E1461" s="6" t="inlineStr"/>
     </row>
@@ -17849,7 +18331,9 @@
           <t>а) Разборка и восстановление щебеночного проезда</t>
         </is>
       </c>
-      <c r="C1462" s="6" t="inlineStr"/>
+      <c r="C1462" s="6" t="n">
+        <v>112</v>
+      </c>
       <c r="D1462" s="6" t="inlineStr"/>
       <c r="E1462" s="6" t="inlineStr"/>
     </row>
@@ -17860,7 +18344,9 @@
           <t>Колодец из сборных ж/б элементов ∅1500</t>
         </is>
       </c>
-      <c r="C1463" s="6" t="inlineStr"/>
+      <c r="C1463" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D1463" s="6" t="inlineStr"/>
       <c r="E1463" s="6" t="inlineStr"/>
     </row>
@@ -17871,7 +18357,9 @@
           <t>Люк чугунный Л(А15)-к.1-60 / утепляющая крышка</t>
         </is>
       </c>
-      <c r="C1464" s="6" t="inlineStr"/>
+      <c r="C1464" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D1464" s="6" t="inlineStr"/>
       <c r="E1464" s="6" t="inlineStr"/>
     </row>
@@ -17882,7 +18370,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C1465" s="6" t="inlineStr"/>
+      <c r="C1465" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="D1465" s="6" t="inlineStr"/>
       <c r="E1465" s="6" t="inlineStr"/>
     </row>
@@ -17893,7 +18383,9 @@
           <t>Праймер битумный</t>
         </is>
       </c>
-      <c r="C1466" s="6" t="inlineStr"/>
+      <c r="C1466" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="D1466" s="6" t="inlineStr"/>
       <c r="E1466" s="6" t="inlineStr">
         <is>
@@ -17908,7 +18400,9 @@
           <t>Мастика битумная гидроизоляционная</t>
         </is>
       </c>
-      <c r="C1467" s="6" t="inlineStr"/>
+      <c r="C1467" s="6" t="n">
+        <v>20</v>
+      </c>
       <c r="D1467" s="6" t="inlineStr"/>
       <c r="E1467" s="6" t="inlineStr">
         <is>
@@ -17923,7 +18417,9 @@
           <t>Отвод сварной 90° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1468" s="6" t="inlineStr"/>
+      <c r="C1468" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1468" s="6" t="inlineStr"/>
       <c r="E1468" s="6" t="inlineStr">
         <is>
@@ -17938,7 +18434,9 @@
           <t>Отвод сварной 73° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1469" s="6" t="inlineStr"/>
+      <c r="C1469" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1469" s="6" t="inlineStr"/>
       <c r="E1469" s="6" t="inlineStr">
         <is>
@@ -17953,7 +18451,9 @@
           <t>Отвод сварной 45° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1470" s="6" t="inlineStr"/>
+      <c r="C1470" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D1470" s="6" t="inlineStr"/>
       <c r="E1470" s="6" t="inlineStr">
         <is>
@@ -17968,7 +18468,9 @@
           <t>Отвод сварной 61° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1471" s="6" t="inlineStr"/>
+      <c r="C1471" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1471" s="6" t="inlineStr"/>
       <c r="E1471" s="6" t="inlineStr">
         <is>
@@ -17983,7 +18485,9 @@
           <t>Отвод сварной 48° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1472" s="6" t="inlineStr"/>
+      <c r="C1472" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1472" s="6" t="inlineStr"/>
       <c r="E1472" s="6" t="inlineStr">
         <is>
@@ -17998,7 +18502,9 @@
           <t>Отвод сварной 30° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1473" s="6" t="inlineStr"/>
+      <c r="C1473" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1473" s="6" t="inlineStr"/>
       <c r="E1473" s="6" t="inlineStr">
         <is>
@@ -18013,7 +18519,9 @@
           <t>Отвод сварной 28° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1474" s="6" t="inlineStr"/>
+      <c r="C1474" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1474" s="6" t="inlineStr"/>
       <c r="E1474" s="6" t="inlineStr">
         <is>
@@ -18028,7 +18536,9 @@
           <t>Отвод сварной 11° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1475" s="6" t="inlineStr"/>
+      <c r="C1475" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1475" s="6" t="inlineStr"/>
       <c r="E1475" s="6" t="inlineStr">
         <is>
@@ -18043,7 +18553,9 @@
           <t>Отвод сварной 4° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1476" s="6" t="inlineStr"/>
+      <c r="C1476" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1476" s="6" t="inlineStr"/>
       <c r="E1476" s="6" t="inlineStr">
         <is>
@@ -18058,7 +18570,9 @@
           <t>Муфта с закладными нагревателями ПЭ 100 SDR 17 225</t>
         </is>
       </c>
-      <c r="C1477" s="6" t="inlineStr"/>
+      <c r="C1477" s="6" t="n">
+        <v>27</v>
+      </c>
       <c r="D1477" s="6" t="inlineStr"/>
       <c r="E1477" s="6" t="inlineStr">
         <is>
@@ -18073,7 +18587,9 @@
           <t>Втулка под фланец SDR17 ∅225 L=80</t>
         </is>
       </c>
-      <c r="C1478" s="6" t="inlineStr"/>
+      <c r="C1478" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D1478" s="6" t="inlineStr"/>
       <c r="E1478" s="6" t="inlineStr">
         <is>
@@ -18088,7 +18604,9 @@
           <t>Фланец стальной накидной 1,0МПа Dу150</t>
         </is>
       </c>
-      <c r="C1479" s="6" t="inlineStr"/>
+      <c r="C1479" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D1479" s="6" t="inlineStr"/>
       <c r="E1479" s="6" t="inlineStr">
         <is>
@@ -18103,7 +18621,9 @@
           <t>Воздушный вантуз для канализации ∅50 PN16</t>
         </is>
       </c>
-      <c r="C1480" s="6" t="inlineStr"/>
+      <c r="C1480" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1480" s="6" t="inlineStr"/>
       <c r="E1480" s="6" t="inlineStr">
         <is>
@@ -18118,7 +18638,9 @@
           <t>Задвижка с обрезиненным клином фланцевая DN50</t>
         </is>
       </c>
-      <c r="C1481" s="6" t="inlineStr"/>
+      <c r="C1481" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1481" s="6" t="inlineStr"/>
       <c r="E1481" s="6" t="inlineStr">
         <is>
@@ -18133,7 +18655,9 @@
           <t>Штурвал</t>
         </is>
       </c>
-      <c r="C1482" s="6" t="inlineStr"/>
+      <c r="C1482" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1482" s="6" t="inlineStr"/>
       <c r="E1482" s="6" t="inlineStr">
         <is>
@@ -18148,7 +18672,9 @@
           <t>Переход фланцевый DN 200х50</t>
         </is>
       </c>
-      <c r="C1483" s="6" t="inlineStr"/>
+      <c r="C1483" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1483" s="6" t="inlineStr"/>
       <c r="E1483" s="6" t="inlineStr">
         <is>
@@ -18163,7 +18689,9 @@
           <t>Тройник фланцевый равнопроходной DN 200х200</t>
         </is>
       </c>
-      <c r="C1484" s="6" t="inlineStr"/>
+      <c r="C1484" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1484" s="6" t="inlineStr"/>
       <c r="E1484" s="6" t="inlineStr">
         <is>
@@ -18178,7 +18706,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN200</t>
         </is>
       </c>
-      <c r="C1485" s="6" t="inlineStr"/>
+      <c r="C1485" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D1485" s="6" t="inlineStr"/>
       <c r="E1485" s="6" t="inlineStr"/>
     </row>
@@ -18189,7 +18719,9 @@
           <t>Упор бетонный Уг-5</t>
         </is>
       </c>
-      <c r="C1486" s="6" t="inlineStr"/>
+      <c r="C1486" s="6" t="n">
+        <v>13</v>
+      </c>
       <c r="D1486" s="6" t="inlineStr"/>
       <c r="E1486" s="6" t="inlineStr"/>
     </row>
@@ -18200,7 +18732,9 @@
           <t>Вывешивание сетей при пересечении, площадь сечения короба S=0,4м2</t>
         </is>
       </c>
-      <c r="C1487" s="6" t="inlineStr"/>
+      <c r="C1487" s="6" t="n">
+        <v>26</v>
+      </c>
       <c r="D1487" s="6" t="inlineStr"/>
       <c r="E1487" s="6" t="inlineStr"/>
     </row>
@@ -18222,7 +18756,9 @@
           <t>Колодец из сборных ж/б элементов ∅1500 Hср=2,60м</t>
         </is>
       </c>
-      <c r="C1489" s="6" t="inlineStr"/>
+      <c r="C1489" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1489" s="6" t="inlineStr"/>
       <c r="E1489" s="6" t="inlineStr"/>
     </row>
@@ -18233,7 +18769,9 @@
           <t>Люк чугунный Л(А15)-к.1-60 / утепляющая крышка</t>
         </is>
       </c>
-      <c r="C1490" s="6" t="inlineStr"/>
+      <c r="C1490" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1490" s="6" t="inlineStr"/>
       <c r="E1490" s="6" t="inlineStr"/>
     </row>
@@ -18244,7 +18782,9 @@
           <t>Объем бетона В15 на заделку торцов недемонтируемых труб</t>
         </is>
       </c>
-      <c r="C1491" s="6" t="inlineStr"/>
+      <c r="C1491" s="6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
       <c r="D1491" s="6" t="inlineStr"/>
       <c r="E1491" s="6" t="inlineStr"/>
     </row>
@@ -18255,7 +18795,9 @@
           <t>Труба стальная ГОСТ Р 70019-2022 ∅200</t>
         </is>
       </c>
-      <c r="C1492" s="6" t="inlineStr"/>
+      <c r="C1492" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D1492" s="6" t="inlineStr"/>
       <c r="E1492" s="6" t="inlineStr"/>
     </row>
@@ -18288,7 +18830,9 @@
           <t>Труба МУЛЬТИПАЙП 1075 ПЭ 100- RC SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C1495" s="6" t="inlineStr"/>
+      <c r="C1495" s="6" t="n">
+        <v>227</v>
+      </c>
       <c r="D1495" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -18305,7 +18849,9 @@
           <t>а) Разборка и восстановление проезда АБ</t>
         </is>
       </c>
-      <c r="C1496" s="6" t="inlineStr"/>
+      <c r="C1496" s="6" t="n">
+        <v>18</v>
+      </c>
       <c r="D1496" s="6" t="inlineStr"/>
       <c r="E1496" s="6" t="inlineStr"/>
     </row>
@@ -18316,7 +18862,9 @@
           <t>б) Разборка бортового камня БР 100.300.15 и установка нового</t>
         </is>
       </c>
-      <c r="C1497" s="6" t="inlineStr"/>
+      <c r="C1497" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D1497" s="6" t="inlineStr"/>
       <c r="E1497" s="6" t="inlineStr"/>
     </row>
@@ -18327,7 +18875,9 @@
           <t>в) Разборка и восстановление газона ( Н=0,15 растит.грунт)</t>
         </is>
       </c>
-      <c r="C1498" s="6" t="inlineStr"/>
+      <c r="C1498" s="6" t="n">
+        <v>16.2</v>
+      </c>
       <c r="D1498" s="6" t="inlineStr"/>
       <c r="E1498" s="6" t="inlineStr"/>
     </row>
@@ -18349,7 +18899,9 @@
           <t>Труба МУЛЬТИПАЙП 1075 ПЭ 100- RC SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C1500" s="6" t="inlineStr"/>
+      <c r="C1500" s="6" t="n">
+        <v>562.4</v>
+      </c>
       <c r="D1500" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -18366,7 +18918,9 @@
           <t>Устройство котлованов 1,80х6,0м</t>
         </is>
       </c>
-      <c r="C1501" s="6" t="inlineStr"/>
+      <c r="C1501" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D1501" s="6" t="inlineStr"/>
       <c r="E1501" s="6" t="inlineStr"/>
     </row>
@@ -18377,7 +18931,9 @@
           <t>3,0х6,0м</t>
         </is>
       </c>
-      <c r="C1502" s="6" t="inlineStr"/>
+      <c r="C1502" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D1502" s="6" t="inlineStr"/>
       <c r="E1502" s="6" t="inlineStr"/>
     </row>
@@ -18388,7 +18944,9 @@
           <t>а) Разборка и восстановление щебеночного проезда</t>
         </is>
       </c>
-      <c r="C1503" s="6" t="inlineStr"/>
+      <c r="C1503" s="6" t="n">
+        <v>112</v>
+      </c>
       <c r="D1503" s="6" t="inlineStr"/>
       <c r="E1503" s="6" t="inlineStr"/>
     </row>
@@ -18399,7 +18957,9 @@
           <t>Колодец из сборных ж/б элементов ∅1500</t>
         </is>
       </c>
-      <c r="C1504" s="6" t="inlineStr"/>
+      <c r="C1504" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1504" s="6" t="inlineStr"/>
       <c r="E1504" s="6" t="inlineStr"/>
     </row>
@@ -18410,7 +18970,9 @@
           <t>Люк чугунный Л(А15)-к.1-60 / утепляющая крышка</t>
         </is>
       </c>
-      <c r="C1505" s="6" t="inlineStr"/>
+      <c r="C1505" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1505" s="6" t="inlineStr"/>
       <c r="E1505" s="6" t="inlineStr"/>
     </row>
@@ -18421,7 +18983,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C1506" s="6" t="inlineStr"/>
+      <c r="C1506" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D1506" s="6" t="inlineStr"/>
       <c r="E1506" s="6" t="inlineStr"/>
     </row>
@@ -18432,7 +18996,9 @@
           <t>Праймер битумный</t>
         </is>
       </c>
-      <c r="C1507" s="6" t="inlineStr"/>
+      <c r="C1507" s="6" t="n">
+        <v>4.3</v>
+      </c>
       <c r="D1507" s="6" t="inlineStr"/>
       <c r="E1507" s="6" t="inlineStr">
         <is>
@@ -18447,7 +19013,9 @@
           <t>Мастика битумная гидроизоляционная</t>
         </is>
       </c>
-      <c r="C1508" s="6" t="inlineStr"/>
+      <c r="C1508" s="6" t="n">
+        <v>8.6</v>
+      </c>
       <c r="D1508" s="6" t="inlineStr"/>
       <c r="E1508" s="6" t="inlineStr">
         <is>
@@ -18462,7 +19030,9 @@
           <t>Отвод сварной 90° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1509" s="6" t="inlineStr"/>
+      <c r="C1509" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D1509" s="6" t="inlineStr"/>
       <c r="E1509" s="6" t="inlineStr">
         <is>
@@ -18477,7 +19047,9 @@
           <t>Отвод сварной 61° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1510" s="6" t="inlineStr"/>
+      <c r="C1510" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1510" s="6" t="inlineStr"/>
       <c r="E1510" s="6" t="inlineStr">
         <is>
@@ -18492,7 +19064,9 @@
           <t>Отвод сварной 73° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1511" s="6" t="inlineStr"/>
+      <c r="C1511" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1511" s="6" t="inlineStr"/>
       <c r="E1511" s="6" t="inlineStr">
         <is>
@@ -18507,7 +19081,9 @@
           <t>Отвод сварной 45° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1512" s="6" t="inlineStr"/>
+      <c r="C1512" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D1512" s="6" t="inlineStr"/>
       <c r="E1512" s="6" t="inlineStr">
         <is>
@@ -21585,7 +22161,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C1776" s="6" t="inlineStr"/>
+      <c r="C1776" s="6" t="n">
+        <v>1324</v>
+      </c>
       <c r="D1776" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -21602,7 +22180,9 @@
           <t>Устройство котлованов 3,0х6,0м</t>
         </is>
       </c>
-      <c r="C1777" s="6" t="inlineStr"/>
+      <c r="C1777" s="6" t="n">
+        <v>15</v>
+      </c>
       <c r="D1777" s="6" t="inlineStr"/>
       <c r="E1777" s="6" t="inlineStr"/>
     </row>
@@ -21613,7 +22193,9 @@
           <t>а) Разборка и восстановление асфальтового покрытия</t>
         </is>
       </c>
-      <c r="C1778" s="6" t="inlineStr"/>
+      <c r="C1778" s="6" t="n">
+        <v>75</v>
+      </c>
       <c r="D1778" s="6" t="inlineStr"/>
       <c r="E1778" s="6" t="inlineStr"/>
     </row>
@@ -21624,7 +22206,9 @@
           <t>б) Разборка бортового камня БР 100.20.8 и установка нового</t>
         </is>
       </c>
-      <c r="C1779" s="6" t="inlineStr"/>
+      <c r="C1779" s="6" t="n">
+        <v>75</v>
+      </c>
       <c r="D1779" s="6" t="inlineStr"/>
       <c r="E1779" s="6" t="inlineStr"/>
     </row>
@@ -21635,7 +22219,9 @@
           <t>в) Разборка и восстановление газона</t>
         </is>
       </c>
-      <c r="C1780" s="6" t="inlineStr"/>
+      <c r="C1780" s="6" t="n">
+        <v>196</v>
+      </c>
       <c r="D1780" s="6" t="inlineStr"/>
       <c r="E1780" s="6" t="inlineStr"/>
     </row>
@@ -21646,7 +22232,9 @@
           <t>Колодец из сборных ж/б элементов ∅2000 / ∅1500</t>
         </is>
       </c>
-      <c r="C1781" s="6" t="inlineStr"/>
+      <c r="C1781" s="6" t="n">
+        <v>21</v>
+      </c>
       <c r="D1781" s="6" t="inlineStr"/>
       <c r="E1781" s="6" t="inlineStr"/>
     </row>
@@ -21657,7 +22245,9 @@
           <t>Люк чугунный Л(А15)-к.1-60 / утепляющая крышка</t>
         </is>
       </c>
-      <c r="C1782" s="6" t="inlineStr"/>
+      <c r="C1782" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D1782" s="6" t="inlineStr"/>
       <c r="E1782" s="6" t="inlineStr"/>
     </row>
@@ -21668,7 +22258,9 @@
           <t>Праймер битумный</t>
         </is>
       </c>
-      <c r="C1783" s="6" t="inlineStr"/>
+      <c r="C1783" s="6" t="n">
+        <v>23</v>
+      </c>
       <c r="D1783" s="6" t="inlineStr"/>
       <c r="E1783" s="6" t="inlineStr">
         <is>
@@ -21683,7 +22275,9 @@
           <t>Мастика битумная гидроизоляционная</t>
         </is>
       </c>
-      <c r="C1784" s="6" t="inlineStr"/>
+      <c r="C1784" s="6" t="n">
+        <v>46</v>
+      </c>
       <c r="D1784" s="6" t="inlineStr"/>
       <c r="E1784" s="6" t="inlineStr">
         <is>
@@ -21698,7 +22292,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C1785" s="6" t="inlineStr"/>
+      <c r="C1785" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D1785" s="6" t="inlineStr"/>
       <c r="E1785" s="6" t="inlineStr"/>
     </row>
@@ -21709,7 +22305,9 @@
           <t>Задвижка "Гранар" с обрезиненным клином серии КR 20 DN200</t>
         </is>
       </c>
-      <c r="C1786" s="6" t="inlineStr"/>
+      <c r="C1786" s="6" t="n">
+        <v>65</v>
+      </c>
       <c r="D1786" s="6" t="inlineStr"/>
       <c r="E1786" s="6" t="inlineStr">
         <is>
@@ -21735,7 +22333,9 @@
           <t>Втулка под фланец ПЭ100 SDR17 ∅225х13,4</t>
         </is>
       </c>
-      <c r="C1788" s="6" t="inlineStr"/>
+      <c r="C1788" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="D1788" s="6" t="inlineStr"/>
       <c r="E1788" s="6" t="inlineStr">
         <is>
@@ -21750,7 +22350,9 @@
           <t>Фланец стальной 1.0МПа ∅у200</t>
         </is>
       </c>
-      <c r="C1789" s="6" t="inlineStr"/>
+      <c r="C1789" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="D1789" s="6" t="inlineStr"/>
       <c r="E1789" s="6" t="inlineStr">
         <is>
@@ -21765,7 +22367,9 @@
           <t>Тройник сварной равнопроходной 90° ПЭ100 SDR 17 ∅ 2 2 5</t>
         </is>
       </c>
-      <c r="C1790" s="6" t="inlineStr"/>
+      <c r="C1790" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1790" s="6" t="inlineStr"/>
       <c r="E1790" s="6" t="inlineStr">
         <is>
@@ -21780,7 +22384,9 @@
           <t>Крест сварной ° ПЭ100 SDR 17 ∅225</t>
         </is>
       </c>
-      <c r="C1791" s="6" t="inlineStr"/>
+      <c r="C1791" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1791" s="6" t="inlineStr"/>
       <c r="E1791" s="6" t="inlineStr">
         <is>
@@ -21795,7 +22401,9 @@
           <t>Отвод сварной 90° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1792" s="6" t="inlineStr"/>
+      <c r="C1792" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1792" s="6" t="inlineStr"/>
       <c r="E1792" s="6" t="inlineStr">
         <is>
@@ -21810,7 +22418,9 @@
           <t>Отвод сварной 58° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1793" s="6" t="inlineStr"/>
+      <c r="C1793" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1793" s="6" t="inlineStr"/>
       <c r="E1793" s="6" t="inlineStr"/>
     </row>
@@ -21821,7 +22431,9 @@
           <t>Отвод сварной 29° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1794" s="6" t="inlineStr"/>
+      <c r="C1794" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1794" s="6" t="inlineStr"/>
       <c r="E1794" s="6" t="inlineStr"/>
     </row>
@@ -21832,7 +22444,9 @@
           <t>Отвод сварной 31° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1795" s="6" t="inlineStr"/>
+      <c r="C1795" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1795" s="6" t="inlineStr"/>
       <c r="E1795" s="6" t="inlineStr"/>
     </row>
@@ -21843,7 +22457,9 @@
           <t>Отвод сварной 13° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1796" s="6" t="inlineStr"/>
+      <c r="C1796" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1796" s="6" t="inlineStr"/>
       <c r="E1796" s="6" t="inlineStr"/>
     </row>
@@ -21854,7 +22470,9 @@
           <t>Переход ПЭ100 SDR17 - 280 х 225</t>
         </is>
       </c>
-      <c r="C1797" s="6" t="inlineStr"/>
+      <c r="C1797" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1797" s="6" t="inlineStr"/>
       <c r="E1797" s="6" t="inlineStr">
         <is>
@@ -21869,7 +22487,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 280 х16,6</t>
         </is>
       </c>
-      <c r="C1798" s="6" t="inlineStr"/>
+      <c r="C1798" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1798" s="6" t="n">
         <v>13.19</v>
       </c>
@@ -21886,7 +22506,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN250</t>
         </is>
       </c>
-      <c r="C1799" s="6" t="inlineStr"/>
+      <c r="C1799" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1799" s="6" t="inlineStr"/>
       <c r="E1799" s="6" t="inlineStr"/>
     </row>
@@ -21897,7 +22519,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN200</t>
         </is>
       </c>
-      <c r="C1800" s="6" t="inlineStr"/>
+      <c r="C1800" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1800" s="6" t="inlineStr"/>
       <c r="E1800" s="6" t="inlineStr"/>
     </row>
@@ -21908,7 +22532,9 @@
           <t>Муфта с закладными нагревателями ПЭ 100 SDR 17 225</t>
         </is>
       </c>
-      <c r="C1801" s="6" t="inlineStr"/>
+      <c r="C1801" s="6" t="n">
+        <v>26</v>
+      </c>
       <c r="D1801" s="6" t="inlineStr"/>
       <c r="E1801" s="6" t="inlineStr">
         <is>
@@ -21923,7 +22549,9 @@
           <t>Вывешивание сетей при пересечении, площадь сечения короба S=0,4м2</t>
         </is>
       </c>
-      <c r="C1802" s="6" t="inlineStr"/>
+      <c r="C1802" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="D1802" s="6" t="inlineStr"/>
       <c r="E1802" s="6" t="inlineStr"/>
     </row>
@@ -21934,7 +22562,9 @@
           <t>Упор бетонный УГ-5 (800х1000х600, Vбет.=0,48м3)</t>
         </is>
       </c>
-      <c r="C1803" s="6" t="inlineStr"/>
+      <c r="C1803" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="D1803" s="6" t="inlineStr"/>
       <c r="E1803" s="6" t="inlineStr"/>
     </row>
@@ -22250,7 +22880,9 @@
           <t>Отвод сварной 78° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1830" s="6" t="inlineStr"/>
+      <c r="C1830" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1830" s="6" t="inlineStr"/>
       <c r="E1830" s="6" t="inlineStr">
         <is>
@@ -22265,7 +22897,9 @@
           <t>Отвод сварной 64° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1831" s="6" t="inlineStr"/>
+      <c r="C1831" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1831" s="6" t="inlineStr"/>
       <c r="E1831" s="6" t="inlineStr">
         <is>
@@ -22280,7 +22914,9 @@
           <t>Отвод сварной 59° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1832" s="6" t="inlineStr"/>
+      <c r="C1832" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1832" s="6" t="inlineStr"/>
       <c r="E1832" s="6" t="inlineStr">
         <is>
@@ -22295,7 +22931,9 @@
           <t>Отвод сварной 43° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1833" s="6" t="inlineStr"/>
+      <c r="C1833" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1833" s="6" t="inlineStr"/>
       <c r="E1833" s="6" t="inlineStr">
         <is>
@@ -22310,7 +22948,9 @@
           <t>Отвод сварной 34° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1834" s="6" t="inlineStr"/>
+      <c r="C1834" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1834" s="6" t="inlineStr"/>
       <c r="E1834" s="6" t="inlineStr">
         <is>
@@ -22325,7 +22965,9 @@
           <t>Отвод сварной 27° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1835" s="6" t="inlineStr"/>
+      <c r="C1835" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D1835" s="6" t="inlineStr"/>
       <c r="E1835" s="6" t="inlineStr">
         <is>
@@ -22340,7 +22982,9 @@
           <t>Отвод сварной 18° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1836" s="6" t="inlineStr"/>
+      <c r="C1836" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1836" s="6" t="inlineStr"/>
       <c r="E1836" s="6" t="inlineStr">
         <is>
@@ -22355,7 +22999,9 @@
           <t>Отвод сварной 12° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1837" s="6" t="inlineStr"/>
+      <c r="C1837" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1837" s="6" t="inlineStr"/>
       <c r="E1837" s="6" t="inlineStr">
         <is>
@@ -22370,7 +23016,9 @@
           <t>Отвод сварной 8° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1838" s="6" t="inlineStr"/>
+      <c r="C1838" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1838" s="6" t="inlineStr"/>
       <c r="E1838" s="6" t="inlineStr">
         <is>
@@ -22385,7 +23033,9 @@
           <t>Отвод сварной 7° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1839" s="6" t="inlineStr"/>
+      <c r="C1839" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1839" s="6" t="inlineStr"/>
       <c r="E1839" s="6" t="inlineStr">
         <is>
@@ -22400,7 +23050,9 @@
           <t>Задвижка "Гранар" с обрезиненным клином серии КR 20 DN200</t>
         </is>
       </c>
-      <c r="C1840" s="6" t="inlineStr"/>
+      <c r="C1840" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D1840" s="6" t="inlineStr"/>
       <c r="E1840" s="6" t="inlineStr">
         <is>
@@ -22426,7 +23078,9 @@
           <t>Втулка под фланец ПЭ100 SDR17 ∅225х13,4</t>
         </is>
       </c>
-      <c r="C1842" s="6" t="inlineStr"/>
+      <c r="C1842" s="6" t="n">
+        <v>20</v>
+      </c>
       <c r="D1842" s="6" t="inlineStr"/>
       <c r="E1842" s="6" t="inlineStr">
         <is>
@@ -22441,7 +23095,9 @@
           <t>Фланец стальной 1.0МПа ∅у200</t>
         </is>
       </c>
-      <c r="C1843" s="6" t="inlineStr"/>
+      <c r="C1843" s="6" t="n">
+        <v>20</v>
+      </c>
       <c r="D1843" s="6" t="inlineStr"/>
       <c r="E1843" s="6" t="inlineStr">
         <is>
@@ -22456,7 +23112,9 @@
           <t>Тройник сварной равнопроходной 90° ПЭ100 SDR 17 ∅у200</t>
         </is>
       </c>
-      <c r="C1844" s="6" t="inlineStr"/>
+      <c r="C1844" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1844" s="6" t="inlineStr"/>
       <c r="E1844" s="6" t="inlineStr">
         <is>
@@ -22471,7 +23129,9 @@
           <t>Тройник сварной равнопроходной ПЭ100 SDR17 L 600х430 ∅225</t>
         </is>
       </c>
-      <c r="C1845" s="6" t="inlineStr"/>
+      <c r="C1845" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D1845" s="6" t="inlineStr"/>
       <c r="E1845" s="6" t="inlineStr">
         <is>
@@ -22486,7 +23146,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN200</t>
         </is>
       </c>
-      <c r="C1846" s="6" t="inlineStr"/>
+      <c r="C1846" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1846" s="6" t="inlineStr"/>
       <c r="E1846" s="6" t="inlineStr"/>
     </row>
@@ -22497,7 +23159,9 @@
           <t>Муфта с закладными нагревателями ПЭ 100 SDR 17 225</t>
         </is>
       </c>
-      <c r="C1847" s="6" t="inlineStr"/>
+      <c r="C1847" s="6" t="n">
+        <v>36</v>
+      </c>
       <c r="D1847" s="6" t="inlineStr"/>
       <c r="E1847" s="6" t="inlineStr">
         <is>
@@ -22512,7 +23176,9 @@
           <t>Засыпка канавы из близлежащего отвала</t>
         </is>
       </c>
-      <c r="C1848" s="6" t="inlineStr"/>
+      <c r="C1848" s="6" t="n">
+        <v>100</v>
+      </c>
       <c r="D1848" s="6" t="inlineStr"/>
       <c r="E1848" s="6" t="inlineStr"/>
     </row>
@@ -22523,7 +23189,9 @@
           <t>Воздушный вантуз для канализации ∅50 PN16</t>
         </is>
       </c>
-      <c r="C1849" s="6" t="inlineStr"/>
+      <c r="C1849" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1849" s="6" t="inlineStr"/>
       <c r="E1849" s="6" t="inlineStr">
         <is>
@@ -22538,7 +23206,9 @@
           <t>Задвижка с обрезиненным клином фланцевая DN50</t>
         </is>
       </c>
-      <c r="C1850" s="6" t="inlineStr"/>
+      <c r="C1850" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1850" s="6" t="inlineStr"/>
       <c r="E1850" s="6" t="inlineStr">
         <is>
@@ -22553,7 +23223,9 @@
           <t>Штурвал</t>
         </is>
       </c>
-      <c r="C1851" s="6" t="inlineStr"/>
+      <c r="C1851" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1851" s="6" t="inlineStr"/>
       <c r="E1851" s="6" t="inlineStr">
         <is>
@@ -22568,7 +23240,9 @@
           <t>Переход фланцевый DN 200х50</t>
         </is>
       </c>
-      <c r="C1852" s="6" t="inlineStr"/>
+      <c r="C1852" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1852" s="6" t="inlineStr"/>
       <c r="E1852" s="6" t="inlineStr">
         <is>
@@ -22583,7 +23257,9 @@
           <t>Тройник фланцевый равнопроходной DN 200х200</t>
         </is>
       </c>
-      <c r="C1853" s="6" t="inlineStr"/>
+      <c r="C1853" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1853" s="6" t="inlineStr"/>
       <c r="E1853" s="6" t="inlineStr">
         <is>
@@ -22598,7 +23274,9 @@
           <t>Вывешивание сетей при пересечении, площадь сечения короба S=0,4м2</t>
         </is>
       </c>
-      <c r="C1854" s="6" t="inlineStr"/>
+      <c r="C1854" s="6" t="n">
+        <v>30</v>
+      </c>
       <c r="D1854" s="6" t="inlineStr"/>
       <c r="E1854" s="6" t="inlineStr"/>
     </row>
@@ -22609,7 +23287,9 @@
           <t>Упор бетонный УГ-5 (800х1000х600, Vбет.=0,48м3)</t>
         </is>
       </c>
-      <c r="C1855" s="6" t="inlineStr"/>
+      <c r="C1855" s="6" t="n">
+        <v>11</v>
+      </c>
       <c r="D1855" s="6" t="inlineStr"/>
       <c r="E1855" s="6" t="inlineStr"/>
     </row>
@@ -22620,7 +23300,9 @@
           <t>Упор бетонный УГ-1 (400х700х400, Vбет.=0,112м3)</t>
         </is>
       </c>
-      <c r="C1856" s="6" t="inlineStr"/>
+      <c r="C1856" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="D1856" s="6" t="inlineStr"/>
       <c r="E1856" s="6" t="inlineStr"/>
     </row>
@@ -22631,7 +23313,9 @@
           <t>Упор бетонный УН-2 (600х300, Vбет.=0,11м3)</t>
         </is>
       </c>
-      <c r="C1857" s="6" t="inlineStr"/>
+      <c r="C1857" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1857" s="6" t="inlineStr"/>
       <c r="E1857" s="6" t="inlineStr"/>
     </row>
@@ -22642,7 +23326,9 @@
           <t>Упор бетонный УВ-4а (900х800х350, Vбет.=0,56м3)</t>
         </is>
       </c>
-      <c r="C1858" s="6" t="inlineStr"/>
+      <c r="C1858" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1858" s="6" t="inlineStr"/>
       <c r="E1858" s="6" t="inlineStr"/>
     </row>
@@ -22664,7 +23350,9 @@
           <t>Объем бетона В15 на заделку торца недемонтируемой трубы</t>
         </is>
       </c>
-      <c r="C1860" s="6" t="inlineStr"/>
+      <c r="C1860" s="6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
       <c r="D1860" s="6" t="inlineStr"/>
       <c r="E1860" s="6" t="inlineStr"/>
     </row>
@@ -22697,7 +23385,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х 13,4</t>
         </is>
       </c>
-      <c r="C1863" s="6" t="inlineStr"/>
+      <c r="C1863" s="6" t="n">
+        <v>564.4</v>
+      </c>
       <c r="D1863" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -22714,7 +23404,9 @@
           <t>Труба МУЛЬТИПАЙП 1075 ПЭ100-RC SDR17 - 225 х 13,4</t>
         </is>
       </c>
-      <c r="C1864" s="6" t="inlineStr"/>
+      <c r="C1864" s="6" t="n">
+        <v>65</v>
+      </c>
       <c r="D1864" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -22731,7 +23423,9 @@
           <t>Устройство котлованов 1,80х6,0м</t>
         </is>
       </c>
-      <c r="C1865" s="6" t="inlineStr"/>
+      <c r="C1865" s="6" t="n">
+        <v>18</v>
+      </c>
       <c r="D1865" s="6" t="inlineStr"/>
       <c r="E1865" s="6" t="inlineStr"/>
     </row>
@@ -22742,7 +23436,9 @@
           <t>3,0х6,0м</t>
         </is>
       </c>
-      <c r="C1866" s="6" t="inlineStr"/>
+      <c r="C1866" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D1866" s="6" t="inlineStr"/>
       <c r="E1866" s="6" t="inlineStr"/>
     </row>
@@ -22753,7 +23449,9 @@
           <t>а) Разборка и восстановление проезда АБ</t>
         </is>
       </c>
-      <c r="C1867" s="6" t="inlineStr"/>
+      <c r="C1867" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D1867" s="6" t="inlineStr"/>
       <c r="E1867" s="6" t="inlineStr"/>
     </row>
@@ -22764,7 +23462,9 @@
           <t>б) Разборка и восстановление газона</t>
         </is>
       </c>
-      <c r="C1868" s="6" t="inlineStr"/>
+      <c r="C1868" s="6" t="n">
+        <v>112.4</v>
+      </c>
       <c r="D1868" s="6" t="inlineStr"/>
       <c r="E1868" s="6" t="inlineStr"/>
     </row>
@@ -22775,7 +23475,9 @@
           <t>в) Разборка бортового камня БР 100.30.15 и замена на новый</t>
         </is>
       </c>
-      <c r="C1869" s="6" t="inlineStr"/>
+      <c r="C1869" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D1869" s="6" t="inlineStr"/>
       <c r="E1869" s="6" t="inlineStr"/>
     </row>
@@ -22786,7 +23488,9 @@
           <t>г) Разборка и восстановление тротуара</t>
         </is>
       </c>
-      <c r="C1870" s="6" t="inlineStr"/>
+      <c r="C1870" s="6" t="n">
+        <v>10.8</v>
+      </c>
       <c r="D1870" s="6" t="inlineStr"/>
       <c r="E1870" s="6" t="inlineStr"/>
     </row>
@@ -22797,7 +23501,9 @@
           <t>д) Разборка и восстановление щебеночного проезда</t>
         </is>
       </c>
-      <c r="C1871" s="6" t="inlineStr"/>
+      <c r="C1871" s="6" t="n">
+        <v>7.5</v>
+      </c>
       <c r="D1871" s="6" t="inlineStr"/>
       <c r="E1871" s="6" t="inlineStr"/>
     </row>
@@ -22808,7 +23514,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C1872" s="6" t="inlineStr"/>
+      <c r="C1872" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D1872" s="6" t="inlineStr"/>
       <c r="E1872" s="6" t="inlineStr"/>
     </row>
@@ -22819,7 +23527,9 @@
           <t>Отвод сварной 64° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1873" s="6" t="inlineStr"/>
+      <c r="C1873" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1873" s="6" t="inlineStr"/>
       <c r="E1873" s="6" t="inlineStr">
         <is>
@@ -22834,7 +23544,9 @@
           <t>Отвод сварной 78° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1874" s="6" t="inlineStr"/>
+      <c r="C1874" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1874" s="6" t="inlineStr"/>
       <c r="E1874" s="6" t="inlineStr">
         <is>
@@ -22849,7 +23561,9 @@
           <t>Отвод сварной 59° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1875" s="6" t="inlineStr"/>
+      <c r="C1875" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1875" s="6" t="inlineStr"/>
       <c r="E1875" s="6" t="inlineStr">
         <is>
@@ -22864,7 +23578,9 @@
           <t>Отвод сварной 43° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1876" s="6" t="inlineStr"/>
+      <c r="C1876" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1876" s="6" t="inlineStr"/>
       <c r="E1876" s="6" t="inlineStr">
         <is>
@@ -22879,7 +23595,9 @@
           <t>Отвод сварной 34° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1877" s="6" t="inlineStr"/>
+      <c r="C1877" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1877" s="6" t="inlineStr"/>
       <c r="E1877" s="6" t="inlineStr">
         <is>
@@ -22894,7 +23612,9 @@
           <t>Отвод сварной 27° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1878" s="6" t="inlineStr"/>
+      <c r="C1878" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1878" s="6" t="inlineStr"/>
       <c r="E1878" s="6" t="inlineStr">
         <is>
@@ -22909,7 +23629,9 @@
           <t>Отвод сварной 23° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1879" s="6" t="inlineStr"/>
+      <c r="C1879" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1879" s="6" t="inlineStr"/>
       <c r="E1879" s="6" t="inlineStr">
         <is>
@@ -22924,7 +23646,9 @@
           <t>Отвод сварной 18° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1880" s="6" t="inlineStr"/>
+      <c r="C1880" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1880" s="6" t="inlineStr"/>
       <c r="E1880" s="6" t="inlineStr">
         <is>
@@ -22939,7 +23663,9 @@
           <t>Отвод сварной 12° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1881" s="6" t="inlineStr"/>
+      <c r="C1881" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1881" s="6" t="inlineStr"/>
       <c r="E1881" s="6" t="inlineStr">
         <is>
@@ -22954,7 +23680,9 @@
           <t>Отвод сварной 8° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1882" s="6" t="inlineStr"/>
+      <c r="C1882" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1882" s="6" t="inlineStr"/>
       <c r="E1882" s="6" t="inlineStr">
         <is>
@@ -22969,7 +23697,9 @@
           <t>Отвод сварной 7° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C1883" s="6" t="inlineStr"/>
+      <c r="C1883" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1883" s="6" t="inlineStr"/>
       <c r="E1883" s="6" t="inlineStr">
         <is>
@@ -22984,7 +23714,9 @@
           <t>Колодец из сборных ж/б элементов ∅2000</t>
         </is>
       </c>
-      <c r="C1884" s="6" t="inlineStr"/>
+      <c r="C1884" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D1884" s="6" t="inlineStr"/>
       <c r="E1884" s="6" t="inlineStr"/>
     </row>
@@ -22995,7 +23727,9 @@
           <t>Колодец из сборных ж/б элементов ∅1500</t>
         </is>
       </c>
-      <c r="C1885" s="6" t="inlineStr"/>
+      <c r="C1885" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1885" s="6" t="inlineStr"/>
       <c r="E1885" s="6" t="inlineStr"/>
     </row>
@@ -23006,7 +23740,9 @@
           <t>Люк чугунный Л(А15)-к.1-60 / утепляющая крышка</t>
         </is>
       </c>
-      <c r="C1886" s="6" t="inlineStr"/>
+      <c r="C1886" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D1886" s="6" t="inlineStr"/>
       <c r="E1886" s="6" t="inlineStr"/>
     </row>
@@ -23017,7 +23753,9 @@
           <t>Праймер битумный</t>
         </is>
       </c>
-      <c r="C1887" s="6" t="inlineStr"/>
+      <c r="C1887" s="6" t="n">
+        <v>27.66</v>
+      </c>
       <c r="D1887" s="6" t="inlineStr"/>
       <c r="E1887" s="6" t="inlineStr">
         <is>
@@ -23032,7 +23770,9 @@
           <t>Мастика битумная гидроизоляционная</t>
         </is>
       </c>
-      <c r="C1888" s="6" t="inlineStr"/>
+      <c r="C1888" s="6" t="n">
+        <v>55.32</v>
+      </c>
       <c r="D1888" s="6" t="inlineStr"/>
       <c r="E1888" s="6" t="inlineStr">
         <is>
@@ -23047,7 +23787,9 @@
           <t>Задвижка "Гранар" с обрезиненным клином серии КR 20 DN200</t>
         </is>
       </c>
-      <c r="C1889" s="6" t="inlineStr"/>
+      <c r="C1889" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D1889" s="6" t="inlineStr"/>
       <c r="E1889" s="6" t="inlineStr">
         <is>
@@ -23073,7 +23815,9 @@
           <t>Втулка под фланец ПЭ100 SDR17 ∅225х13,4</t>
         </is>
       </c>
-      <c r="C1891" s="6" t="inlineStr"/>
+      <c r="C1891" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="D1891" s="6" t="inlineStr"/>
       <c r="E1891" s="6" t="inlineStr">
         <is>
@@ -23088,7 +23832,9 @@
           <t>Фланец стальной 1.0МПа ∅у200</t>
         </is>
       </c>
-      <c r="C1892" s="6" t="inlineStr"/>
+      <c r="C1892" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="D1892" s="6" t="inlineStr"/>
       <c r="E1892" s="6" t="inlineStr">
         <is>
@@ -23103,7 +23849,9 @@
           <t>Тройник сварной равнопроходной ПЭ100 SDR17 L 600х430 ∅225</t>
         </is>
       </c>
-      <c r="C1893" s="6" t="inlineStr"/>
+      <c r="C1893" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D1893" s="6" t="inlineStr"/>
       <c r="E1893" s="6" t="inlineStr">
         <is>
@@ -23118,7 +23866,9 @@
           <t>Муфта с закладными нагревателями ПЭ 100 SDR 17 225</t>
         </is>
       </c>
-      <c r="C1894" s="6" t="inlineStr"/>
+      <c r="C1894" s="6" t="n">
+        <v>30</v>
+      </c>
       <c r="D1894" s="6" t="inlineStr"/>
       <c r="E1894" s="6" t="inlineStr">
         <is>
@@ -23133,7 +23883,9 @@
           <t>Воздушный вантуз для канализации ∅50 PN16</t>
         </is>
       </c>
-      <c r="C1895" s="6" t="inlineStr"/>
+      <c r="C1895" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1895" s="6" t="inlineStr"/>
       <c r="E1895" s="6" t="inlineStr">
         <is>
@@ -23148,7 +23900,9 @@
           <t>Задвижка с обрезиненным клином фланцевая DN50</t>
         </is>
       </c>
-      <c r="C1896" s="6" t="inlineStr"/>
+      <c r="C1896" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1896" s="6" t="inlineStr"/>
       <c r="E1896" s="6" t="inlineStr">
         <is>
@@ -23163,7 +23917,9 @@
           <t>Штурвал</t>
         </is>
       </c>
-      <c r="C1897" s="6" t="inlineStr"/>
+      <c r="C1897" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1897" s="6" t="inlineStr"/>
       <c r="E1897" s="6" t="inlineStr">
         <is>
@@ -23178,7 +23934,9 @@
           <t>Переход фланцевый DN 200х50</t>
         </is>
       </c>
-      <c r="C1898" s="6" t="inlineStr"/>
+      <c r="C1898" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1898" s="6" t="inlineStr"/>
       <c r="E1898" s="6" t="inlineStr">
         <is>
@@ -23193,7 +23951,9 @@
           <t>Тройник фланцевый равнопроходной DN 200х200</t>
         </is>
       </c>
-      <c r="C1899" s="6" t="inlineStr"/>
+      <c r="C1899" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1899" s="6" t="inlineStr"/>
       <c r="E1899" s="6" t="inlineStr">
         <is>
@@ -23208,7 +23968,9 @@
           <t>Вывешивание сетей при пересечении, площадь сечения короба S=0,4м2</t>
         </is>
       </c>
-      <c r="C1900" s="6" t="inlineStr"/>
+      <c r="C1900" s="6" t="n">
+        <v>15</v>
+      </c>
       <c r="D1900" s="6" t="inlineStr"/>
       <c r="E1900" s="6" t="inlineStr"/>
     </row>
@@ -23219,7 +23981,9 @@
           <t>Упор бетонный УГ-5 (800х1000х600, Vбет.=0,48м3)</t>
         </is>
       </c>
-      <c r="C1901" s="6" t="inlineStr"/>
+      <c r="C1901" s="6" t="n">
+        <v>11</v>
+      </c>
       <c r="D1901" s="6" t="inlineStr"/>
       <c r="E1901" s="6" t="inlineStr"/>
     </row>
@@ -23230,7 +23994,9 @@
           <t>Упор бетонный УГ-1 (400х700х400, Vбет.=0,112м3)</t>
         </is>
       </c>
-      <c r="C1902" s="6" t="inlineStr"/>
+      <c r="C1902" s="6" t="n">
+        <v>9</v>
+      </c>
       <c r="D1902" s="6" t="inlineStr"/>
       <c r="E1902" s="6" t="inlineStr"/>
     </row>
@@ -23241,7 +24007,9 @@
           <t>Упор бетонный УН-2 (600х300, Vбет.=0,11м3)</t>
         </is>
       </c>
-      <c r="C1903" s="6" t="inlineStr"/>
+      <c r="C1903" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1903" s="6" t="inlineStr"/>
       <c r="E1903" s="6" t="inlineStr"/>
     </row>
@@ -23252,7 +24020,9 @@
           <t>Упор бетонный УВ-4а (900х800х350, Vбет.=0,56м3)</t>
         </is>
       </c>
-      <c r="C1904" s="6" t="inlineStr"/>
+      <c r="C1904" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D1904" s="6" t="inlineStr"/>
       <c r="E1904" s="6" t="inlineStr"/>
     </row>
@@ -23285,7 +24055,9 @@
           <t>Труба асбестоцементная ∅300 ГОСТ 1839-80</t>
         </is>
       </c>
-      <c r="C1907" s="6" t="inlineStr"/>
+      <c r="C1907" s="6" t="n">
+        <v>17</v>
+      </c>
       <c r="D1907" s="6" t="inlineStr"/>
       <c r="E1907" s="6" t="inlineStr"/>
     </row>
@@ -23307,7 +24079,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 315 х 18,70</t>
         </is>
       </c>
-      <c r="C1909" s="6" t="inlineStr"/>
+      <c r="C1909" s="6" t="n">
+        <v>17</v>
+      </c>
       <c r="D1909" s="6" t="n">
         <v>16.71</v>
       </c>
@@ -23324,7 +24098,9 @@
           <t>Муфта защитная для ПЭ трубы ∅315</t>
         </is>
       </c>
-      <c r="C1910" s="6" t="inlineStr"/>
+      <c r="C1910" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D1910" s="6" t="inlineStr"/>
       <c r="E1910" s="6" t="inlineStr"/>
     </row>

--- a/specifications_full.xlsx
+++ b/specifications_full.xlsx
@@ -541,7 +541,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 160 х9,50 ("Узел А")</t>
         </is>
       </c>
-      <c r="C3" s="6" t="inlineStr"/>
+      <c r="C3" s="6" t="n">
+        <v>362.3</v>
+      </c>
       <c r="D3" s="6" t="n">
         <v>4.31</v>
       </c>
@@ -558,7 +560,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 160 х9,50 ("Узел В")</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr"/>
+      <c r="C4" s="6" t="n">
+        <v>25.7</v>
+      </c>
       <c r="D4" s="6" t="n">
         <v>4.31</v>
       </c>
@@ -575,7 +579,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 160 х9,50</t>
         </is>
       </c>
-      <c r="C5" s="6" t="inlineStr"/>
+      <c r="C5" s="6" t="n">
+        <v>387.3</v>
+      </c>
       <c r="D5" s="6" t="n">
         <v>4.31</v>
       </c>
@@ -592,7 +598,9 @@
           <t>Муфта защитная для ПЭ трубы ∅160</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr"/>
+      <c r="C6" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="inlineStr"/>
     </row>
@@ -603,7 +611,9 @@
           <t>Футляр ПНД SDR17 ∅400х23,7 L=48,70м</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr"/>
+      <c r="C7" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D7" s="6" t="n">
         <v>26.9</v>
       </c>
@@ -620,7 +630,9 @@
           <t>Футляр ПНД SDR17 ∅400х23,7 L=32,80м</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr"/>
+      <c r="C8" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D8" s="6" t="n">
         <v>26.9</v>
       </c>
@@ -637,7 +649,9 @@
           <t>Отвод сварной двухсекционный 90° ∅160</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr"/>
+      <c r="C9" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr">
         <is>
@@ -652,7 +666,9 @@
           <t>Отвод сварной 45° ∅160</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr"/>
+      <c r="C10" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="inlineStr">
         <is>
@@ -667,7 +683,9 @@
           <t>Втулка под фланец SDR17 ∅160</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr"/>
+      <c r="C11" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="inlineStr">
         <is>
@@ -682,7 +700,9 @@
           <t>Фланец стальной накидной 1,0МПа Dу150</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr"/>
+      <c r="C12" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D12" s="6" t="inlineStr"/>
       <c r="E12" s="6" t="inlineStr">
         <is>
@@ -697,7 +717,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN150</t>
         </is>
       </c>
-      <c r="C13" s="6" t="inlineStr"/>
+      <c r="C13" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D13" s="6" t="inlineStr"/>
       <c r="E13" s="6" t="inlineStr"/>
     </row>
@@ -708,7 +730,9 @@
           <t>Муфта с закладными нагревателями ПЭ 100 SDR 17 160</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr"/>
+      <c r="C14" s="6" t="n">
+        <v>26</v>
+      </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr">
         <is>
@@ -723,7 +747,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 160 х9,50 ("Узел А")</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr"/>
+      <c r="C15" s="6" t="n">
+        <v>373.2</v>
+      </c>
       <c r="D15" s="6" t="n">
         <v>4.31</v>
       </c>
@@ -740,7 +766,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 160 х9,50 ("Узел В")</t>
         </is>
       </c>
-      <c r="C16" s="6" t="inlineStr"/>
+      <c r="C16" s="6" t="n">
+        <v>20.9</v>
+      </c>
       <c r="D16" s="6" t="n">
         <v>4.31</v>
       </c>
@@ -757,7 +785,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 315 х18,7 ("Узел В")</t>
         </is>
       </c>
-      <c r="C17" s="6" t="inlineStr"/>
+      <c r="C17" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="D17" s="6" t="n">
         <v>16.71</v>
       </c>
@@ -774,7 +804,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 160 х9,50</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr"/>
+      <c r="C18" s="6" t="n">
+        <v>389.6</v>
+      </c>
       <c r="D18" s="6" t="n">
         <v>4.31</v>
       </c>
@@ -791,7 +823,9 @@
           <t>Муфта защитная для ПЭ трубы ∅160</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr"/>
+      <c r="C19" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="inlineStr"/>
     </row>
@@ -802,7 +836,9 @@
           <t>Муфта защитная для ПЭ трубы ∅315</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr"/>
+      <c r="C20" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="inlineStr"/>
     </row>
@@ -813,7 +849,9 @@
           <t>Футляр ПНД SDR17 ∅400х23,7 L=46,40м</t>
         </is>
       </c>
-      <c r="C21" s="6" t="inlineStr"/>
+      <c r="C21" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D21" s="6" t="n">
         <v>26.9</v>
       </c>
@@ -830,7 +868,9 @@
           <t>Отвод сварной двухсекционный 90° ∅160</t>
         </is>
       </c>
-      <c r="C22" s="6" t="inlineStr"/>
+      <c r="C22" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="6" t="inlineStr">
         <is>
@@ -845,7 +885,9 @@
           <t>Отвод сварной двухсекционный 45° ∅160</t>
         </is>
       </c>
-      <c r="C23" s="6" t="inlineStr"/>
+      <c r="C23" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="inlineStr">
         <is>
@@ -860,7 +902,9 @@
           <t>Втулка под фланец SDR17 ∅160</t>
         </is>
       </c>
-      <c r="C24" s="6" t="inlineStr"/>
+      <c r="C24" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D24" s="6" t="inlineStr"/>
       <c r="E24" s="6" t="inlineStr">
         <is>
@@ -875,7 +919,9 @@
           <t>Фланец стальной накидной 1,0МПа Dу150</t>
         </is>
       </c>
-      <c r="C25" s="6" t="inlineStr"/>
+      <c r="C25" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D25" s="6" t="inlineStr"/>
       <c r="E25" s="6" t="inlineStr">
         <is>
@@ -890,7 +936,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN150</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr"/>
+      <c r="C26" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
     </row>
@@ -901,7 +949,9 @@
           <t>Муфта с закладными нагревателями ПЭ 100 SDR 17 160</t>
         </is>
       </c>
-      <c r="C27" s="6" t="inlineStr"/>
+      <c r="C27" s="6" t="n">
+        <v>29</v>
+      </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr">
         <is>
@@ -1410,7 +1460,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 250 х14,80</t>
         </is>
       </c>
-      <c r="C62" s="6" t="inlineStr"/>
+      <c r="C62" s="6" t="n">
+        <v>91</v>
+      </c>
       <c r="D62" s="6" t="n">
         <v>10.5</v>
       </c>
@@ -1427,7 +1479,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,70</t>
         </is>
       </c>
-      <c r="C63" s="6" t="inlineStr"/>
+      <c r="C63" s="6" t="n">
+        <v>4.6</v>
+      </c>
       <c r="D63" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -1444,7 +1498,9 @@
           <t>Муфта защитная для ПЭ трубы ∅250</t>
         </is>
       </c>
-      <c r="C64" s="6" t="inlineStr"/>
+      <c r="C64" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D64" s="6" t="inlineStr"/>
       <c r="E64" s="6" t="inlineStr"/>
     </row>
@@ -1455,7 +1511,9 @@
           <t>Отвод сварной двухсекционный 90° ∅250</t>
         </is>
       </c>
-      <c r="C65" s="6" t="inlineStr"/>
+      <c r="C65" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="D65" s="6" t="inlineStr"/>
       <c r="E65" s="6" t="inlineStr">
         <is>
@@ -1470,7 +1528,9 @@
           <t>Отвод сварной двухсекционный 23° ∅250</t>
         </is>
       </c>
-      <c r="C66" s="6" t="inlineStr"/>
+      <c r="C66" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D66" s="6" t="inlineStr"/>
       <c r="E66" s="6" t="inlineStr">
         <is>
@@ -1485,7 +1545,9 @@
           <t>Отвод сварной двухсекционный 28° ∅250</t>
         </is>
       </c>
-      <c r="C67" s="6" t="inlineStr"/>
+      <c r="C67" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D67" s="6" t="inlineStr"/>
       <c r="E67" s="6" t="inlineStr">
         <is>
@@ -1500,7 +1562,9 @@
           <t>Отвод сварной двухсекционный 37° ∅250</t>
         </is>
       </c>
-      <c r="C68" s="6" t="inlineStr"/>
+      <c r="C68" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D68" s="6" t="inlineStr"/>
       <c r="E68" s="6" t="inlineStr">
         <is>
@@ -1515,7 +1579,9 @@
           <t>Отвод сварной двухсекционный 77° ∅250</t>
         </is>
       </c>
-      <c r="C69" s="6" t="inlineStr"/>
+      <c r="C69" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D69" s="6" t="inlineStr"/>
       <c r="E69" s="6" t="inlineStr">
         <is>
@@ -1530,7 +1596,9 @@
           <t>Отвод сварной двухсекционный 75° ∅250</t>
         </is>
       </c>
-      <c r="C70" s="6" t="inlineStr"/>
+      <c r="C70" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D70" s="6" t="inlineStr"/>
       <c r="E70" s="6" t="inlineStr">
         <is>
@@ -1545,7 +1613,9 @@
           <t>Отвод сварной двухсекционный 81° ∅250</t>
         </is>
       </c>
-      <c r="C71" s="6" t="inlineStr"/>
+      <c r="C71" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D71" s="6" t="inlineStr"/>
       <c r="E71" s="6" t="inlineStr">
         <is>
@@ -1560,7 +1630,9 @@
           <t>Втулка под фланец SDR17 ∅250</t>
         </is>
       </c>
-      <c r="C72" s="6" t="inlineStr"/>
+      <c r="C72" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D72" s="6" t="inlineStr"/>
       <c r="E72" s="6" t="inlineStr">
         <is>
@@ -1575,7 +1647,9 @@
           <t>Фланец стальной накидной 1,0МПа Dу250</t>
         </is>
       </c>
-      <c r="C73" s="6" t="inlineStr"/>
+      <c r="C73" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D73" s="6" t="inlineStr"/>
       <c r="E73" s="6" t="inlineStr">
         <is>
@@ -1781,7 +1855,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C88" s="6" t="inlineStr"/>
+      <c r="C88" s="6" t="n">
+        <v>13.9</v>
+      </c>
       <c r="D88" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -1798,7 +1874,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C89" s="6" t="inlineStr"/>
+      <c r="C89" s="6" t="n">
+        <v>247.3</v>
+      </c>
       <c r="D89" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -1815,7 +1893,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C90" s="6" t="inlineStr"/>
+      <c r="C90" s="6" t="n">
+        <v>26</v>
+      </c>
       <c r="D90" s="6" t="inlineStr"/>
       <c r="E90" s="6" t="inlineStr"/>
     </row>
@@ -1826,7 +1906,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 150 L=1,00м</t>
         </is>
       </c>
-      <c r="C91" s="6" t="inlineStr"/>
+      <c r="C91" s="6" t="n">
+        <v>9</v>
+      </c>
       <c r="D91" s="6" t="inlineStr"/>
       <c r="E91" s="6" t="inlineStr"/>
     </row>
@@ -1837,7 +1919,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1,00м</t>
         </is>
       </c>
-      <c r="C92" s="6" t="inlineStr"/>
+      <c r="C92" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D92" s="6" t="inlineStr"/>
       <c r="E92" s="6" t="inlineStr"/>
     </row>
@@ -1848,7 +1932,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 300 L=1,00м</t>
         </is>
       </c>
-      <c r="C93" s="6" t="inlineStr"/>
+      <c r="C93" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D93" s="6" t="inlineStr"/>
       <c r="E93" s="6" t="inlineStr"/>
     </row>
@@ -1859,7 +1945,9 @@
           <t>Труба асбестоцементная канализационная ∅ 150</t>
         </is>
       </c>
-      <c r="C94" s="6" t="inlineStr"/>
+      <c r="C94" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D94" s="6" t="inlineStr"/>
       <c r="E94" s="6" t="inlineStr"/>
     </row>
@@ -1870,7 +1958,9 @@
           <t>Муфта асбестоцементная канализационная ∅ 150</t>
         </is>
       </c>
-      <c r="C95" s="6" t="inlineStr"/>
+      <c r="C95" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D95" s="6" t="inlineStr"/>
       <c r="E95" s="6" t="inlineStr"/>
     </row>
@@ -1892,7 +1982,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C98" s="6" t="inlineStr"/>
+      <c r="C98" s="6" t="n">
+        <v>113.5</v>
+      </c>
       <c r="D98" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -1909,7 +2001,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C99" s="6" t="inlineStr"/>
+      <c r="C99" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D99" s="6" t="inlineStr"/>
       <c r="E99" s="6" t="inlineStr"/>
     </row>
@@ -1920,7 +2014,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1,00м</t>
         </is>
       </c>
-      <c r="C100" s="6" t="inlineStr"/>
+      <c r="C100" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D100" s="6" t="inlineStr"/>
       <c r="E100" s="6" t="inlineStr"/>
     </row>
@@ -1931,7 +2027,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 300 L=1,00м</t>
         </is>
       </c>
-      <c r="C101" s="6" t="inlineStr"/>
+      <c r="C101" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D101" s="6" t="inlineStr"/>
       <c r="E101" s="6" t="inlineStr"/>
     </row>
@@ -1953,7 +2051,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 280х16,6</t>
         </is>
       </c>
-      <c r="C104" s="6" t="inlineStr"/>
+      <c r="C104" s="6" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="D104" s="6" t="n">
         <v>13.19</v>
       </c>
@@ -1970,7 +2070,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 280 х16,6</t>
         </is>
       </c>
-      <c r="C105" s="6" t="inlineStr"/>
+      <c r="C105" s="6" t="n">
+        <v>197.5</v>
+      </c>
       <c r="D105" s="6" t="n">
         <v>13.19</v>
       </c>
@@ -1987,7 +2089,9 @@
           <t>Муфта защитная для ПЭ трубы ∅280</t>
         </is>
       </c>
-      <c r="C106" s="6" t="inlineStr"/>
+      <c r="C106" s="6" t="n">
+        <v>22</v>
+      </c>
       <c r="D106" s="6" t="inlineStr"/>
       <c r="E106" s="6" t="inlineStr"/>
     </row>
@@ -1998,7 +2102,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C107" s="6" t="inlineStr"/>
+      <c r="C107" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D107" s="6" t="inlineStr"/>
       <c r="E107" s="6" t="inlineStr"/>
     </row>
@@ -2009,7 +2115,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 150 L=1,00м</t>
         </is>
       </c>
-      <c r="C108" s="6" t="inlineStr"/>
+      <c r="C108" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D108" s="6" t="inlineStr"/>
       <c r="E108" s="6" t="inlineStr"/>
     </row>
@@ -2020,7 +2128,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1,00м</t>
         </is>
       </c>
-      <c r="C109" s="6" t="inlineStr"/>
+      <c r="C109" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="D109" s="6" t="inlineStr"/>
       <c r="E109" s="6" t="inlineStr"/>
     </row>
@@ -2031,7 +2141,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110х6,6</t>
         </is>
       </c>
-      <c r="C110" s="6" t="inlineStr"/>
+      <c r="C110" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D110" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -2044,7 +2156,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C111" s="6" t="inlineStr"/>
+      <c r="C111" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D111" s="6" t="inlineStr"/>
       <c r="E111" s="6" t="inlineStr"/>
     </row>
@@ -2055,7 +2169,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 160х9,5</t>
         </is>
       </c>
-      <c r="C112" s="6" t="inlineStr"/>
+      <c r="C112" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="D112" s="6" t="n">
         <v>4.31</v>
       </c>
@@ -2068,7 +2184,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN150</t>
         </is>
       </c>
-      <c r="C113" s="6" t="inlineStr"/>
+      <c r="C113" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="D113" s="6" t="inlineStr"/>
       <c r="E113" s="6" t="inlineStr"/>
     </row>
@@ -2090,7 +2208,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C116" s="6" t="inlineStr"/>
+      <c r="C116" s="6" t="n">
+        <v>9.9</v>
+      </c>
       <c r="D116" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -2107,7 +2227,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 355 х21,1</t>
         </is>
       </c>
-      <c r="C117" s="6" t="inlineStr"/>
+      <c r="C117" s="6" t="n">
+        <v>17.5</v>
+      </c>
       <c r="D117" s="6" t="n">
         <v>21.25</v>
       </c>
@@ -2124,7 +2246,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 355 х21,10</t>
         </is>
       </c>
-      <c r="C118" s="6" t="inlineStr"/>
+      <c r="C118" s="6" t="n">
+        <v>275.7</v>
+      </c>
       <c r="D118" s="6" t="n">
         <v>21.25</v>
       </c>
@@ -2141,7 +2265,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C119" s="6" t="inlineStr"/>
+      <c r="C119" s="6" t="n">
+        <v>271.3</v>
+      </c>
       <c r="D119" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -2159,7 +2285,9 @@
 Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 355 х21,10</t>
         </is>
       </c>
-      <c r="C120" s="6" t="inlineStr"/>
+      <c r="C120" s="6" t="n">
+        <v>29.4</v>
+      </c>
       <c r="D120" s="6" t="n">
         <v>21.25</v>
       </c>
@@ -2172,7 +2300,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C121" s="6" t="inlineStr"/>
+      <c r="C121" s="6" t="n">
+        <v>17.1</v>
+      </c>
       <c r="D121" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -2189,7 +2319,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C122" s="6" t="inlineStr"/>
+      <c r="C122" s="6" t="n">
+        <v>34</v>
+      </c>
       <c r="D122" s="6" t="inlineStr"/>
       <c r="E122" s="6" t="inlineStr"/>
     </row>
@@ -2200,7 +2332,9 @@
           <t>Муфта защитная для ПЭ трубы ∅250</t>
         </is>
       </c>
-      <c r="C123" s="6" t="inlineStr"/>
+      <c r="C123" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D123" s="6" t="inlineStr"/>
       <c r="E123" s="6" t="inlineStr"/>
     </row>
@@ -2211,7 +2345,9 @@
           <t>Муфта защитная для ПЭ трубы ∅355</t>
         </is>
       </c>
-      <c r="C124" s="6" t="inlineStr"/>
+      <c r="C124" s="6" t="n">
+        <v>32</v>
+      </c>
       <c r="D124" s="6" t="inlineStr"/>
       <c r="E124" s="6" t="inlineStr"/>
     </row>
@@ -2422,7 +2558,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7</t>
         </is>
       </c>
-      <c r="C143" s="6" t="inlineStr"/>
+      <c r="C143" s="6" t="n">
+        <v>130.3</v>
+      </c>
       <c r="D143" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -2439,7 +2577,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C144" s="6" t="inlineStr"/>
+      <c r="C144" s="6" t="n">
+        <v>18</v>
+      </c>
       <c r="D144" s="6" t="inlineStr"/>
       <c r="E144" s="6" t="inlineStr"/>
     </row>
@@ -2450,7 +2590,9 @@
           <t>Труба асбестоцементная канализационная ∅ 200</t>
         </is>
       </c>
-      <c r="C145" s="6" t="inlineStr"/>
+      <c r="C145" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D145" s="6" t="inlineStr"/>
       <c r="E145" s="6" t="inlineStr"/>
     </row>
@@ -2461,7 +2603,9 @@
           <t>Муфта асбестоцементная канализационная ∅ 200</t>
         </is>
       </c>
-      <c r="C146" s="6" t="inlineStr"/>
+      <c r="C146" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D146" s="6" t="inlineStr"/>
       <c r="E146" s="6" t="inlineStr"/>
     </row>
@@ -2472,7 +2616,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C147" s="6" t="inlineStr"/>
+      <c r="C147" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D147" s="6" t="inlineStr"/>
       <c r="E147" s="6" t="inlineStr"/>
     </row>
@@ -2483,7 +2629,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110 х6,6</t>
         </is>
       </c>
-      <c r="C148" s="6" t="inlineStr"/>
+      <c r="C148" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D148" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -2617,7 +2765,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180х10,7</t>
         </is>
       </c>
-      <c r="C160" s="6" t="inlineStr"/>
+      <c r="C160" s="6" t="n">
+        <v>154.7</v>
+      </c>
       <c r="D160" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -2634,7 +2784,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225х13,4</t>
         </is>
       </c>
-      <c r="C161" s="6" t="inlineStr"/>
+      <c r="C161" s="6" t="n">
+        <v>12.9</v>
+      </c>
       <c r="D161" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -2651,7 +2803,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C162" s="6" t="inlineStr"/>
+      <c r="C162" s="6" t="n">
+        <v>14</v>
+      </c>
       <c r="D162" s="6" t="inlineStr"/>
       <c r="E162" s="6" t="inlineStr"/>
     </row>
@@ -2662,7 +2816,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C163" s="6" t="inlineStr"/>
+      <c r="C163" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D163" s="6" t="inlineStr"/>
       <c r="E163" s="6" t="inlineStr"/>
     </row>
@@ -2673,7 +2829,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110 х 6,6</t>
         </is>
       </c>
-      <c r="C164" s="6" t="inlineStr"/>
+      <c r="C164" s="6" t="n">
+        <v>9</v>
+      </c>
       <c r="D164" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -2690,7 +2848,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C165" s="6" t="inlineStr"/>
+      <c r="C165" s="6" t="n">
+        <v>9</v>
+      </c>
       <c r="D165" s="6" t="inlineStr"/>
       <c r="E165" s="6" t="inlineStr"/>
     </row>
@@ -2701,7 +2861,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1,00м</t>
         </is>
       </c>
-      <c r="C166" s="6" t="inlineStr"/>
+      <c r="C166" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D166" s="6" t="inlineStr"/>
       <c r="E166" s="6" t="inlineStr"/>
     </row>
@@ -2723,7 +2885,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180х10,7</t>
         </is>
       </c>
-      <c r="C169" s="6" t="inlineStr"/>
+      <c r="C169" s="6" t="n">
+        <v>54</v>
+      </c>
       <c r="D169" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -2740,7 +2904,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 355х21,1</t>
         </is>
       </c>
-      <c r="C170" s="6" t="inlineStr"/>
+      <c r="C170" s="6" t="n">
+        <v>28.5</v>
+      </c>
       <c r="D170" s="6" t="n">
         <v>21.25</v>
       </c>
@@ -2757,7 +2923,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C171" s="6" t="inlineStr"/>
+      <c r="C171" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D171" s="6" t="inlineStr"/>
       <c r="E171" s="6" t="inlineStr"/>
     </row>
@@ -2768,7 +2936,9 @@
           <t>Муфта защитная для ПЭ трубы ∅355</t>
         </is>
       </c>
-      <c r="C172" s="6" t="inlineStr"/>
+      <c r="C172" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D172" s="6" t="inlineStr"/>
       <c r="E172" s="6" t="inlineStr"/>
     </row>
@@ -2779,7 +2949,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110 х 6,6</t>
         </is>
       </c>
-      <c r="C173" s="6" t="inlineStr"/>
+      <c r="C173" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D173" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -2796,7 +2968,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C174" s="6" t="inlineStr"/>
+      <c r="C174" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D174" s="6" t="inlineStr"/>
       <c r="E174" s="6" t="inlineStr"/>
     </row>
@@ -2807,7 +2981,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 150 L=1,00м</t>
         </is>
       </c>
-      <c r="C175" s="6" t="inlineStr"/>
+      <c r="C175" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D175" s="6" t="inlineStr"/>
       <c r="E175" s="6" t="inlineStr"/>
     </row>
@@ -2936,7 +3112,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180х10,7</t>
         </is>
       </c>
-      <c r="C186" s="6" t="inlineStr"/>
+      <c r="C186" s="6" t="n">
+        <v>15.3</v>
+      </c>
       <c r="D186" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -2953,7 +3131,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225х13,4</t>
         </is>
       </c>
-      <c r="C187" s="6" t="inlineStr"/>
+      <c r="C187" s="6" t="n">
+        <v>17.3</v>
+      </c>
       <c r="D187" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -2970,7 +3150,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225х13,4</t>
         </is>
       </c>
-      <c r="C188" s="6" t="inlineStr"/>
+      <c r="C188" s="6" t="n">
+        <v>114.2</v>
+      </c>
       <c r="D188" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -2987,7 +3169,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180х10,7</t>
         </is>
       </c>
-      <c r="C189" s="6" t="inlineStr"/>
+      <c r="C189" s="6" t="n">
+        <v>46.5</v>
+      </c>
       <c r="D189" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -3000,7 +3184,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C190" s="6" t="inlineStr"/>
+      <c r="C190" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="D190" s="6" t="inlineStr"/>
       <c r="E190" s="6" t="inlineStr"/>
     </row>
@@ -3011,7 +3197,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C191" s="6" t="inlineStr"/>
+      <c r="C191" s="6" t="n">
+        <v>16</v>
+      </c>
       <c r="D191" s="6" t="inlineStr"/>
       <c r="E191" s="6" t="inlineStr"/>
     </row>
@@ -3022,7 +3210,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110х6.6</t>
         </is>
       </c>
-      <c r="C192" s="6" t="inlineStr"/>
+      <c r="C192" s="6" t="n">
+        <v>11</v>
+      </c>
       <c r="D192" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -3039,7 +3229,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C193" s="6" t="inlineStr"/>
+      <c r="C193" s="6" t="n">
+        <v>11</v>
+      </c>
       <c r="D193" s="6" t="inlineStr"/>
       <c r="E193" s="6" t="inlineStr"/>
     </row>
@@ -3050,7 +3242,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1,00м</t>
         </is>
       </c>
-      <c r="C194" s="6" t="inlineStr"/>
+      <c r="C194" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D194" s="6" t="inlineStr"/>
       <c r="E194" s="6" t="inlineStr"/>
     </row>
@@ -3072,7 +3266,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180х10,7</t>
         </is>
       </c>
-      <c r="C197" s="6" t="inlineStr"/>
+      <c r="C197" s="6" t="n">
+        <v>2.8</v>
+      </c>
       <c r="D197" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -3089,7 +3285,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225х13,4</t>
         </is>
       </c>
-      <c r="C198" s="6" t="inlineStr"/>
+      <c r="C198" s="6" t="n">
+        <v>28.4</v>
+      </c>
       <c r="D198" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -3106,7 +3304,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180х10,7</t>
         </is>
       </c>
-      <c r="C199" s="6" t="inlineStr"/>
+      <c r="C199" s="6" t="n">
+        <v>21.6</v>
+      </c>
       <c r="D199" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -3123,7 +3323,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C200" s="6" t="inlineStr"/>
+      <c r="C200" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="D200" s="6" t="inlineStr"/>
       <c r="E200" s="6" t="inlineStr"/>
     </row>
@@ -3134,7 +3336,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C201" s="6" t="inlineStr"/>
+      <c r="C201" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D201" s="6" t="inlineStr"/>
       <c r="E201" s="6" t="inlineStr"/>
     </row>
@@ -3145,7 +3349,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110 х 6,6</t>
         </is>
       </c>
-      <c r="C202" s="6" t="inlineStr"/>
+      <c r="C202" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D202" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -3162,7 +3368,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C203" s="6" t="inlineStr"/>
+      <c r="C203" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D203" s="6" t="inlineStr"/>
       <c r="E203" s="6" t="inlineStr"/>
     </row>
@@ -3173,7 +3381,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1,00м</t>
         </is>
       </c>
-      <c r="C204" s="6" t="inlineStr"/>
+      <c r="C204" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D204" s="6" t="inlineStr"/>
       <c r="E204" s="6" t="inlineStr"/>
     </row>
@@ -3195,7 +3405,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180х10,7</t>
         </is>
       </c>
-      <c r="C207" s="6" t="inlineStr"/>
+      <c r="C207" s="6" t="n">
+        <v>125.5</v>
+      </c>
       <c r="D207" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -3212,7 +3424,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C208" s="6" t="inlineStr"/>
+      <c r="C208" s="6" t="n">
+        <v>16</v>
+      </c>
       <c r="D208" s="6" t="inlineStr"/>
       <c r="E208" s="6" t="inlineStr"/>
     </row>
@@ -3223,7 +3437,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C209" s="6" t="inlineStr"/>
+      <c r="C209" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D209" s="6" t="inlineStr"/>
       <c r="E209" s="6" t="inlineStr"/>
     </row>
@@ -3234,7 +3450,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110 х6,6</t>
         </is>
       </c>
-      <c r="C210" s="6" t="inlineStr"/>
+      <c r="C210" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D210" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -3251,7 +3469,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 150 L=1,00м</t>
         </is>
       </c>
-      <c r="C211" s="6" t="inlineStr"/>
+      <c r="C211" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D211" s="6" t="inlineStr"/>
       <c r="E211" s="6" t="inlineStr"/>
     </row>
@@ -3346,7 +3566,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C219" s="6" t="inlineStr"/>
+      <c r="C219" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D219" s="6" t="inlineStr"/>
       <c r="E219" s="6" t="inlineStr"/>
     </row>
@@ -3357,7 +3579,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110 х6,6</t>
         </is>
       </c>
-      <c r="C220" s="6" t="inlineStr"/>
+      <c r="C220" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D220" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -3374,7 +3598,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 150 L=1,00м</t>
         </is>
       </c>
-      <c r="C221" s="6" t="inlineStr"/>
+      <c r="C221" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D221" s="6" t="inlineStr"/>
       <c r="E221" s="6" t="inlineStr"/>
     </row>
@@ -3385,7 +3611,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 300 L=1,00м</t>
         </is>
       </c>
-      <c r="C222" s="6" t="inlineStr"/>
+      <c r="C222" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D222" s="6" t="inlineStr"/>
       <c r="E222" s="6" t="inlineStr"/>
     </row>
@@ -3407,7 +3635,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7</t>
         </is>
       </c>
-      <c r="C225" s="6" t="inlineStr"/>
+      <c r="C225" s="6" t="n">
+        <v>30.8</v>
+      </c>
       <c r="D225" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -3424,7 +3654,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C226" s="6" t="inlineStr"/>
+      <c r="C226" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D226" s="6" t="inlineStr"/>
       <c r="E226" s="6" t="inlineStr"/>
     </row>
@@ -3435,7 +3667,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C227" s="6" t="inlineStr"/>
+      <c r="C227" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D227" s="6" t="inlineStr"/>
       <c r="E227" s="6" t="inlineStr"/>
     </row>
@@ -3446,7 +3680,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110 х6,6</t>
         </is>
       </c>
-      <c r="C228" s="6" t="inlineStr"/>
+      <c r="C228" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D228" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -3463,7 +3699,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 150 L=1,00м</t>
         </is>
       </c>
-      <c r="C229" s="6" t="inlineStr"/>
+      <c r="C229" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D229" s="6" t="inlineStr"/>
       <c r="E229" s="6" t="inlineStr"/>
     </row>
@@ -3485,7 +3723,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C232" s="6" t="inlineStr"/>
+      <c r="C232" s="6" t="n">
+        <v>8.699999999999999</v>
+      </c>
       <c r="D232" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -3502,7 +3742,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C233" s="6" t="inlineStr"/>
+      <c r="C233" s="6" t="n">
+        <v>157.8</v>
+      </c>
       <c r="D233" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -3519,7 +3761,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C234" s="6" t="inlineStr"/>
+      <c r="C234" s="6" t="n">
+        <v>18</v>
+      </c>
       <c r="D234" s="6" t="inlineStr"/>
       <c r="E234" s="6" t="inlineStr"/>
     </row>
@@ -3530,7 +3774,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C235" s="6" t="inlineStr"/>
+      <c r="C235" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="D235" s="6" t="inlineStr"/>
       <c r="E235" s="6" t="inlineStr"/>
     </row>
@@ -3541,7 +3787,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110 х6,6</t>
         </is>
       </c>
-      <c r="C236" s="6" t="inlineStr"/>
+      <c r="C236" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="D236" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -3558,7 +3806,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1,00м</t>
         </is>
       </c>
-      <c r="C237" s="6" t="inlineStr"/>
+      <c r="C237" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D237" s="6" t="inlineStr"/>
       <c r="E237" s="6" t="inlineStr"/>
     </row>
@@ -3569,7 +3819,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 250 L=1,00м</t>
         </is>
       </c>
-      <c r="C238" s="6" t="inlineStr"/>
+      <c r="C238" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D238" s="6" t="inlineStr"/>
       <c r="E238" s="6" t="inlineStr"/>
     </row>
@@ -3647,7 +3899,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7</t>
         </is>
       </c>
-      <c r="C246" s="6" t="inlineStr"/>
+      <c r="C246" s="6" t="n">
+        <v>22.6</v>
+      </c>
       <c r="D246" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -3664,7 +3918,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7</t>
         </is>
       </c>
-      <c r="C247" s="6" t="inlineStr"/>
+      <c r="C247" s="6" t="n">
+        <v>32.5</v>
+      </c>
       <c r="D247" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -3682,7 +3938,9 @@
 Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C248" s="6" t="inlineStr"/>
+      <c r="C248" s="6" t="n">
+        <v>26.2</v>
+      </c>
       <c r="D248" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -3699,7 +3957,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C249" s="6" t="inlineStr"/>
+      <c r="C249" s="6" t="n">
+        <v>13</v>
+      </c>
       <c r="D249" s="6" t="inlineStr"/>
       <c r="E249" s="6" t="inlineStr"/>
     </row>
@@ -3710,7 +3970,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110х6.6</t>
         </is>
       </c>
-      <c r="C250" s="6" t="inlineStr"/>
+      <c r="C250" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D250" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -3727,7 +3989,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C251" s="6" t="inlineStr"/>
+      <c r="C251" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D251" s="6" t="inlineStr"/>
       <c r="E251" s="6" t="inlineStr"/>
     </row>
@@ -3738,7 +4002,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1000мм</t>
         </is>
       </c>
-      <c r="C252" s="6" t="inlineStr"/>
+      <c r="C252" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D252" s="6" t="inlineStr"/>
       <c r="E252" s="6" t="inlineStr"/>
     </row>
@@ -3749,7 +4015,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7</t>
         </is>
       </c>
-      <c r="C253" s="6" t="inlineStr"/>
+      <c r="C253" s="6" t="n">
+        <v>6.2</v>
+      </c>
       <c r="D253" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -3766,7 +4034,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7</t>
         </is>
       </c>
-      <c r="C254" s="6" t="inlineStr"/>
+      <c r="C254" s="6" t="n">
+        <v>50</v>
+      </c>
       <c r="D254" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -3783,7 +4053,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C255" s="6" t="inlineStr"/>
+      <c r="C255" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D255" s="6" t="inlineStr"/>
       <c r="E255" s="6" t="inlineStr"/>
     </row>
@@ -3794,7 +4066,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110х6.6</t>
         </is>
       </c>
-      <c r="C256" s="6" t="inlineStr"/>
+      <c r="C256" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D256" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -3811,7 +4085,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C257" s="6" t="inlineStr"/>
+      <c r="C257" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D257" s="6" t="inlineStr"/>
       <c r="E257" s="6" t="inlineStr"/>
     </row>
@@ -3822,7 +4098,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1000мм</t>
         </is>
       </c>
-      <c r="C258" s="6" t="inlineStr"/>
+      <c r="C258" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D258" s="6" t="inlineStr"/>
       <c r="E258" s="6" t="inlineStr"/>
     </row>
@@ -3844,7 +4122,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 160 х9,50</t>
         </is>
       </c>
-      <c r="C261" s="6" t="inlineStr"/>
+      <c r="C261" s="6" t="n">
+        <v>36.8</v>
+      </c>
       <c r="D261" s="6" t="n">
         <v>4.31</v>
       </c>
@@ -3861,7 +4141,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 160 х9,50</t>
         </is>
       </c>
-      <c r="C262" s="6" t="inlineStr"/>
+      <c r="C262" s="6" t="n">
+        <v>96.7</v>
+      </c>
       <c r="D262" s="6" t="n">
         <v>4.31</v>
       </c>
@@ -3878,7 +4160,9 @@
           <t>Муфта защитная для ПЭ трубы ∅160</t>
         </is>
       </c>
-      <c r="C263" s="6" t="inlineStr"/>
+      <c r="C263" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D263" s="6" t="inlineStr"/>
       <c r="E263" s="6" t="inlineStr"/>
     </row>
@@ -3889,7 +4173,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C264" s="6" t="inlineStr"/>
+      <c r="C264" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D264" s="6" t="inlineStr"/>
       <c r="E264" s="6" t="inlineStr"/>
     </row>
@@ -3900,7 +4186,9 @@
           <t>Отвод сварной 90° ПЭ100 SDR 17 160х9,5</t>
         </is>
       </c>
-      <c r="C265" s="6" t="inlineStr"/>
+      <c r="C265" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D265" s="6" t="inlineStr"/>
       <c r="E265" s="6" t="inlineStr">
         <is>
@@ -3915,7 +4203,9 @@
           <t>Отвод сварной 45° ПЭ100 SDR 17 160х9,5</t>
         </is>
       </c>
-      <c r="C266" s="6" t="inlineStr"/>
+      <c r="C266" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D266" s="6" t="inlineStr"/>
       <c r="E266" s="6" t="inlineStr">
         <is>
@@ -3930,7 +4220,9 @@
           <t>Отвод сварной 72° ПЭ100 SDR 17 160х9,5</t>
         </is>
       </c>
-      <c r="C267" s="6" t="inlineStr"/>
+      <c r="C267" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D267" s="6" t="inlineStr"/>
       <c r="E267" s="6" t="inlineStr">
         <is>
@@ -3945,7 +4237,9 @@
           <t>Отвод сварной 18° ПЭ100 SDR 17 160х9,5</t>
         </is>
       </c>
-      <c r="C268" s="6" t="inlineStr"/>
+      <c r="C268" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D268" s="6" t="inlineStr"/>
       <c r="E268" s="6" t="inlineStr">
         <is>
@@ -3960,7 +4254,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN150</t>
         </is>
       </c>
-      <c r="C269" s="6" t="inlineStr"/>
+      <c r="C269" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D269" s="6" t="inlineStr"/>
       <c r="E269" s="6" t="inlineStr"/>
     </row>
@@ -3971,7 +4267,9 @@
           <t>Муфта с закладными нагревателями ПЭ 100 SDR 17 160</t>
         </is>
       </c>
-      <c r="C270" s="6" t="inlineStr"/>
+      <c r="C270" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="D270" s="6" t="inlineStr"/>
       <c r="E270" s="6" t="inlineStr">
         <is>
@@ -3986,7 +4284,9 @@
           <t>Футляр МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 400 х 23,70 L=64.0м</t>
         </is>
       </c>
-      <c r="C271" s="6" t="inlineStr"/>
+      <c r="C271" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D271" s="6" t="n">
         <v>26.9</v>
       </c>
@@ -4010,7 +4310,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7</t>
         </is>
       </c>
-      <c r="C274" s="6" t="inlineStr"/>
+      <c r="C274" s="6" t="n">
+        <v>162.2</v>
+      </c>
       <c r="D274" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -4027,7 +4329,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C275" s="6" t="inlineStr"/>
+      <c r="C275" s="6" t="n">
+        <v>22</v>
+      </c>
       <c r="D275" s="6" t="inlineStr"/>
       <c r="E275" s="6" t="inlineStr"/>
     </row>
@@ -4038,7 +4342,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110х6.6</t>
         </is>
       </c>
-      <c r="C276" s="6" t="inlineStr"/>
+      <c r="C276" s="6" t="n">
+        <v>11</v>
+      </c>
       <c r="D276" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -4055,7 +4361,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C277" s="6" t="inlineStr"/>
+      <c r="C277" s="6" t="n">
+        <v>11</v>
+      </c>
       <c r="D277" s="6" t="inlineStr"/>
       <c r="E277" s="6" t="inlineStr"/>
     </row>
@@ -4066,7 +4374,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1000мм</t>
         </is>
       </c>
-      <c r="C278" s="6" t="inlineStr"/>
+      <c r="C278" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D278" s="6" t="inlineStr"/>
       <c r="E278" s="6" t="inlineStr"/>
     </row>
@@ -4088,7 +4398,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C281" s="6" t="inlineStr"/>
+      <c r="C281" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D281" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -4105,7 +4417,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 355 х21,1</t>
         </is>
       </c>
-      <c r="C282" s="6" t="inlineStr"/>
+      <c r="C282" s="6" t="n">
+        <v>69.7</v>
+      </c>
       <c r="D282" s="6" t="n">
         <v>21.25</v>
       </c>
@@ -4122,7 +4436,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C283" s="6" t="inlineStr"/>
+      <c r="C283" s="6" t="n">
+        <v>186.6</v>
+      </c>
       <c r="D283" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -4139,7 +4455,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225 / ∅355</t>
         </is>
       </c>
-      <c r="C284" s="6" t="inlineStr"/>
+      <c r="C284" s="6" t="n">
+        <v>284</v>
+      </c>
       <c r="D284" s="6" t="inlineStr"/>
       <c r="E284" s="6" t="inlineStr"/>
     </row>
@@ -4150,7 +4468,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110х6.6 / 160х9,5</t>
         </is>
       </c>
-      <c r="C285" s="6" t="inlineStr"/>
+      <c r="C285" s="6" t="n">
+        <v>171</v>
+      </c>
       <c r="D285" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -4167,7 +4487,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100 / DN150</t>
         </is>
       </c>
-      <c r="C286" s="6" t="inlineStr"/>
+      <c r="C286" s="6" t="n">
+        <v>171</v>
+      </c>
       <c r="D286" s="6" t="inlineStr"/>
       <c r="E286" s="6" t="inlineStr"/>
     </row>
@@ -4178,7 +4500,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1000мм</t>
         </is>
       </c>
-      <c r="C287" s="6" t="inlineStr"/>
+      <c r="C287" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D287" s="6" t="inlineStr"/>
       <c r="E287" s="6" t="inlineStr"/>
     </row>
@@ -4189,7 +4513,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 300 L=1000мм</t>
         </is>
       </c>
-      <c r="C288" s="6" t="inlineStr"/>
+      <c r="C288" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D288" s="6" t="inlineStr"/>
       <c r="E288" s="6" t="inlineStr"/>
     </row>
@@ -4211,7 +4537,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C291" s="6" t="inlineStr"/>
+      <c r="C291" s="6" t="n">
+        <v>66.09999999999999</v>
+      </c>
       <c r="D291" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -4228,7 +4556,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C292" s="6" t="inlineStr"/>
+      <c r="C292" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D292" s="6" t="inlineStr"/>
       <c r="E292" s="6" t="inlineStr"/>
     </row>
@@ -4239,7 +4569,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110х6.6</t>
         </is>
       </c>
-      <c r="C293" s="6" t="inlineStr"/>
+      <c r="C293" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D293" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -4256,7 +4588,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C294" s="6" t="inlineStr"/>
+      <c r="C294" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D294" s="6" t="inlineStr"/>
       <c r="E294" s="6" t="inlineStr"/>
     </row>
@@ -4267,7 +4601,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 160х9,5</t>
         </is>
       </c>
-      <c r="C295" s="6" t="inlineStr"/>
+      <c r="C295" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D295" s="6" t="n">
         <v>4.31</v>
       </c>
@@ -4284,7 +4620,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN150</t>
         </is>
       </c>
-      <c r="C296" s="6" t="inlineStr"/>
+      <c r="C296" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D296" s="6" t="inlineStr"/>
       <c r="E296" s="6" t="inlineStr"/>
     </row>
@@ -4306,7 +4644,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C299" s="6" t="inlineStr"/>
+      <c r="C299" s="6" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="D299" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -4323,7 +4663,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C300" s="6" t="inlineStr"/>
+      <c r="C300" s="6" t="n">
+        <v>4.2</v>
+      </c>
       <c r="D300" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -4340,7 +4682,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C301" s="6" t="inlineStr"/>
+      <c r="C301" s="6" t="n">
+        <v>13.2</v>
+      </c>
       <c r="D301" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -4357,7 +4701,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C302" s="6" t="inlineStr"/>
+      <c r="C302" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="D302" s="6" t="inlineStr"/>
       <c r="E302" s="6" t="inlineStr"/>
     </row>
@@ -4368,7 +4714,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C303" s="6" t="inlineStr"/>
+      <c r="C303" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D303" s="6" t="inlineStr"/>
       <c r="E303" s="6" t="inlineStr"/>
     </row>
@@ -4379,7 +4727,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110 х6,6</t>
         </is>
       </c>
-      <c r="C304" s="6" t="inlineStr"/>
+      <c r="C304" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D304" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -4396,7 +4746,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1000м</t>
         </is>
       </c>
-      <c r="C305" s="6" t="inlineStr"/>
+      <c r="C305" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D305" s="6" t="inlineStr"/>
       <c r="E305" s="6" t="inlineStr"/>
     </row>
@@ -4418,7 +4770,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C308" s="6" t="inlineStr"/>
+      <c r="C308" s="6" t="n">
+        <v>39.4</v>
+      </c>
       <c r="D308" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -4436,7 +4790,9 @@
 Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C309" s="6" t="inlineStr"/>
+      <c r="C309" s="6" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="D309" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -4453,7 +4809,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C310" s="6" t="inlineStr"/>
+      <c r="C310" s="6" t="n">
+        <v>102.3</v>
+      </c>
       <c r="D310" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -4470,7 +4828,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C311" s="6" t="inlineStr"/>
+      <c r="C311" s="6" t="n">
+        <v>19</v>
+      </c>
       <c r="D311" s="6" t="inlineStr"/>
       <c r="E311" s="6" t="inlineStr"/>
     </row>
@@ -4481,7 +4841,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110х6.6</t>
         </is>
       </c>
-      <c r="C312" s="6" t="inlineStr"/>
+      <c r="C312" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D312" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -4498,7 +4860,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C313" s="6" t="inlineStr"/>
+      <c r="C313" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D313" s="6" t="inlineStr"/>
       <c r="E313" s="6" t="inlineStr"/>
     </row>
@@ -4509,7 +4873,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1000м</t>
         </is>
       </c>
-      <c r="C314" s="6" t="inlineStr"/>
+      <c r="C314" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D314" s="6" t="inlineStr"/>
       <c r="E314" s="6" t="inlineStr"/>
     </row>
@@ -4606,7 +4972,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C323" s="6" t="inlineStr"/>
+      <c r="C323" s="6" t="n">
+        <v>148</v>
+      </c>
       <c r="D323" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -4623,7 +4991,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C324" s="6" t="inlineStr"/>
+      <c r="C324" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D324" s="6" t="inlineStr"/>
       <c r="E324" s="6" t="inlineStr"/>
     </row>
@@ -4634,7 +5004,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C325" s="6" t="inlineStr"/>
+      <c r="C325" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D325" s="6" t="inlineStr"/>
       <c r="E325" s="6" t="inlineStr"/>
     </row>
@@ -4645,7 +5017,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110 х6,6</t>
         </is>
       </c>
-      <c r="C326" s="6" t="inlineStr"/>
+      <c r="C326" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D326" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -4662,7 +5036,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1000м</t>
         </is>
       </c>
-      <c r="C327" s="6" t="inlineStr"/>
+      <c r="C327" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D327" s="6" t="inlineStr"/>
       <c r="E327" s="6" t="inlineStr"/>
     </row>
@@ -5087,7 +5463,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C359" s="6" t="inlineStr"/>
+      <c r="C359" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="D359" s="6" t="inlineStr"/>
       <c r="E359" s="6" t="inlineStr">
         <is>
@@ -5102,7 +5480,9 @@
           <t>Муфта электроварная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C360" s="6" t="inlineStr"/>
+      <c r="C360" s="6" t="n">
+        <v>56</v>
+      </c>
       <c r="D360" s="6" t="inlineStr"/>
       <c r="E360" s="6" t="inlineStr">
         <is>
@@ -5117,7 +5497,9 @@
           <t>Втулка под фланец SDR17 ∅180</t>
         </is>
       </c>
-      <c r="C361" s="6" t="inlineStr"/>
+      <c r="C361" s="6" t="n">
+        <v>9</v>
+      </c>
       <c r="D361" s="6" t="inlineStr"/>
       <c r="E361" s="6" t="inlineStr">
         <is>
@@ -5132,7 +5514,9 @@
           <t>Фланец стальной накидной 1,0МПа Dу150</t>
         </is>
       </c>
-      <c r="C362" s="6" t="inlineStr"/>
+      <c r="C362" s="6" t="n">
+        <v>9</v>
+      </c>
       <c r="D362" s="6" t="inlineStr"/>
       <c r="E362" s="6" t="inlineStr">
         <is>
@@ -5147,7 +5531,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN150</t>
         </is>
       </c>
-      <c r="C363" s="6" t="inlineStr"/>
+      <c r="C363" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D363" s="6" t="inlineStr"/>
       <c r="E363" s="6" t="inlineStr"/>
     </row>
@@ -5158,7 +5544,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 315 х18,70</t>
         </is>
       </c>
-      <c r="C364" s="6" t="inlineStr"/>
+      <c r="C364" s="6" t="n">
+        <v>14.1</v>
+      </c>
       <c r="D364" s="6" t="n">
         <v>16.71</v>
       </c>
@@ -5175,7 +5563,9 @@
           <t>Муфта защитная для ПЭ трубы ∅315</t>
         </is>
       </c>
-      <c r="C365" s="6" t="inlineStr"/>
+      <c r="C365" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D365" s="6" t="inlineStr"/>
       <c r="E365" s="6" t="inlineStr">
         <is>
@@ -5315,7 +5705,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C373" s="6" t="inlineStr"/>
+      <c r="C373" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="D373" s="6" t="inlineStr"/>
       <c r="E373" s="6" t="inlineStr">
         <is>
@@ -5330,7 +5722,9 @@
           <t>Муфта электроварная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C374" s="6" t="inlineStr"/>
+      <c r="C374" s="6" t="n">
+        <v>55</v>
+      </c>
       <c r="D374" s="6" t="inlineStr"/>
       <c r="E374" s="6" t="inlineStr">
         <is>
@@ -5345,7 +5739,9 @@
           <t>Втулка под фланец SDR17 ∅180</t>
         </is>
       </c>
-      <c r="C375" s="6" t="inlineStr"/>
+      <c r="C375" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="D375" s="6" t="inlineStr"/>
       <c r="E375" s="6" t="inlineStr">
         <is>
@@ -5360,7 +5756,9 @@
           <t>Фланец стальной накидной 1,0МПа Dу150</t>
         </is>
       </c>
-      <c r="C376" s="6" t="inlineStr"/>
+      <c r="C376" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="D376" s="6" t="inlineStr"/>
       <c r="E376" s="6" t="inlineStr">
         <is>
@@ -5375,7 +5773,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN150</t>
         </is>
       </c>
-      <c r="C377" s="6" t="inlineStr"/>
+      <c r="C377" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D377" s="6" t="inlineStr"/>
       <c r="E377" s="6" t="inlineStr"/>
     </row>
@@ -5397,7 +5797,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C380" s="6" t="inlineStr"/>
+      <c r="C380" s="6" t="n">
+        <v>7.8</v>
+      </c>
       <c r="D380" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -5414,7 +5816,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C381" s="6" t="inlineStr"/>
+      <c r="C381" s="6" t="n">
+        <v>90.59999999999999</v>
+      </c>
       <c r="D381" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -5431,7 +5835,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C382" s="6" t="inlineStr"/>
+      <c r="C382" s="6" t="n">
+        <v>37.3</v>
+      </c>
       <c r="D382" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -5448,7 +5854,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C383" s="6" t="inlineStr"/>
+      <c r="C383" s="6" t="n">
+        <v>16</v>
+      </c>
       <c r="D383" s="6" t="inlineStr"/>
       <c r="E383" s="6" t="inlineStr"/>
     </row>
@@ -5516,7 +5924,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7</t>
         </is>
       </c>
-      <c r="C390" s="6" t="inlineStr"/>
+      <c r="C390" s="6" t="n">
+        <v>326</v>
+      </c>
       <c r="D390" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -5533,7 +5943,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7</t>
         </is>
       </c>
-      <c r="C391" s="6" t="inlineStr"/>
+      <c r="C391" s="6" t="n">
+        <v>58.3</v>
+      </c>
       <c r="D391" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -5550,7 +5962,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C392" s="6" t="inlineStr"/>
+      <c r="C392" s="6" t="n">
+        <v>30</v>
+      </c>
       <c r="D392" s="6" t="inlineStr"/>
       <c r="E392" s="6" t="inlineStr"/>
     </row>
@@ -5561,7 +5975,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110 х6,60</t>
         </is>
       </c>
-      <c r="C393" s="6" t="inlineStr"/>
+      <c r="C393" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="D393" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -5574,7 +5990,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C394" s="6" t="inlineStr"/>
+      <c r="C394" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="D394" s="6" t="inlineStr"/>
       <c r="E394" s="6" t="inlineStr"/>
     </row>
@@ -5585,7 +6003,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1000мм</t>
         </is>
       </c>
-      <c r="C395" s="6" t="inlineStr"/>
+      <c r="C395" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D395" s="6" t="inlineStr"/>
       <c r="E395" s="6" t="inlineStr"/>
     </row>
@@ -5596,7 +6016,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 150 L=1000мм</t>
         </is>
       </c>
-      <c r="C396" s="6" t="inlineStr"/>
+      <c r="C396" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D396" s="6" t="inlineStr"/>
       <c r="E396" s="6" t="inlineStr"/>
     </row>
@@ -5723,7 +6145,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C408" s="6" t="inlineStr"/>
+      <c r="C408" s="6" t="n">
+        <v>15.7</v>
+      </c>
       <c r="D408" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -5740,7 +6164,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,4</t>
         </is>
       </c>
-      <c r="C409" s="6" t="inlineStr"/>
+      <c r="C409" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="D409" s="6" t="n">
         <v>5.32</v>
       </c>
@@ -5757,7 +6183,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7</t>
         </is>
       </c>
-      <c r="C410" s="6" t="inlineStr"/>
+      <c r="C410" s="6" t="n">
+        <v>34.9</v>
+      </c>
       <c r="D410" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -5774,7 +6202,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C411" s="6" t="inlineStr"/>
+      <c r="C411" s="6" t="n">
+        <v>175.7</v>
+      </c>
       <c r="D411" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -5791,7 +6221,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C412" s="6" t="inlineStr"/>
+      <c r="C412" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D412" s="6" t="inlineStr"/>
       <c r="E412" s="6" t="inlineStr"/>
     </row>
@@ -5802,7 +6234,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C413" s="6" t="inlineStr"/>
+      <c r="C413" s="6" t="n">
+        <v>22</v>
+      </c>
       <c r="D413" s="6" t="inlineStr"/>
       <c r="E413" s="6" t="inlineStr"/>
     </row>
@@ -5813,7 +6247,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 150 L=1,00м</t>
         </is>
       </c>
-      <c r="C414" s="6" t="inlineStr"/>
+      <c r="C414" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D414" s="6" t="inlineStr"/>
       <c r="E414" s="6" t="inlineStr"/>
     </row>
@@ -5824,7 +6260,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1,00м</t>
         </is>
       </c>
-      <c r="C415" s="6" t="inlineStr"/>
+      <c r="C415" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D415" s="6" t="inlineStr"/>
       <c r="E415" s="6" t="inlineStr"/>
     </row>
@@ -5835,7 +6273,9 @@
           <t>Труба железобетонная раструбная ∅300 ТБ 30.20-2 (L=2.00м)</t>
         </is>
       </c>
-      <c r="C416" s="6" t="inlineStr"/>
+      <c r="C416" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D416" s="6" t="inlineStr"/>
       <c r="E416" s="6" t="inlineStr"/>
     </row>
@@ -5846,7 +6286,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 315 х18,7</t>
         </is>
       </c>
-      <c r="C417" s="6" t="inlineStr"/>
+      <c r="C417" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D417" s="6" t="n">
         <v>16.71</v>
       </c>
@@ -5863,7 +6305,9 @@
           <t>Муфта с закладными нагревателями ПЭ 100 SDR 17 225</t>
         </is>
       </c>
-      <c r="C418" s="6" t="inlineStr"/>
+      <c r="C418" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D418" s="6" t="inlineStr"/>
       <c r="E418" s="6" t="inlineStr">
         <is>
@@ -5878,7 +6322,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110х6.6</t>
         </is>
       </c>
-      <c r="C419" s="6" t="inlineStr"/>
+      <c r="C419" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="D419" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -5895,7 +6341,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C420" s="6" t="inlineStr"/>
+      <c r="C420" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="D420" s="6" t="inlineStr"/>
       <c r="E420" s="6" t="inlineStr"/>
     </row>
@@ -5906,7 +6354,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 160х9.5</t>
         </is>
       </c>
-      <c r="C421" s="6" t="inlineStr"/>
+      <c r="C421" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D421" s="6" t="n">
         <v>4.31</v>
       </c>
@@ -5923,7 +6373,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN150</t>
         </is>
       </c>
-      <c r="C422" s="6" t="inlineStr"/>
+      <c r="C422" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D422" s="6" t="inlineStr"/>
       <c r="E422" s="6" t="inlineStr"/>
     </row>
@@ -5945,7 +6397,9 @@
           <t>Труба железобетонная ∅400 ГОСТ 6482-2011</t>
         </is>
       </c>
-      <c r="C425" s="6" t="inlineStr"/>
+      <c r="C425" s="6" t="n">
+        <v>40.6</v>
+      </c>
       <c r="D425" s="6" t="inlineStr"/>
       <c r="E425" s="6" t="inlineStr"/>
     </row>
@@ -5956,7 +6410,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 450 х26,7</t>
         </is>
       </c>
-      <c r="C426" s="6" t="inlineStr"/>
+      <c r="C426" s="6" t="n">
+        <v>40.6</v>
+      </c>
       <c r="D426" s="6" t="n">
         <v>34.09</v>
       </c>
@@ -5973,7 +6429,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7</t>
         </is>
       </c>
-      <c r="C427" s="6" t="inlineStr"/>
+      <c r="C427" s="6" t="n">
+        <v>99.2</v>
+      </c>
       <c r="D427" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -5990,7 +6448,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C428" s="6" t="inlineStr"/>
+      <c r="C428" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="D428" s="6" t="inlineStr"/>
       <c r="E428" s="6" t="inlineStr"/>
     </row>
@@ -6001,7 +6461,9 @@
           <t>Муфта защитная для ПЭ трубы ∅450</t>
         </is>
       </c>
-      <c r="C429" s="6" t="inlineStr"/>
+      <c r="C429" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D429" s="6" t="inlineStr"/>
       <c r="E429" s="6" t="inlineStr"/>
     </row>
@@ -6012,7 +6474,9 @@
           <t>Труба асбестоцементная канализационная ∅ 100</t>
         </is>
       </c>
-      <c r="C430" s="6" t="inlineStr"/>
+      <c r="C430" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D430" s="6" t="inlineStr"/>
       <c r="E430" s="6" t="inlineStr"/>
     </row>
@@ -6023,7 +6487,9 @@
           <t>Труба стальная ∅ 80</t>
         </is>
       </c>
-      <c r="C431" s="6" t="inlineStr"/>
+      <c r="C431" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D431" s="6" t="inlineStr"/>
       <c r="E431" s="6" t="inlineStr"/>
     </row>
@@ -6034,7 +6500,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN80</t>
         </is>
       </c>
-      <c r="C432" s="6" t="inlineStr"/>
+      <c r="C432" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D432" s="6" t="inlineStr"/>
       <c r="E432" s="6" t="inlineStr"/>
     </row>
@@ -6045,7 +6513,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1000мм</t>
         </is>
       </c>
-      <c r="C433" s="6" t="inlineStr"/>
+      <c r="C433" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D433" s="6" t="inlineStr"/>
       <c r="E433" s="6" t="inlineStr"/>
     </row>
@@ -6056,7 +6526,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 250 L=1000мм</t>
         </is>
       </c>
-      <c r="C434" s="6" t="inlineStr"/>
+      <c r="C434" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D434" s="6" t="inlineStr"/>
       <c r="E434" s="6" t="inlineStr"/>
     </row>
@@ -6067,7 +6539,9 @@
           <t>Труба асбестоцементная канализационная ∅ 300</t>
         </is>
       </c>
-      <c r="C435" s="6" t="inlineStr"/>
+      <c r="C435" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D435" s="6" t="inlineStr"/>
       <c r="E435" s="6" t="inlineStr"/>
     </row>
@@ -6387,7 +6861,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7</t>
         </is>
       </c>
-      <c r="C460" s="6" t="inlineStr"/>
+      <c r="C460" s="6" t="n">
+        <v>17</v>
+      </c>
       <c r="D460" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -6404,7 +6880,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х 10,7</t>
         </is>
       </c>
-      <c r="C461" s="6" t="inlineStr"/>
+      <c r="C461" s="6" t="n">
+        <v>81.7</v>
+      </c>
       <c r="D461" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -6421,7 +6899,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х 13,4</t>
         </is>
       </c>
-      <c r="C462" s="6" t="inlineStr"/>
+      <c r="C462" s="6" t="n">
+        <v>138.1</v>
+      </c>
       <c r="D462" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -6438,7 +6918,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 315 х 18,7</t>
         </is>
       </c>
-      <c r="C463" s="6" t="inlineStr"/>
+      <c r="C463" s="6" t="n">
+        <v>17.7</v>
+      </c>
       <c r="D463" s="6" t="n">
         <v>16.71</v>
       </c>
@@ -6455,7 +6937,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C464" s="6" t="inlineStr"/>
+      <c r="C464" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="D464" s="6" t="inlineStr"/>
       <c r="E464" s="6" t="inlineStr"/>
     </row>
@@ -6466,7 +6950,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C465" s="6" t="inlineStr"/>
+      <c r="C465" s="6" t="n">
+        <v>18</v>
+      </c>
       <c r="D465" s="6" t="inlineStr"/>
       <c r="E465" s="6" t="inlineStr"/>
     </row>
@@ -6477,7 +6963,9 @@
           <t>Муфта защитная для ПЭ трубы ∅315</t>
         </is>
       </c>
-      <c r="C466" s="6" t="inlineStr"/>
+      <c r="C466" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D466" s="6" t="inlineStr"/>
       <c r="E466" s="6" t="inlineStr"/>
     </row>
@@ -6488,7 +6976,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110х6.6</t>
         </is>
       </c>
-      <c r="C467" s="6" t="inlineStr"/>
+      <c r="C467" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="D467" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -6505,7 +6995,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C468" s="6" t="inlineStr"/>
+      <c r="C468" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="D468" s="6" t="inlineStr"/>
       <c r="E468" s="6" t="inlineStr"/>
     </row>
@@ -6516,7 +7008,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 160х9,5</t>
         </is>
       </c>
-      <c r="C469" s="6" t="inlineStr"/>
+      <c r="C469" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D469" s="6" t="n">
         <v>4.31</v>
       </c>
@@ -6533,7 +7027,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN150</t>
         </is>
       </c>
-      <c r="C470" s="6" t="inlineStr"/>
+      <c r="C470" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D470" s="6" t="inlineStr"/>
       <c r="E470" s="6" t="inlineStr"/>
     </row>
@@ -6544,7 +7040,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 150 L=1000мм</t>
         </is>
       </c>
-      <c r="C471" s="6" t="inlineStr"/>
+      <c r="C471" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D471" s="6" t="inlineStr"/>
       <c r="E471" s="6" t="inlineStr"/>
     </row>
@@ -6555,7 +7053,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1000мм</t>
         </is>
       </c>
-      <c r="C472" s="6" t="inlineStr"/>
+      <c r="C472" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D472" s="6" t="inlineStr"/>
       <c r="E472" s="6" t="inlineStr"/>
     </row>
@@ -7182,7 +7682,9 @@
           <t>Отвод сварной 48° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C513" s="6" t="inlineStr"/>
+      <c r="C513" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D513" s="6" t="inlineStr"/>
       <c r="E513" s="6" t="inlineStr">
         <is>
@@ -7197,7 +7699,9 @@
           <t>Отвод сварной 30° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C514" s="6" t="inlineStr"/>
+      <c r="C514" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D514" s="6" t="inlineStr"/>
       <c r="E514" s="6" t="inlineStr">
         <is>
@@ -7212,7 +7716,9 @@
           <t>Отвод сварной 28° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C515" s="6" t="inlineStr"/>
+      <c r="C515" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D515" s="6" t="inlineStr"/>
       <c r="E515" s="6" t="inlineStr">
         <is>
@@ -7227,7 +7733,9 @@
           <t>Отвод сварной 11° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C516" s="6" t="inlineStr"/>
+      <c r="C516" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D516" s="6" t="inlineStr"/>
       <c r="E516" s="6" t="inlineStr">
         <is>
@@ -7242,7 +7750,9 @@
           <t>Отвод сварной 4° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C517" s="6" t="inlineStr"/>
+      <c r="C517" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D517" s="6" t="inlineStr"/>
       <c r="E517" s="6" t="inlineStr">
         <is>
@@ -7257,7 +7767,9 @@
           <t>Муфта с закладными нагревателями ПЭ 100 SDR 17 225</t>
         </is>
       </c>
-      <c r="C518" s="6" t="inlineStr"/>
+      <c r="C518" s="6" t="n">
+        <v>31</v>
+      </c>
       <c r="D518" s="6" t="inlineStr"/>
       <c r="E518" s="6" t="inlineStr">
         <is>
@@ -7272,7 +7784,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN200</t>
         </is>
       </c>
-      <c r="C519" s="6" t="inlineStr"/>
+      <c r="C519" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D519" s="6" t="inlineStr"/>
       <c r="E519" s="6" t="inlineStr"/>
     </row>
@@ -7294,7 +7808,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 280 х16,6</t>
         </is>
       </c>
-      <c r="C522" s="6" t="inlineStr"/>
+      <c r="C522" s="6" t="n">
+        <v>22.9</v>
+      </c>
       <c r="D522" s="6" t="n">
         <v>13.19</v>
       </c>
@@ -7311,7 +7827,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 280 х16,6</t>
         </is>
       </c>
-      <c r="C523" s="6" t="inlineStr"/>
+      <c r="C523" s="6" t="n">
+        <v>189.9</v>
+      </c>
       <c r="D523" s="6" t="n">
         <v>13.19</v>
       </c>
@@ -7328,7 +7846,9 @@
           <t>Муфта защитная для ПЭ трубы ∅280</t>
         </is>
       </c>
-      <c r="C524" s="6" t="inlineStr"/>
+      <c r="C524" s="6" t="n">
+        <v>31</v>
+      </c>
       <c r="D524" s="6" t="inlineStr"/>
       <c r="E524" s="6" t="inlineStr"/>
     </row>
@@ -7339,7 +7859,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110 х6,6</t>
         </is>
       </c>
-      <c r="C525" s="6" t="inlineStr"/>
+      <c r="C525" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="D525" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -7352,7 +7874,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C526" s="6" t="inlineStr"/>
+      <c r="C526" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="D526" s="6" t="inlineStr"/>
       <c r="E526" s="6" t="inlineStr"/>
     </row>
@@ -7363,7 +7887,9 @@
           <t>Труба керамическая канализационная ∅ 200/ ∅250 L=1000мм</t>
         </is>
       </c>
-      <c r="C527" s="6" t="inlineStr"/>
+      <c r="C527" s="6" t="n">
+        <v>21</v>
+      </c>
       <c r="D527" s="6" t="inlineStr"/>
       <c r="E527" s="6" t="inlineStr"/>
     </row>
@@ -7374,7 +7900,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 150 L=1000мм</t>
         </is>
       </c>
-      <c r="C528" s="6" t="inlineStr"/>
+      <c r="C528" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D528" s="6" t="inlineStr"/>
       <c r="E528" s="6" t="inlineStr"/>
     </row>
@@ -7396,7 +7924,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C531" s="6" t="inlineStr"/>
+      <c r="C531" s="6" t="n">
+        <v>8.6</v>
+      </c>
       <c r="D531" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -7413,7 +7943,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C532" s="6" t="inlineStr"/>
+      <c r="C532" s="6" t="n">
+        <v>128.1</v>
+      </c>
       <c r="D532" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -7430,7 +7962,9 @@
           <t>Муфта защитная для ПЭ трубы ∅110</t>
         </is>
       </c>
-      <c r="C533" s="6" t="inlineStr"/>
+      <c r="C533" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D533" s="6" t="inlineStr"/>
       <c r="E533" s="6" t="inlineStr"/>
     </row>
@@ -7441,7 +7975,9 @@
           <t>Муфта защитная для ПЭ трубы ∅160</t>
         </is>
       </c>
-      <c r="C534" s="6" t="inlineStr"/>
+      <c r="C534" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D534" s="6" t="inlineStr"/>
       <c r="E534" s="6" t="inlineStr"/>
     </row>
@@ -7452,7 +7988,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C535" s="6" t="inlineStr"/>
+      <c r="C535" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="D535" s="6" t="inlineStr"/>
       <c r="E535" s="6" t="inlineStr"/>
     </row>
@@ -7463,7 +8001,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110х6.6</t>
         </is>
       </c>
-      <c r="C536" s="6" t="inlineStr"/>
+      <c r="C536" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D536" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -7480,7 +8020,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C537" s="6" t="inlineStr"/>
+      <c r="C537" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D537" s="6" t="inlineStr"/>
       <c r="E537" s="6" t="inlineStr"/>
     </row>
@@ -7491,7 +8033,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 160х9.5</t>
         </is>
       </c>
-      <c r="C538" s="6" t="inlineStr"/>
+      <c r="C538" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D538" s="6" t="n">
         <v>4.31</v>
       </c>
@@ -7508,7 +8052,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN150</t>
         </is>
       </c>
-      <c r="C539" s="6" t="inlineStr"/>
+      <c r="C539" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D539" s="6" t="inlineStr"/>
       <c r="E539" s="6" t="inlineStr"/>
     </row>
@@ -7530,7 +8076,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C542" s="6" t="inlineStr"/>
+      <c r="C542" s="6" t="n">
+        <v>5.5</v>
+      </c>
       <c r="D542" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -7547,7 +8095,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C543" s="6" t="inlineStr"/>
+      <c r="C543" s="6" t="n">
+        <v>53.8</v>
+      </c>
       <c r="D543" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -7564,7 +8114,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 280 х16,6</t>
         </is>
       </c>
-      <c r="C544" s="6" t="inlineStr"/>
+      <c r="C544" s="6" t="n">
+        <v>67</v>
+      </c>
       <c r="D544" s="6" t="n">
         <v>13.19</v>
       </c>
@@ -7581,7 +8133,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C545" s="6" t="inlineStr"/>
+      <c r="C545" s="6" t="n">
+        <v>33.9</v>
+      </c>
       <c r="D545" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -7598,7 +8152,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 280 х16,6</t>
         </is>
       </c>
-      <c r="C546" s="6" t="inlineStr"/>
+      <c r="C546" s="6" t="n">
+        <v>16</v>
+      </c>
       <c r="D546" s="6" t="n">
         <v>13.19</v>
       </c>
@@ -7615,7 +8171,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C547" s="6" t="inlineStr"/>
+      <c r="C547" s="6" t="n">
+        <v>30</v>
+      </c>
       <c r="D547" s="6" t="inlineStr"/>
       <c r="E547" s="6" t="inlineStr"/>
     </row>
@@ -7626,7 +8184,9 @@
           <t>Муфта защитная для ПЭ трубы ∅280</t>
         </is>
       </c>
-      <c r="C548" s="6" t="inlineStr"/>
+      <c r="C548" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="D548" s="6" t="inlineStr"/>
       <c r="E548" s="6" t="inlineStr"/>
     </row>
@@ -7637,7 +8197,9 @@
           <t>Муфта защитная для ПЭ трубы ∅355</t>
         </is>
       </c>
-      <c r="C549" s="6" t="inlineStr"/>
+      <c r="C549" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D549" s="6" t="inlineStr"/>
       <c r="E549" s="6" t="inlineStr"/>
     </row>
@@ -7648,7 +8210,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО R C П Э 10 0 S D R 1 7 ∅125х7.4</t>
         </is>
       </c>
-      <c r="C550" s="6" t="inlineStr"/>
+      <c r="C550" s="6" t="n">
+        <v>1.5</v>
+      </c>
       <c r="D550" s="6" t="n">
         <v>2.62</v>
       </c>
@@ -7661,7 +8225,9 @@
           <t>ПНД отвод 90 ∅125</t>
         </is>
       </c>
-      <c r="C551" s="6" t="inlineStr"/>
+      <c r="C551" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D551" s="6" t="inlineStr"/>
       <c r="E551" s="6" t="inlineStr"/>
     </row>
@@ -7673,7 +8239,9 @@
 ∅250х14.8</t>
         </is>
       </c>
-      <c r="C552" s="6" t="inlineStr"/>
+      <c r="C552" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D552" s="6" t="n">
         <v>10.5</v>
       </c>
@@ -7686,7 +8254,9 @@
           <t>ПНД отвод 90 ∅250</t>
         </is>
       </c>
-      <c r="C553" s="6" t="inlineStr"/>
+      <c r="C553" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D553" s="6" t="inlineStr"/>
       <c r="E553" s="6" t="inlineStr"/>
     </row>
@@ -7698,7 +8268,9 @@
 ∅280х16,6</t>
         </is>
       </c>
-      <c r="C554" s="6" t="inlineStr"/>
+      <c r="C554" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D554" s="6" t="n">
         <v>13.19</v>
       </c>
@@ -7711,7 +8283,9 @@
           <t>ПНД отвод 90 ∅280</t>
         </is>
       </c>
-      <c r="C555" s="6" t="inlineStr"/>
+      <c r="C555" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D555" s="6" t="inlineStr"/>
       <c r="E555" s="6" t="inlineStr"/>
     </row>
@@ -7723,7 +8297,9 @@
 ∅355х21,1</t>
         </is>
       </c>
-      <c r="C556" s="6" t="inlineStr"/>
+      <c r="C556" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D556" s="6" t="n">
         <v>21.25</v>
       </c>
@@ -7736,7 +8312,9 @@
           <t>ПНД отвод 90 ∅355</t>
         </is>
       </c>
-      <c r="C557" s="6" t="inlineStr"/>
+      <c r="C557" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D557" s="6" t="inlineStr"/>
       <c r="E557" s="6" t="inlineStr"/>
     </row>
@@ -7748,7 +8326,9 @@
 ∅225х13,4</t>
         </is>
       </c>
-      <c r="C558" s="6" t="inlineStr"/>
+      <c r="C558" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D558" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -7761,7 +8341,9 @@
           <t>ПНД отвод 90 ∅225</t>
         </is>
       </c>
-      <c r="C559" s="6" t="inlineStr"/>
+      <c r="C559" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D559" s="6" t="inlineStr"/>
       <c r="E559" s="6" t="inlineStr"/>
     </row>
@@ -7772,7 +8354,9 @@
           <t>Труба МУЛЬТИКЛИН ЭК О R C П Э 1 0 0 S D R 1 7 ∅110х6,6</t>
         </is>
       </c>
-      <c r="C560" s="6" t="inlineStr"/>
+      <c r="C560" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D560" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -7785,7 +8369,9 @@
           <t>Переходная муфта сталь - ПНД ∅100</t>
         </is>
       </c>
-      <c r="C561" s="6" t="inlineStr"/>
+      <c r="C561" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D561" s="6" t="inlineStr"/>
       <c r="E561" s="6" t="inlineStr"/>
     </row>
@@ -7796,7 +8382,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 75х4,5</t>
         </is>
       </c>
-      <c r="C562" s="6" t="inlineStr"/>
+      <c r="C562" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D562" s="6" t="n">
         <v>0.96</v>
       </c>
@@ -7813,7 +8401,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN65</t>
         </is>
       </c>
-      <c r="C563" s="6" t="inlineStr"/>
+      <c r="C563" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D563" s="6" t="inlineStr"/>
       <c r="E563" s="6" t="inlineStr"/>
     </row>
@@ -7824,7 +8414,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 90х5.4</t>
         </is>
       </c>
-      <c r="C564" s="6" t="inlineStr"/>
+      <c r="C564" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D564" s="6" t="n">
         <v>1.38</v>
       </c>
@@ -7841,7 +8433,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN80</t>
         </is>
       </c>
-      <c r="C565" s="6" t="inlineStr"/>
+      <c r="C565" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D565" s="6" t="inlineStr"/>
       <c r="E565" s="6" t="inlineStr"/>
     </row>
@@ -7852,7 +8446,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110х6.6</t>
         </is>
       </c>
-      <c r="C566" s="6" t="inlineStr"/>
+      <c r="C566" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="D566" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -7869,7 +8465,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C567" s="6" t="inlineStr"/>
+      <c r="C567" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="D567" s="6" t="inlineStr"/>
       <c r="E567" s="6" t="inlineStr"/>
     </row>
@@ -7880,7 +8478,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225х13,4</t>
         </is>
       </c>
-      <c r="C568" s="6" t="inlineStr"/>
+      <c r="C568" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D568" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -7897,7 +8497,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C569" s="6" t="inlineStr"/>
+      <c r="C569" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D569" s="6" t="inlineStr"/>
       <c r="E569" s="6" t="inlineStr"/>
     </row>
@@ -7908,7 +8510,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 160х9,5</t>
         </is>
       </c>
-      <c r="C570" s="6" t="inlineStr"/>
+      <c r="C570" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D570" s="6" t="n">
         <v>4.31</v>
       </c>
@@ -7925,7 +8529,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN150</t>
         </is>
       </c>
-      <c r="C571" s="6" t="inlineStr"/>
+      <c r="C571" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D571" s="6" t="inlineStr"/>
       <c r="E571" s="6" t="inlineStr"/>
     </row>
@@ -7947,7 +8553,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C574" s="6" t="inlineStr"/>
+      <c r="C574" s="6" t="n">
+        <v>11.7</v>
+      </c>
       <c r="D574" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -7964,7 +8572,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 160 х9,5</t>
         </is>
       </c>
-      <c r="C575" s="6" t="inlineStr"/>
+      <c r="C575" s="6" t="n">
+        <v>7.9</v>
+      </c>
       <c r="D575" s="6" t="n">
         <v>4.31</v>
       </c>
@@ -7982,7 +8592,9 @@
 Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C576" s="6" t="inlineStr"/>
+      <c r="C576" s="6" t="n">
+        <v>119.6</v>
+      </c>
       <c r="D576" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -7995,7 +8607,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7</t>
         </is>
       </c>
-      <c r="C577" s="6" t="inlineStr"/>
+      <c r="C577" s="6" t="n">
+        <v>10.8</v>
+      </c>
       <c r="D577" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -8008,7 +8622,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C578" s="6" t="inlineStr"/>
+      <c r="C578" s="6" t="n">
+        <v>32</v>
+      </c>
       <c r="D578" s="6" t="inlineStr"/>
       <c r="E578" s="6" t="inlineStr"/>
     </row>
@@ -8019,7 +8635,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C579" s="6" t="inlineStr"/>
+      <c r="C579" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D579" s="6" t="inlineStr"/>
       <c r="E579" s="6" t="inlineStr"/>
     </row>
@@ -8030,7 +8648,9 @@
           <t>Муфта защитная для ПЭ трубы ∅160</t>
         </is>
       </c>
-      <c r="C580" s="6" t="inlineStr"/>
+      <c r="C580" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D580" s="6" t="inlineStr"/>
       <c r="E580" s="6" t="inlineStr"/>
     </row>
@@ -8052,7 +8672,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C583" s="6" t="inlineStr"/>
+      <c r="C583" s="6" t="n">
+        <v>310.8</v>
+      </c>
       <c r="D583" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -8069,7 +8691,9 @@
           <t>Муфта защитная для ПЭ трубы ∅90</t>
         </is>
       </c>
-      <c r="C584" s="6" t="inlineStr"/>
+      <c r="C584" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D584" s="6" t="inlineStr"/>
       <c r="E584" s="6" t="inlineStr"/>
     </row>
@@ -8080,7 +8704,9 @@
           <t>Муфта защитная для ПЭ трубы ∅200</t>
         </is>
       </c>
-      <c r="C585" s="6" t="inlineStr"/>
+      <c r="C585" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D585" s="6" t="inlineStr"/>
       <c r="E585" s="6" t="inlineStr"/>
     </row>
@@ -8091,7 +8717,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C586" s="6" t="inlineStr"/>
+      <c r="C586" s="6" t="n">
+        <v>13</v>
+      </c>
       <c r="D586" s="6" t="inlineStr"/>
       <c r="E586" s="6" t="inlineStr"/>
     </row>
@@ -8113,7 +8741,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7</t>
         </is>
       </c>
-      <c r="C589" s="6" t="inlineStr"/>
+      <c r="C589" s="6" t="n">
+        <v>114.1</v>
+      </c>
       <c r="D589" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -8130,7 +8760,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C590" s="6" t="inlineStr"/>
+      <c r="C590" s="6" t="n">
+        <v>14</v>
+      </c>
       <c r="D590" s="6" t="inlineStr"/>
       <c r="E590" s="6" t="inlineStr"/>
     </row>
@@ -8141,7 +8773,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110х6,6</t>
         </is>
       </c>
-      <c r="C591" s="6" t="inlineStr"/>
+      <c r="C591" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="D591" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -8154,7 +8788,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C592" s="6" t="inlineStr"/>
+      <c r="C592" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="D592" s="6" t="inlineStr"/>
       <c r="E592" s="6" t="inlineStr"/>
     </row>
@@ -8176,7 +8812,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7</t>
         </is>
       </c>
-      <c r="C595" s="6" t="inlineStr"/>
+      <c r="C595" s="6" t="n">
+        <v>11.6</v>
+      </c>
       <c r="D595" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -8193,7 +8831,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180х10,7</t>
         </is>
       </c>
-      <c r="C596" s="6" t="inlineStr"/>
+      <c r="C596" s="6" t="n">
+        <v>88.40000000000001</v>
+      </c>
       <c r="D596" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -8211,7 +8851,9 @@
 Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7</t>
         </is>
       </c>
-      <c r="C597" s="6" t="inlineStr"/>
+      <c r="C597" s="6" t="n">
+        <v>46.3</v>
+      </c>
       <c r="D597" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -8224,7 +8866,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C598" s="6" t="inlineStr"/>
+      <c r="C598" s="6" t="n">
+        <v>20</v>
+      </c>
       <c r="D598" s="6" t="inlineStr"/>
       <c r="E598" s="6" t="inlineStr"/>
     </row>
@@ -8246,7 +8890,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7</t>
         </is>
       </c>
-      <c r="C601" s="6" t="inlineStr"/>
+      <c r="C601" s="6" t="n">
+        <v>5.6</v>
+      </c>
       <c r="D601" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -8263,7 +8909,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7</t>
         </is>
       </c>
-      <c r="C602" s="6" t="inlineStr"/>
+      <c r="C602" s="6" t="n">
+        <v>53.1</v>
+      </c>
       <c r="D602" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -8281,7 +8929,9 @@
 Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7</t>
         </is>
       </c>
-      <c r="C603" s="6" t="inlineStr"/>
+      <c r="C603" s="6" t="n">
+        <v>40</v>
+      </c>
       <c r="D603" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -8294,7 +8944,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C604" s="6" t="inlineStr"/>
+      <c r="C604" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="D604" s="6" t="inlineStr"/>
       <c r="E604" s="6" t="inlineStr"/>
     </row>
@@ -8524,7 +9176,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х 13,40</t>
         </is>
       </c>
-      <c r="C622" s="6" t="inlineStr"/>
+      <c r="C622" s="6" t="n">
+        <v>12.3</v>
+      </c>
       <c r="D622" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -8541,7 +9195,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225х13,4</t>
         </is>
       </c>
-      <c r="C623" s="6" t="inlineStr"/>
+      <c r="C623" s="6" t="n">
+        <v>1557.5</v>
+      </c>
       <c r="D623" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -8558,7 +9214,9 @@
           <t>Труба МУЛЬТИПАЙП 1075 ПЭ100-RC SDR17 - 225 х 13,4</t>
         </is>
       </c>
-      <c r="C624" s="6" t="inlineStr"/>
+      <c r="C624" s="6" t="n">
+        <v>65</v>
+      </c>
       <c r="D624" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -8575,7 +9233,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C625" s="6" t="inlineStr"/>
+      <c r="C625" s="6" t="n">
+        <v>9</v>
+      </c>
       <c r="D625" s="6" t="inlineStr"/>
       <c r="E625" s="6" t="inlineStr"/>
     </row>
@@ -8586,7 +9246,9 @@
           <t>Отвод сварной 90° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C626" s="6" t="inlineStr"/>
+      <c r="C626" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D626" s="6" t="inlineStr"/>
       <c r="E626" s="6" t="inlineStr">
         <is>
@@ -9180,7 +9842,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C663" s="6" t="inlineStr"/>
+      <c r="C663" s="6" t="n">
+        <v>858.3</v>
+      </c>
       <c r="D663" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -9197,7 +9861,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C664" s="6" t="inlineStr"/>
+      <c r="C664" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D664" s="6" t="inlineStr"/>
       <c r="E664" s="6" t="inlineStr"/>
     </row>
@@ -9208,7 +9874,9 @@
           <t>Муфта с закладными нагревателями ПЭ 100 SDR 17 225</t>
         </is>
       </c>
-      <c r="C665" s="6" t="inlineStr"/>
+      <c r="C665" s="6" t="n">
+        <v>20</v>
+      </c>
       <c r="D665" s="6" t="inlineStr"/>
       <c r="E665" s="6" t="inlineStr">
         <is>
@@ -9223,7 +9891,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN200</t>
         </is>
       </c>
-      <c r="C666" s="6" t="inlineStr"/>
+      <c r="C666" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D666" s="6" t="inlineStr"/>
       <c r="E666" s="6" t="inlineStr"/>
     </row>
@@ -9234,7 +9904,9 @@
           <t>Отвод сварной 90° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C667" s="6" t="inlineStr"/>
+      <c r="C667" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D667" s="6" t="inlineStr"/>
       <c r="E667" s="6" t="inlineStr">
         <is>
@@ -9249,7 +9921,9 @@
           <t>Отвод сварной 84° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C668" s="6" t="inlineStr"/>
+      <c r="C668" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D668" s="6" t="inlineStr"/>
       <c r="E668" s="6" t="inlineStr">
         <is>
@@ -9264,7 +9938,9 @@
           <t>Отвод сварной 82° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C669" s="6" t="inlineStr"/>
+      <c r="C669" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D669" s="6" t="inlineStr"/>
       <c r="E669" s="6" t="inlineStr">
         <is>
@@ -9279,7 +9955,9 @@
           <t>Отвод сварной 10° ПЭ100 SDR 17 225х13,4</t>
         </is>
       </c>
-      <c r="C670" s="6" t="inlineStr"/>
+      <c r="C670" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D670" s="6" t="inlineStr"/>
       <c r="E670" s="6" t="inlineStr">
         <is>

--- a/specifications_full.xlsx
+++ b/specifications_full.xlsx
@@ -1664,7 +1664,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 250 х14,80</t>
         </is>
       </c>
-      <c r="C74" s="6" t="inlineStr"/>
+      <c r="C74" s="6" t="n">
+        <v>9</v>
+      </c>
       <c r="D74" s="6" t="n">
         <v>10.5</v>
       </c>
@@ -1681,7 +1683,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,70</t>
         </is>
       </c>
-      <c r="C75" s="6" t="inlineStr"/>
+      <c r="C75" s="6" t="n">
+        <v>32.9</v>
+      </c>
       <c r="D75" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -1698,7 +1702,9 @@
           <t>Муфта защитная для ПЭ трубы ∅250</t>
         </is>
       </c>
-      <c r="C76" s="6" t="inlineStr"/>
+      <c r="C76" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D76" s="6" t="inlineStr"/>
       <c r="E76" s="6" t="inlineStr"/>
     </row>
@@ -1709,7 +1715,9 @@
           <t>Отвод сварной двухсекционный 90° ∅250</t>
         </is>
       </c>
-      <c r="C77" s="6" t="inlineStr"/>
+      <c r="C77" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D77" s="6" t="inlineStr"/>
       <c r="E77" s="6" t="inlineStr">
         <is>
@@ -1724,7 +1732,9 @@
           <t>Отвод сварной двухсекционный 23° ∅250</t>
         </is>
       </c>
-      <c r="C78" s="6" t="inlineStr"/>
+      <c r="C78" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D78" s="6" t="inlineStr"/>
       <c r="E78" s="6" t="inlineStr">
         <is>
@@ -1739,7 +1749,9 @@
           <t>Отвод сварной двухсекционный 28° ∅250</t>
         </is>
       </c>
-      <c r="C79" s="6" t="inlineStr"/>
+      <c r="C79" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D79" s="6" t="inlineStr"/>
       <c r="E79" s="6" t="inlineStr">
         <is>
@@ -1754,7 +1766,9 @@
           <t>Отвод сварной двухсекционный 37° ∅250</t>
         </is>
       </c>
-      <c r="C80" s="6" t="inlineStr"/>
+      <c r="C80" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D80" s="6" t="inlineStr"/>
       <c r="E80" s="6" t="inlineStr">
         <is>
@@ -1769,7 +1783,9 @@
           <t>Отвод сварной двухсекционный 77° ∅250</t>
         </is>
       </c>
-      <c r="C81" s="6" t="inlineStr"/>
+      <c r="C81" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D81" s="6" t="inlineStr"/>
       <c r="E81" s="6" t="inlineStr">
         <is>
@@ -1784,7 +1800,9 @@
           <t>Отвод сварной двухсекционный 75° ∅250</t>
         </is>
       </c>
-      <c r="C82" s="6" t="inlineStr"/>
+      <c r="C82" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D82" s="6" t="inlineStr"/>
       <c r="E82" s="6" t="inlineStr">
         <is>
@@ -1799,7 +1817,9 @@
           <t>Муфта с закладными нагревателями ПЭ 100 SDR 17 250</t>
         </is>
       </c>
-      <c r="C83" s="6" t="inlineStr"/>
+      <c r="C83" s="6" t="n">
+        <v>22</v>
+      </c>
       <c r="D83" s="6" t="inlineStr"/>
       <c r="E83" s="6" t="inlineStr">
         <is>
@@ -1814,7 +1834,9 @@
           <t>Втулка под фланец SDR17 ∅250</t>
         </is>
       </c>
-      <c r="C84" s="6" t="inlineStr"/>
+      <c r="C84" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D84" s="6" t="inlineStr"/>
       <c r="E84" s="6" t="inlineStr">
         <is>
@@ -1829,7 +1851,9 @@
           <t>Фланец стальной накидной 1,0МПа Dу250</t>
         </is>
       </c>
-      <c r="C85" s="6" t="inlineStr"/>
+      <c r="C85" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D85" s="6" t="inlineStr"/>
       <c r="E85" s="6" t="inlineStr">
         <is>
@@ -2358,7 +2382,9 @@
           <t>Труба железобетонная раструбная ∅500 ТБ 50.20-2 (L=2.00м)</t>
         </is>
       </c>
-      <c r="C125" s="6" t="inlineStr"/>
+      <c r="C125" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D125" s="6" t="inlineStr"/>
       <c r="E125" s="6" t="inlineStr"/>
     </row>
@@ -2369,7 +2395,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 300 L=1,00м</t>
         </is>
       </c>
-      <c r="C126" s="6" t="inlineStr"/>
+      <c r="C126" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D126" s="6" t="inlineStr"/>
       <c r="E126" s="6" t="inlineStr"/>
     </row>
@@ -2380,7 +2408,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1,00м</t>
         </is>
       </c>
-      <c r="C127" s="6" t="inlineStr"/>
+      <c r="C127" s="6" t="n">
+        <v>13</v>
+      </c>
       <c r="D127" s="6" t="inlineStr"/>
       <c r="E127" s="6" t="inlineStr"/>
     </row>
@@ -2391,7 +2421,9 @@
           <t>Труба асбестоцементная канализационная ∅ 200</t>
         </is>
       </c>
-      <c r="C128" s="6" t="inlineStr"/>
+      <c r="C128" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D128" s="6" t="inlineStr"/>
       <c r="E128" s="6" t="inlineStr"/>
     </row>
@@ -2402,7 +2434,9 @@
           <t>Муфта асбестоцементная канализационная ∅ 200</t>
         </is>
       </c>
-      <c r="C129" s="6" t="inlineStr"/>
+      <c r="C129" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D129" s="6" t="inlineStr"/>
       <c r="E129" s="6" t="inlineStr"/>
     </row>
@@ -2413,7 +2447,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110 х 6,6</t>
         </is>
       </c>
-      <c r="C130" s="6" t="inlineStr"/>
+      <c r="C130" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="D130" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -2430,7 +2466,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C131" s="6" t="inlineStr"/>
+      <c r="C131" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="D131" s="6" t="inlineStr"/>
       <c r="E131" s="6" t="inlineStr"/>
     </row>
@@ -2452,7 +2490,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C134" s="6" t="inlineStr"/>
+      <c r="C134" s="6" t="n">
+        <v>20</v>
+      </c>
       <c r="D134" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -2469,7 +2509,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C135" s="6" t="inlineStr"/>
+      <c r="C135" s="6" t="n">
+        <v>5.8</v>
+      </c>
       <c r="D135" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -2486,7 +2528,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C136" s="6" t="inlineStr"/>
+      <c r="C136" s="6" t="n">
+        <v>26</v>
+      </c>
       <c r="D136" s="6" t="inlineStr"/>
       <c r="E136" s="6" t="inlineStr"/>
     </row>
@@ -2497,7 +2541,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1,00м</t>
         </is>
       </c>
-      <c r="C137" s="6" t="inlineStr"/>
+      <c r="C137" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D137" s="6" t="inlineStr"/>
       <c r="E137" s="6" t="inlineStr"/>
     </row>
@@ -2508,7 +2554,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 300 L=1,00м</t>
         </is>
       </c>
-      <c r="C138" s="6" t="inlineStr"/>
+      <c r="C138" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D138" s="6" t="inlineStr"/>
       <c r="E138" s="6" t="inlineStr"/>
     </row>
@@ -2519,7 +2567,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C139" s="6" t="inlineStr"/>
+      <c r="C139" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="D139" s="6" t="inlineStr"/>
       <c r="E139" s="6" t="inlineStr"/>
     </row>
@@ -2530,7 +2580,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110 х6,6</t>
         </is>
       </c>
-      <c r="C140" s="6" t="inlineStr"/>
+      <c r="C140" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="D140" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -2659,7 +2711,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180х10,7</t>
         </is>
       </c>
-      <c r="C151" s="6" t="inlineStr"/>
+      <c r="C151" s="6" t="n">
+        <v>20</v>
+      </c>
       <c r="D151" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -2676,7 +2730,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180х10,7</t>
         </is>
       </c>
-      <c r="C152" s="6" t="inlineStr"/>
+      <c r="C152" s="6" t="n">
+        <v>3.1</v>
+      </c>
       <c r="D152" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -2693,7 +2749,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C153" s="6" t="inlineStr"/>
+      <c r="C153" s="6" t="n">
+        <v>18</v>
+      </c>
       <c r="D153" s="6" t="inlineStr"/>
       <c r="E153" s="6" t="inlineStr"/>
     </row>
@@ -2704,7 +2762,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110 х 6,6</t>
         </is>
       </c>
-      <c r="C154" s="6" t="inlineStr"/>
+      <c r="C154" s="6" t="n">
+        <v>13</v>
+      </c>
       <c r="D154" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -2721,7 +2781,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C155" s="6" t="inlineStr"/>
+      <c r="C155" s="6" t="n">
+        <v>13</v>
+      </c>
       <c r="D155" s="6" t="inlineStr"/>
       <c r="E155" s="6" t="inlineStr"/>
     </row>
@@ -2732,7 +2794,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 150 L=1,00м</t>
         </is>
       </c>
-      <c r="C156" s="6" t="inlineStr"/>
+      <c r="C156" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D156" s="6" t="inlineStr"/>
       <c r="E156" s="6" t="inlineStr"/>
     </row>
@@ -2743,7 +2807,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 300 L=1,00м</t>
         </is>
       </c>
-      <c r="C157" s="6" t="inlineStr"/>
+      <c r="C157" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D157" s="6" t="inlineStr"/>
       <c r="E157" s="6" t="inlineStr"/>
     </row>
@@ -3493,7 +3559,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C214" s="6" t="inlineStr"/>
+      <c r="C214" s="6" t="n">
+        <v>5.2</v>
+      </c>
       <c r="D214" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -3510,7 +3578,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180х10,7</t>
         </is>
       </c>
-      <c r="C215" s="6" t="inlineStr"/>
+      <c r="C215" s="6" t="n">
+        <v>0.2</v>
+      </c>
       <c r="D215" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -3527,7 +3597,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225х13,4</t>
         </is>
       </c>
-      <c r="C216" s="6" t="inlineStr"/>
+      <c r="C216" s="6" t="n">
+        <v>23.6</v>
+      </c>
       <c r="D216" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -3544,7 +3616,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C217" s="6" t="inlineStr"/>
+      <c r="C217" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D217" s="6" t="inlineStr"/>
       <c r="E217" s="6" t="inlineStr"/>
     </row>
@@ -3555,7 +3629,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C218" s="6" t="inlineStr"/>
+      <c r="C218" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="D218" s="6" t="inlineStr"/>
       <c r="E218" s="6" t="inlineStr"/>
     </row>
@@ -3843,7 +3919,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C241" s="6" t="inlineStr"/>
+      <c r="C241" s="6" t="n">
+        <v>8.6</v>
+      </c>
       <c r="D241" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -3860,7 +3938,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C242" s="6" t="inlineStr"/>
+      <c r="C242" s="6" t="n">
+        <v>9</v>
+      </c>
       <c r="D242" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -3877,7 +3957,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C243" s="6" t="inlineStr"/>
+      <c r="C243" s="6" t="n">
+        <v>18</v>
+      </c>
       <c r="D243" s="6" t="inlineStr"/>
       <c r="E243" s="6" t="inlineStr"/>
     </row>
@@ -5367,7 +5449,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,70</t>
         </is>
       </c>
-      <c r="C353" s="6" t="inlineStr"/>
+      <c r="C353" s="6" t="n">
+        <v>17</v>
+      </c>
       <c r="D353" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -5384,7 +5468,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,70</t>
         </is>
       </c>
-      <c r="C354" s="6" t="inlineStr"/>
+      <c r="C354" s="6" t="n">
+        <v>86</v>
+      </c>
       <c r="D354" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -5401,7 +5487,9 @@
           <t>Труба ПЭ труба МУЛЬТИПАЙП 1075 ПЭ100-RC SDR17 180х10,7</t>
         </is>
       </c>
-      <c r="C355" s="6" t="inlineStr"/>
+      <c r="C355" s="6" t="n">
+        <v>800</v>
+      </c>
       <c r="D355" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -5418,7 +5506,9 @@
           <t>Отвод сварной двухсекционный 90° ∅180</t>
         </is>
       </c>
-      <c r="C356" s="6" t="inlineStr"/>
+      <c r="C356" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D356" s="6" t="inlineStr"/>
       <c r="E356" s="6" t="inlineStr">
         <is>
@@ -5433,7 +5523,9 @@
           <t>Отвод сварной двухсекционный 53° ∅180</t>
         </is>
       </c>
-      <c r="C357" s="6" t="inlineStr"/>
+      <c r="C357" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D357" s="6" t="inlineStr"/>
       <c r="E357" s="6" t="inlineStr">
         <is>
@@ -5448,7 +5540,9 @@
           <t>Отвод сварной двухсекционный 20° ∅180</t>
         </is>
       </c>
-      <c r="C358" s="6" t="inlineStr"/>
+      <c r="C358" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D358" s="6" t="inlineStr"/>
       <c r="E358" s="6" t="inlineStr">
         <is>
@@ -5867,7 +5961,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1000м</t>
         </is>
       </c>
-      <c r="C384" s="6" t="inlineStr"/>
+      <c r="C384" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D384" s="6" t="inlineStr"/>
       <c r="E384" s="6" t="inlineStr"/>
     </row>
@@ -5878,7 +5974,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 300 L=1000м</t>
         </is>
       </c>
-      <c r="C385" s="6" t="inlineStr"/>
+      <c r="C385" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D385" s="6" t="inlineStr"/>
       <c r="E385" s="6" t="inlineStr"/>
     </row>
@@ -5889,7 +5987,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110 х6,6</t>
         </is>
       </c>
-      <c r="C386" s="6" t="inlineStr"/>
+      <c r="C386" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D386" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -5902,7 +6002,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C387" s="6" t="inlineStr"/>
+      <c r="C387" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D387" s="6" t="inlineStr"/>
       <c r="E387" s="6" t="inlineStr"/>
     </row>
@@ -6040,7 +6142,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C399" s="6" t="inlineStr"/>
+      <c r="C399" s="6" t="n">
+        <v>0.2</v>
+      </c>
       <c r="D399" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -6057,7 +6161,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C400" s="6" t="inlineStr"/>
+      <c r="C400" s="6" t="n">
+        <v>7.6</v>
+      </c>
       <c r="D400" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -6075,7 +6181,9 @@
 Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C401" s="6" t="inlineStr"/>
+      <c r="C401" s="6" t="n">
+        <v>9.1</v>
+      </c>
       <c r="D401" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -6088,7 +6196,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C402" s="6" t="inlineStr"/>
+      <c r="C402" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D402" s="6" t="inlineStr"/>
       <c r="E402" s="6" t="inlineStr"/>
     </row>
@@ -6099,7 +6209,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 110 х 6,6</t>
         </is>
       </c>
-      <c r="C403" s="6" t="inlineStr"/>
+      <c r="C403" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="D403" s="6" t="n">
         <v>2.06</v>
       </c>
@@ -6112,7 +6224,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN100</t>
         </is>
       </c>
-      <c r="C404" s="6" t="inlineStr"/>
+      <c r="C404" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="D404" s="6" t="inlineStr"/>
       <c r="E404" s="6" t="inlineStr"/>
     </row>
@@ -6123,7 +6237,9 @@
           <t>Труба керамическая раструбная канализационная ∅ 200 L=1,00м</t>
         </is>
       </c>
-      <c r="C405" s="6" t="inlineStr"/>
+      <c r="C405" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="D405" s="6" t="inlineStr"/>
       <c r="E405" s="6" t="inlineStr"/>
     </row>
@@ -6683,7 +6799,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7</t>
         </is>
       </c>
-      <c r="C447" s="6" t="inlineStr"/>
+      <c r="C447" s="6" t="n">
+        <v>60</v>
+      </c>
       <c r="D447" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -6700,7 +6818,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7</t>
         </is>
       </c>
-      <c r="C448" s="6" t="inlineStr"/>
+      <c r="C448" s="6" t="n">
+        <v>4.3</v>
+      </c>
       <c r="D448" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -6717,7 +6837,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C449" s="6" t="inlineStr"/>
+      <c r="C449" s="6" t="n">
+        <v>3.7</v>
+      </c>
       <c r="D449" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -6734,7 +6856,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7</t>
         </is>
       </c>
-      <c r="C450" s="6" t="inlineStr"/>
+      <c r="C450" s="6" t="n">
+        <v>60</v>
+      </c>
       <c r="D450" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -6751,7 +6875,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 225 х13,4</t>
         </is>
       </c>
-      <c r="C451" s="6" t="inlineStr"/>
+      <c r="C451" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="D451" s="6" t="n">
         <v>8.550000000000001</v>
       </c>
@@ -6764,7 +6890,9 @@
           <t>Муфта защитная для ПЭ трубы ∅180</t>
         </is>
       </c>
-      <c r="C452" s="6" t="inlineStr"/>
+      <c r="C452" s="6" t="n">
+        <v>18</v>
+      </c>
       <c r="D452" s="6" t="inlineStr"/>
       <c r="E452" s="6" t="inlineStr"/>
     </row>
@@ -6775,7 +6903,9 @@
           <t>Муфта защитная для ПЭ трубы ∅225</t>
         </is>
       </c>
-      <c r="C453" s="6" t="inlineStr"/>
+      <c r="C453" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="D453" s="6" t="inlineStr"/>
       <c r="E453" s="6" t="inlineStr"/>
     </row>
@@ -6786,7 +6916,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 180 х10,7 L=1.0м</t>
         </is>
       </c>
-      <c r="C454" s="6" t="inlineStr"/>
+      <c r="C454" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="D454" s="6" t="n">
         <v>5.46</v>
       </c>
@@ -6803,7 +6935,9 @@
           <t>Труба МУЛЬТИКЛИН ЭКО RC ПЭ100 SDR17 - 315 х18,7 L=1.0м</t>
         </is>
       </c>
-      <c r="C455" s="6" t="inlineStr"/>
+      <c r="C455" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D455" s="6" t="n">
         <v>16.71</v>
       </c>
@@ -6820,7 +6954,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN150</t>
         </is>
       </c>
-      <c r="C456" s="6" t="inlineStr"/>
+      <c r="C456" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="D456" s="6" t="inlineStr"/>
       <c r="E456" s="6" t="inlineStr">
         <is>
@@ -6835,7 +6971,9 @@
           <t>Муфта универсальная MAX-DRK-SKR DN300</t>
         </is>
       </c>
-      <c r="C457" s="6" t="inlineStr"/>
+      <c r="C457" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D457" s="6" t="inlineStr"/>
       <c r="E457" s="6" t="inlineStr">
         <is>
